--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="620" windowWidth="28100" windowHeight="12960"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="FIELD VALUES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="147">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -202,35 +202,272 @@
     <t>CONSTRUCT</t>
   </si>
   <si>
-    <t>BLANK()</t>
-  </si>
-  <si>
-    <t>CUSTOM</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¥</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>TECH</t>
+    <t>PHOTO</t>
+  </si>
+  <si>
+    <t>IMAGEN</t>
+  </si>
+  <si>
+    <t>ADDERESS</t>
+  </si>
+  <si>
+    <t>CELL</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>LOCAL AIRPORT</t>
+  </si>
+  <si>
+    <t>CONTACT INFO</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>PAY RATE</t>
+  </si>
+  <si>
+    <t>MEDICAL</t>
+  </si>
+  <si>
+    <t>PASSPORT</t>
+  </si>
+  <si>
+    <t>MARITAL STATUS</t>
+  </si>
+  <si>
+    <t>CHILDREN</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>DRIVER LICENCE</t>
+  </si>
+  <si>
+    <t>TYPE PAY RATE</t>
+  </si>
+  <si>
+    <t>HUNAL / DIEM</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>TABLE: TECH INFO EXTERNAL SERVER</t>
+  </si>
+  <si>
+    <t>TABLE: TECH INFO AXIS DBASE</t>
+  </si>
+  <si>
+    <t>IMAGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFPA </t>
+  </si>
+  <si>
+    <t>EXPERIENCE DATE</t>
+  </si>
+  <si>
+    <t>IDTECH</t>
+  </si>
+  <si>
+    <t>KEY ID</t>
+  </si>
+  <si>
+    <t>SERVICE / CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>TABLE: TECH INFO WORK EXP EXTERNAL SERVER</t>
+  </si>
+  <si>
+    <t>IDETECH</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>MANUFACTER</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>SERIAL #</t>
+  </si>
+  <si>
+    <t>DATE OF MANUFACTURE</t>
+  </si>
+  <si>
+    <t>RECERTIFICATION CONT</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>TABLE: TECH INFO KIT AXIS DBASE</t>
+  </si>
+  <si>
+    <t>TABLE: TECH INFO CIM AXIS DBASE</t>
+  </si>
+  <si>
+    <t>HARNESS PPE</t>
+  </si>
+  <si>
+    <t>CABLE GRAB</t>
+  </si>
+  <si>
+    <t>HELMENT</t>
+  </si>
+  <si>
+    <t>UNIFORMS</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>DATE()</t>
+  </si>
+  <si>
+    <t>LAYNARD PPE</t>
+  </si>
+  <si>
+    <t>OFFER</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>AXIS LABOR CODE</t>
+  </si>
+  <si>
+    <t>A,B,C</t>
+  </si>
+  <si>
+    <t>OSHA 10</t>
+  </si>
+  <si>
+    <t>FISRT AID</t>
+  </si>
+  <si>
+    <t>TOWER RESCUE</t>
+  </si>
+  <si>
+    <t>CONFINED SPACE</t>
+  </si>
+  <si>
+    <t>CRANE SAFETY</t>
+  </si>
+  <si>
+    <t>CRANE SIGNAL</t>
+  </si>
+  <si>
+    <t>GWO</t>
+  </si>
+  <si>
+    <t>EGONOMICS</t>
+  </si>
+  <si>
+    <t>TYPE OF SERVICE</t>
+  </si>
+  <si>
+    <t>SCOPE OF WORK</t>
+  </si>
+  <si>
+    <t>SITE NAME</t>
+  </si>
+  <si>
+    <t>(WIND NAME)</t>
+  </si>
+  <si>
+    <t>LISTA DEL SCOPE. FILTER</t>
+  </si>
+  <si>
+    <t>IAN SEND ME INFO</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>OPEN TEXT</t>
+  </si>
+  <si>
+    <t>NFPA CERTIFICATES</t>
+  </si>
+  <si>
+    <t>CERTIFICATES BY IAN</t>
+  </si>
+  <si>
+    <t>CERTIFICATES LIST &gt; IAN</t>
+  </si>
+  <si>
+    <t>I 9</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W 4</t>
+  </si>
+  <si>
+    <t>APPLICANCE OFFER</t>
+  </si>
+  <si>
+    <t>I 9 FILE</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>W2 FILE</t>
+  </si>
+  <si>
+    <t>W 4 FILE</t>
+  </si>
+  <si>
+    <t>APPLICANCE OFFER FILE</t>
+  </si>
+  <si>
+    <t>TECHNICAL LEVEL</t>
+  </si>
+  <si>
+    <t>OEM / GAMESA / ACCIONA / NORDEX / ENVISION / GOLDWIND / GE / ENERCON / SENVION / SIEMENS / SUZION</t>
+  </si>
+  <si>
+    <t>TABLE: JOBS</t>
+  </si>
+  <si>
+    <t>JOB #</t>
+  </si>
+  <si>
+    <t>REPIT JOBS</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PO DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +525,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,11 +561,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -329,6 +589,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,42 +1177,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.7109375" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" customWidth="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" customWidth="1"/>
-    <col min="22" max="22" width="3.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:33">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -976,7 +1247,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:33">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1004,7 +1275,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:33">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1041,8 +1312,14 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1099,8 +1376,26 @@
         <v>2</v>
       </c>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1153,8 +1448,24 @@
       </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1201,8 +1512,22 @@
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AE6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -1251,8 +1576,20 @@
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AE7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -1304,7 +1641,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:33">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -1350,7 +1687,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:33">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1396,7 +1733,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:33">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -1442,7 +1779,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:33">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -1484,7 +1821,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:33">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1528,7 +1865,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:33">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -1572,7 +1909,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:33">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -1612,7 +1949,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:33">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -2146,6 +2483,1100 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y40" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2">
+        <f>L41+1</f>
+        <v>2</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2">
+        <f t="shared" ref="L43:L54" si="0">L42+1</f>
+        <v>3</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="2"/>
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="2"/>
+      <c r="B52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="2"/>
+      <c r="B53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="M58" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="M59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="M60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="M61" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="M62" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="M63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="M64" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15">
+      <c r="M65" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2159,20 +3590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D2:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
@@ -2184,120 +3615,91 @@
       <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="14" t="str">
         <f>D$3 &amp; ": OEM SUPPORT"</f>
         <v>SERVICES: OEM SUPPORT</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="4:13">
-      <c r="D4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f>D$3 &amp; ": LARGE CORRECTIVE"</f>
-        <v>SERVICES: LARGE CORRECTIVE</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f>E$4 &amp; ": CONVERTER"</f>
-        <v>SERVICES: LARGE CORRECTIVE: CONVERTER</v>
-      </c>
+      <c r="D4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>D$3 &amp; ": LARGE CORRECTIVE CONVERTER"</f>
+        <v>SERVICES: LARGE CORRECTIVE CONVERTER</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="str">
-        <f>D$3 &amp; ": PREVENTIVE MAINTENANCE"</f>
-        <v>SERVICES: PREVENTIVE MAINTENANCE</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f>E$4 &amp; ": GEARBOX"</f>
-        <v>SERVICES: LARGE CORRECTIVE: GEARBOX</v>
-      </c>
+      <c r="D5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>D$3 &amp; ": LARGE CORRECTIVE GEARBOX"</f>
+        <v>SERVICES: LARGE CORRECTIVE GEARBOX</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="str">
-        <f>D$3 &amp; ":DESIGN MODIFICATION"</f>
-        <v>SERVICES:DESIGN MODIFICATION</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f>E$4 &amp; ": GENERATOR"</f>
-        <v>SERVICES: LARGE CORRECTIVE: GENERATOR</v>
-      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>D$3 &amp; ": LARGE CORRECTIVE GENERATOR"</f>
+        <v>SERVICES: LARGE CORRECTIVE GENERATOR</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="4:13">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="str">
-        <f>D$3 &amp; ":INSPECTION"</f>
-        <v>SERVICES:INSPECTION</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f>E$4 &amp; ": TRANSFORMER"</f>
-        <v>SERVICES: LARGE CORRECTIVE: TRANSFORMER</v>
-      </c>
+      <c r="D7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f>D$3 &amp; ": LARGE CORRECTIVE TRANSFORMER"</f>
+        <v>SERVICES: LARGE CORRECTIVE TRANSFORMER</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2307,15 +3709,14 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="str">
-        <f>D$3 &amp; ":OPEN"</f>
-        <v>SERVICES:OPEN</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f>E$4 &amp; ": OPEN"</f>
-        <v>SERVICES: LARGE CORRECTIVE: OPEN</v>
-      </c>
+      <c r="D8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>D$3 &amp; ": LARGE CORRECTIVE OPEN"</f>
+        <v>SERVICES: LARGE CORRECTIVE OPEN</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2325,15 +3726,14 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="str">
-        <f>D$4 &amp; ":TECHNICAL ADVISORS"</f>
-        <v>CONSTRUCT:TECHNICAL ADVISORS</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f>E5 &amp;": 3 MONTH"</f>
-        <v>SERVICES: PREVENTIVE MAINTENANCE: 3 MONTH</v>
-      </c>
+      <c r="D9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 3 MONTH"</f>
+        <v>SERVICES: PREVENTIVE MAINTENANCE 3 MONTH</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2343,15 +3743,14 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="4:13">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="str">
-        <f>D$4 &amp; ": QA / QC"</f>
-        <v>CONSTRUCT: QA / QC</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f>E5 &amp;": 6 MONTH"</f>
-        <v>SERVICES: PREVENTIVE MAINTENANCE: 6 MONTH</v>
-      </c>
+      <c r="D10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 6 MONTH"</f>
+        <v>SERVICES: PREVENTIVE MAINTENANCE 6 MONTH</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2361,15 +3760,14 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="str">
-        <f>D$4 &amp; ":  BLADE"</f>
-        <v>CONSTRUCT:  BLADE</v>
-      </c>
-      <c r="F11" s="10" t="str">
-        <f>E5 &amp;": 12 MONTH"</f>
-        <v>SERVICES: PREVENTIVE MAINTENANCE: 12 MONTH</v>
-      </c>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 12 MONTH"</f>
+        <v>SERVICES: PREVENTIVE MAINTENANCE 12 MONTH</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2379,15 +3777,14 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="str">
-        <f>D$4 &amp; ":  NCR"</f>
-        <v>CONSTRUCT:  NCR</v>
-      </c>
-      <c r="F12" s="10" t="str">
-        <f>E5 &amp;": TRANSFORMER"</f>
-        <v>SERVICES: PREVENTIVE MAINTENANCE: TRANSFORMER</v>
-      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f>D$3 &amp; ": PREVENTIVE MAINTENANCE TRANSFORMER"</f>
+        <v>SERVICES: PREVENTIVE MAINTENANCE TRANSFORMER</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2397,15 +3794,14 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="str">
-        <f>D$4 &amp; ": LOGISTICS"</f>
-        <v>CONSTRUCT: LOGISTICS</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f>E5 &amp;": OPEN"</f>
-        <v>SERVICES: PREVENTIVE MAINTENANCE: OPEN</v>
-      </c>
+      <c r="D13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f>D$3 &amp; ": PREVENTIVE MAINTENANCE OPEN"</f>
+        <v>SERVICES: PREVENTIVE MAINTENANCE OPEN</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -2415,14 +3811,14 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="4:13">
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="str">
-        <f>D$4 &amp; ": COMMISION"</f>
-        <v>CONSTRUCT: COMMISION</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="D14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>D$3 &amp; ":DESIGN MODIFICATION"</f>
+        <v>SERVICES:DESIGN MODIFICATION</v>
+      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2432,10 +3828,12 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="str">
-        <f>D$4 &amp; ": OPEN"</f>
-        <v>CONSTRUCT: OPEN</v>
+      <c r="D15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f>D$3 &amp; ":INSPECTION"</f>
+        <v>SERVICES:INSPECTION</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2447,8 +3845,13 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f>D$3 &amp; ":OPEN"</f>
+        <v>SERVICES:OPEN</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -2459,8 +3862,13 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f>D$17 &amp; ":TECHNICAL ADVISORS"</f>
+        <v>CONSTRUCT:TECHNICAL ADVISORS</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2471,8 +3879,13 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f>D$17 &amp; ": QA / QC"</f>
+        <v>CONSTRUCT: QA / QC</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2483,8 +3896,13 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f>D$17 &amp; ":  BLADE"</f>
+        <v>CONSTRUCT:  BLADE</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -2495,8 +3913,13 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f>D$17 &amp; ":  NCR"</f>
+        <v>CONSTRUCT:  NCR</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2507,8 +3930,13 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f>D$17 &amp; ": LOGISTICS"</f>
+        <v>CONSTRUCT: LOGISTICS</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2517,6 +3945,24 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="4:13">
+      <c r="D22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="15" t="str">
+        <f>D$17 &amp; ": COMMISION"</f>
+        <v>CONSTRUCT: COMMISION</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13">
+      <c r="D23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f>D$17 &amp; ": OPEN"</f>
+        <v>CONSTRUCT: OPEN</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="153">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>PO DATE</t>
+  </si>
+  <si>
+    <t>TABLE: CONTRACT</t>
+  </si>
+  <si>
+    <t>CONTRACT</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>OC CLIENTE</t>
+  </si>
+  <si>
+    <t>FECHA DEL CONTRATO</t>
+  </si>
+  <si>
+    <t>DIRECCION DEL ARCHIVO</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG65"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1213,13 +1231,13 @@
     <col min="26" max="26" width="4.5703125" customWidth="1"/>
     <col min="27" max="27" width="14.42578125" customWidth="1"/>
     <col min="28" max="28" width="12.140625" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.28515625" customWidth="1"/>
     <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:41">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1247,7 +1265,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:41">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1274,8 +1292,12 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1312,14 +1334,20 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="2"/>
+      <c r="AI3" t="s">
         <v>142</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AM3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:41">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1385,17 +1413,27 @@
       <c r="AC4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AD4" s="2"/>
+      <c r="AI4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AK4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AM4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1448,8 +1486,8 @@
       </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="1" t="s">
-        <v>143</v>
+      <c r="AA5" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>20</v>
@@ -1457,15 +1495,25 @@
       <c r="AC5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AD5" s="2"/>
+      <c r="AI5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AN5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO5" s="1"/>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1512,22 +1560,32 @@
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AI6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AE6" s="1" t="s">
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AM6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:41">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -1576,20 +1634,28 @@
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="2"/>
+      <c r="AI7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="13" t="s">
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AM7" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AO7" s="1"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -1640,8 +1706,16 @@
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AA8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -1686,8 +1760,18 @@
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AA9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1732,8 +1816,18 @@
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AA10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -1778,8 +1872,12 @@
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -1820,8 +1918,12 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1864,8 +1966,12 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -1908,8 +2014,12 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -1948,8 +2058,12 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -1988,8 +2102,12 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -2026,8 +2144,12 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2058,8 +2180,12 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2090,8 +2216,12 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2122,8 +2252,12 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2156,8 +2290,12 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2190,8 +2328,12 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2224,8 +2366,12 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2258,8 +2404,12 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2286,8 +2436,12 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2314,8 +2468,12 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2342,8 +2500,12 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2370,8 +2532,12 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2398,8 +2564,12 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2426,8 +2596,12 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2454,8 +2628,12 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2482,8 +2660,12 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2506,8 +2688,13 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>78</v>
@@ -2544,7 +2731,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:30">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -2601,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:30">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>87</v>
@@ -2658,7 +2845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:30">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -2713,7 +2900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:30">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -2766,7 +2953,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:30">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -2819,7 +3006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:30">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>77</v>
@@ -2872,7 +3059,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:30">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>62</v>
@@ -2929,7 +3116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:30">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>63</v>
@@ -2978,7 +3165,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:30">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>64</v>
@@ -3021,7 +3208,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:30">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>65</v>
@@ -3064,7 +3251,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:30">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>67</v>
@@ -3105,7 +3292,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:30">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>74</v>
@@ -3146,7 +3333,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:30">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>68</v>
@@ -3185,7 +3372,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:30">
       <c r="A48" s="2"/>
       <c r="B48" s="12" t="s">
         <v>75</v>
@@ -3593,7 +3780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I7"/>
     </sheetView>
   </sheetViews>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="155">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -208,9 +208,6 @@
     <t>IMAGEN</t>
   </si>
   <si>
-    <t>ADDERESS</t>
-  </si>
-  <si>
     <t>CELL</t>
   </si>
   <si>
@@ -479,6 +476,15 @@
   </si>
   <si>
     <t>DIRECCION DEL ARCHIVO</t>
+  </si>
+  <si>
+    <t>STREET ADDERESS</t>
+  </si>
+  <si>
+    <t>CITY ADDRESS</t>
+  </si>
+  <si>
+    <t>ZIP</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -579,22 +585,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -607,7 +602,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1198,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1335,16 +1329,16 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="2"/>
       <c r="AI3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1487,7 +1481,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>20</v>
@@ -1497,7 +1491,7 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AI5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ5" s="6" t="s">
         <v>20</v>
@@ -1506,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN5" s="6" t="s">
         <v>18</v>
@@ -1561,13 +1555,13 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AI6" s="1" t="s">
@@ -1576,13 +1570,13 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AM6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1647,11 +1641,11 @@
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AM7" s="13" t="s">
-        <v>146</v>
+      <c r="AM7" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO7" s="1"/>
     </row>
@@ -1764,10 +1758,10 @@
         <v>55</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -1817,13 +1811,13 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
@@ -2697,7 +2691,7 @@
     <row r="34" spans="1:30">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2705,28 +2699,28 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
@@ -2791,58 +2785,58 @@
     <row r="36" spans="1:30">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -2851,7 +2845,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>61</v>
@@ -2860,44 +2854,44 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -2913,44 +2907,44 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -2972,44 +2966,44 @@
         <v>18</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>18</v>
@@ -3025,27 +3019,27 @@
         <v>18</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -3056,53 +3050,53 @@
         <v>18</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -3113,31 +3107,31 @@
         <v>18</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2">
@@ -3145,22 +3139,22 @@
         <v>2</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -3168,13 +3162,13 @@
     <row r="43" spans="1:30">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3188,22 +3182,22 @@
         <v>3</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -3211,13 +3205,13 @@
     <row r="44" spans="1:30">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3231,22 +3225,22 @@
         <v>4</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -3254,12 +3248,14 @@
     <row r="45" spans="1:30">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3272,22 +3268,22 @@
         <v>5</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T45" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="T45" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -3295,12 +3291,14 @@
     <row r="46" spans="1:30">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3313,22 +3311,22 @@
         <v>6</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -3336,11 +3334,13 @@
     <row r="47" spans="1:30">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3356,30 +3356,32 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="2"/>
-      <c r="B48" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="2"/>
+      <c r="B48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D48" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3395,18 +3397,18 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -3414,9 +3416,11 @@
     <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3432,18 +3436,18 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T49" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T49" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -3451,12 +3455,12 @@
     <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3471,18 +3475,18 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3490,10 +3494,12 @@
     <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3508,7 +3514,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3518,10 +3524,12 @@
     <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3536,7 +3544,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3549,10 +3557,10 @@
     <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3567,7 +3575,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3575,9 +3583,13 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3592,7 +3604,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3600,9 +3612,11 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3612,13 +3626,13 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -3626,9 +3640,11 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3638,13 +3654,13 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="O56" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3652,9 +3668,11 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3664,13 +3682,13 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3678,90 +3696,90 @@
     </row>
     <row r="58" spans="1:22">
       <c r="M58" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="M59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="M60" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="M61" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="M62" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="M63" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="M64" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="13:15">
       <c r="M65" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3812,10 +3830,10 @@
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="13" t="str">
         <f>D$3 &amp; ": OEM SUPPORT"</f>
         <v>SERVICES: OEM SUPPORT</v>
       </c>
@@ -3828,10 +3846,10 @@
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="4:13">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="13" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE CONVERTER"</f>
         <v>SERVICES: LARGE CORRECTIVE CONVERTER</v>
       </c>
@@ -3845,10 +3863,10 @@
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="13" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE GEARBOX"</f>
         <v>SERVICES: LARGE CORRECTIVE GEARBOX</v>
       </c>
@@ -3862,10 +3880,10 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE GENERATOR"</f>
         <v>SERVICES: LARGE CORRECTIVE GENERATOR</v>
       </c>
@@ -3879,10 +3897,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="4:13">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="13" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE TRANSFORMER"</f>
         <v>SERVICES: LARGE CORRECTIVE TRANSFORMER</v>
       </c>
@@ -3896,10 +3914,10 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="13" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE OPEN"</f>
         <v>SERVICES: LARGE CORRECTIVE OPEN</v>
       </c>
@@ -3913,10 +3931,10 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="14" t="str">
+      <c r="E9" s="13" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 3 MONTH"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE 3 MONTH</v>
       </c>
@@ -3930,10 +3948,10 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="4:13">
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="13" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 6 MONTH"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE 6 MONTH</v>
       </c>
@@ -3947,10 +3965,10 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="13" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 12 MONTH"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE 12 MONTH</v>
       </c>
@@ -3964,10 +3982,10 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="13" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE TRANSFORMER"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE TRANSFORMER</v>
       </c>
@@ -3981,10 +3999,10 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="14" t="str">
+      <c r="E13" s="13" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE OPEN"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE OPEN</v>
       </c>
@@ -3998,10 +4016,10 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="4:13">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="14" t="str">
+      <c r="E14" s="13" t="str">
         <f>D$3 &amp; ":DESIGN MODIFICATION"</f>
         <v>SERVICES:DESIGN MODIFICATION</v>
       </c>
@@ -4015,10 +4033,10 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="14" t="str">
+      <c r="E15" s="13" t="str">
         <f>D$3 &amp; ":INSPECTION"</f>
         <v>SERVICES:INSPECTION</v>
       </c>
@@ -4032,10 +4050,10 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="14" t="str">
+      <c r="E16" s="13" t="str">
         <f>D$3 &amp; ":OPEN"</f>
         <v>SERVICES:OPEN</v>
       </c>
@@ -4049,10 +4067,10 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="15" t="str">
+      <c r="E17" s="14" t="str">
         <f>D$17 &amp; ":TECHNICAL ADVISORS"</f>
         <v>CONSTRUCT:TECHNICAL ADVISORS</v>
       </c>
@@ -4066,10 +4084,10 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="14" t="str">
         <f>D$17 &amp; ": QA / QC"</f>
         <v>CONSTRUCT: QA / QC</v>
       </c>
@@ -4083,10 +4101,10 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="14" t="str">
         <f>D$17 &amp; ":  BLADE"</f>
         <v>CONSTRUCT:  BLADE</v>
       </c>
@@ -4100,10 +4118,10 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="14" t="str">
         <f>D$17 &amp; ":  NCR"</f>
         <v>CONSTRUCT:  NCR</v>
       </c>
@@ -4117,10 +4135,10 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="14" t="str">
         <f>D$17 &amp; ": LOGISTICS"</f>
         <v>CONSTRUCT: LOGISTICS</v>
       </c>
@@ -4134,19 +4152,19 @@
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="14" t="str">
         <f>D$17 &amp; ": COMMISION"</f>
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="14" t="str">
         <f>D$17 &amp; ": OPEN"</f>
         <v>CONSTRUCT: OPEN</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="191">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -355,30 +355,6 @@
     <t>A,B,C</t>
   </si>
   <si>
-    <t>OSHA 10</t>
-  </si>
-  <si>
-    <t>FISRT AID</t>
-  </si>
-  <si>
-    <t>TOWER RESCUE</t>
-  </si>
-  <si>
-    <t>CONFINED SPACE</t>
-  </si>
-  <si>
-    <t>CRANE SAFETY</t>
-  </si>
-  <si>
-    <t>CRANE SIGNAL</t>
-  </si>
-  <si>
-    <t>GWO</t>
-  </si>
-  <si>
-    <t>EGONOMICS</t>
-  </si>
-  <si>
     <t>TYPE OF SERVICE</t>
   </si>
   <si>
@@ -406,12 +382,6 @@
     <t>NFPA CERTIFICATES</t>
   </si>
   <si>
-    <t>CERTIFICATES BY IAN</t>
-  </si>
-  <si>
-    <t>CERTIFICATES LIST &gt; IAN</t>
-  </si>
-  <si>
     <t>I 9</t>
   </si>
   <si>
@@ -485,13 +455,154 @@
   </si>
   <si>
     <t>ZIP</t>
+  </si>
+  <si>
+    <t>Osha 10</t>
+  </si>
+  <si>
+    <t>First Aid/CPR</t>
+  </si>
+  <si>
+    <t>Tower Rescue</t>
+  </si>
+  <si>
+    <t>Confined Space</t>
+  </si>
+  <si>
+    <t>NFPA 70 E</t>
+  </si>
+  <si>
+    <t>LOTO</t>
+  </si>
+  <si>
+    <t>Ergonomics</t>
+  </si>
+  <si>
+    <t>Hazcom</t>
+  </si>
+  <si>
+    <t>Crane Safety</t>
+  </si>
+  <si>
+    <t>Rigging/Signal Man</t>
+  </si>
+  <si>
+    <t>Fire extinguisher</t>
+  </si>
+  <si>
+    <t>CERTIFICATES</t>
+  </si>
+  <si>
+    <t>PLATFORM LIST</t>
+  </si>
+  <si>
+    <t>OEM</t>
+  </si>
+  <si>
+    <t>GAMESA</t>
+  </si>
+  <si>
+    <t>ACCIONA</t>
+  </si>
+  <si>
+    <t>NORDEX</t>
+  </si>
+  <si>
+    <t>ENVISION</t>
+  </si>
+  <si>
+    <t>GOLDWIND</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ENERCON</t>
+  </si>
+  <si>
+    <t>SENVION</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>SUZION</t>
+  </si>
+  <si>
+    <t>MANUFACTERE LIST</t>
+  </si>
+  <si>
+    <t>QUOTES LIST</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>HOURLY</t>
+  </si>
+  <si>
+    <t>RATE STANDARD PER TECH</t>
+  </si>
+  <si>
+    <t>RATE CUSTOM PER TECH</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>MOBILIZATION STANDARD IN</t>
+  </si>
+  <si>
+    <t>MOBILIZATION STANDARD OUT</t>
+  </si>
+  <si>
+    <t>MOBILIZATION CUSTOM IN</t>
+  </si>
+  <si>
+    <t>MOBILIZATION CUSTOM OUT</t>
+  </si>
+  <si>
+    <t>AUTO RENT STANTARD</t>
+  </si>
+  <si>
+    <t>AUTO RENT CUSTOM</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>TOOLING OWNER SUPPLY</t>
+  </si>
+  <si>
+    <t>TOOLING AXIS SUPPLY RENT</t>
+  </si>
+  <si>
+    <t>TOOLING AXIS SUPPLY BUY</t>
+  </si>
+  <si>
+    <t>TOOLING AXIS SUPPLY OWN</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +640,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -562,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -585,11 +719,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -605,8 +905,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1190,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D57"/>
+    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1329,16 +1648,16 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="2"/>
       <c r="AI3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AM3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1481,7 +1800,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>20</v>
@@ -1491,7 +1810,7 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AI5" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AJ5" s="6" t="s">
         <v>20</v>
@@ -1500,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AN5" s="6" t="s">
         <v>18</v>
@@ -1555,13 +1874,13 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AI6" s="1" t="s">
@@ -1570,13 +1889,13 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AM6" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AN6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1642,7 +1961,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AM7" s="12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>105</v>
@@ -1758,10 +2077,10 @@
         <v>55</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -1811,13 +2130,13 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
@@ -2845,7 +3164,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>61</v>
@@ -2854,7 +3173,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>18</v>
@@ -2907,22 +3226,24 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N38" s="8"/>
+      <c r="N38" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="O38" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2966,16 +3287,18 @@
         <v>18</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N39" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O39" s="8" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3019,16 +3342,18 @@
         <v>18</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N40" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O40" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3056,7 +3381,7 @@
     <row r="41" spans="1:30">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
@@ -3068,24 +3393,26 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N41" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O41" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3113,7 +3440,7 @@
     <row r="42" spans="1:30">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
@@ -3125,13 +3452,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2">
@@ -3139,11 +3466,13 @@
         <v>2</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N42" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O42" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3182,11 +3511,13 @@
         <v>3</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N43" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O43" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3205,7 +3536,7 @@
     <row r="44" spans="1:30">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
@@ -3225,11 +3556,13 @@
         <v>4</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N44" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O44" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3268,11 +3601,13 @@
         <v>5</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N45" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O45" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3311,11 +3646,13 @@
         <v>6</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O46" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3353,10 +3690,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O47" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3394,10 +3735,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O48" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3433,10 +3778,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O49" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3472,10 +3821,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="M50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O50" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3511,10 +3864,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
+      <c r="M51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O51" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3541,10 +3898,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O52" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3572,10 +3933,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O53" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3601,10 +3966,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O54" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3625,11 +3994,11 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>108</v>
+      <c r="M55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>107</v>
@@ -3653,11 +4022,11 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>135</v>
+      <c r="M56" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>107</v>
@@ -3682,10 +4051,10 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>107</v>
@@ -3696,89 +4065,34 @@
     </row>
     <row r="58" spans="1:22">
       <c r="M58" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="M59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>108</v>
+      <c r="M59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="M60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="M61" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="M62" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="M63" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="M64" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="13:15">
-      <c r="M65" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O65" s="1" t="s">
+      <c r="M60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3796,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:M23"/>
+  <dimension ref="D2:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G57" sqref="D43:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3807,9 +4121,9 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4168,6 +4482,247 @@
         <f>D$17 &amp; ": OPEN"</f>
         <v>CONSTRUCT: OPEN</v>
       </c>
+    </row>
+    <row r="26" spans="4:13">
+      <c r="D26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="15.75" thickBot="1">
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="24.75" thickBot="1">
+      <c r="D43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="4:7" ht="15.75" thickBot="1">
+      <c r="D57" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="FIELD VALUES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -485,13 +490,19 @@
   </si>
   <si>
     <t>ZIP</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Lista tabla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +622,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -631,7 +650,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -680,7 +705,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvPr id="5" name="Elbow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -729,7 +760,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -776,7 +813,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -823,7 +866,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -870,7 +919,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -948,7 +1003,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,9 +1035,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1014,6 +1087,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1189,14 +1280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -1231,7 +1322,7 @@
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1259,7 +1350,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1291,7 +1382,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1341,7 +1432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1427,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1507,7 +1598,7 @@
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1579,7 +1670,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -1649,7 +1740,7 @@
       </c>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -1709,7 +1800,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -1765,7 +1856,7 @@
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1821,7 +1912,7 @@
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -1871,7 +1962,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -1917,7 +2008,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1965,7 +2056,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -2013,7 +2104,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2057,7 +2148,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -2101,7 +2192,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -2143,7 +2234,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2179,7 +2270,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2215,7 +2306,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2251,7 +2342,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2289,7 +2380,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2327,7 +2418,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2365,7 +2456,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2403,7 +2494,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2435,7 +2526,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2467,7 +2558,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2499,7 +2590,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2531,7 +2622,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2563,7 +2654,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2595,7 +2686,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2627,7 +2718,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2659,7 +2750,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2688,7 +2779,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -2725,7 +2816,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -2782,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>86</v>
@@ -2839,7 +2930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -2862,7 +2953,9 @@
       <c r="J37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="8" t="s">
         <v>79</v>
@@ -2894,7 +2987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -2915,7 +3008,9 @@
       <c r="J38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="8" t="s">
         <v>81</v>
@@ -2947,7 +3042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -2968,7 +3063,9 @@
       <c r="J39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="8" t="s">
         <v>111</v>
@@ -3000,7 +3097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -3021,7 +3118,9 @@
       <c r="J40" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L40" s="2"/>
       <c r="M40" s="8" t="s">
         <v>112</v>
@@ -3053,7 +3152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>152</v>
@@ -3110,7 +3209,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>153</v>
@@ -3159,7 +3258,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -3202,7 +3301,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>154</v>
@@ -3245,7 +3344,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -3288,7 +3387,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -3331,7 +3430,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -3372,7 +3471,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -3413,7 +3512,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -3452,7 +3551,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -3491,7 +3590,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -3521,7 +3620,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -3554,7 +3653,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -3581,7 +3680,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -3610,7 +3709,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -3638,7 +3737,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -3666,7 +3765,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -3694,7 +3793,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M58" s="8" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M59" s="1" t="s">
         <v>132</v>
       </c>
@@ -3716,7 +3815,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M60" s="1" t="s">
         <v>137</v>
       </c>
@@ -3727,7 +3826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M61" s="8" t="s">
         <v>133</v>
       </c>
@@ -3738,7 +3837,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M62" s="8" t="s">
         <v>138</v>
       </c>
@@ -3749,7 +3848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M63" s="8" t="s">
         <v>109</v>
       </c>
@@ -3760,7 +3859,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M64" s="8" t="s">
         <v>109</v>
       </c>
@@ -3771,7 +3870,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="13:15">
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M65" s="8" t="s">
         <v>139</v>
       </c>
@@ -3795,14 +3894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -3813,7 +3912,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -3829,7 +3928,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
@@ -3845,7 +3944,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>58</v>
       </c>
@@ -3862,7 +3961,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
@@ -3879,7 +3978,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
@@ -3896,7 +3995,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
@@ -3913,7 +4012,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
@@ -3930,7 +4029,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
@@ -3947,7 +4046,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
@@ -3964,7 +4063,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
@@ -3981,7 +4080,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
@@ -3998,7 +4097,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
@@ -4015,7 +4114,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
@@ -4032,7 +4131,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
@@ -4049,7 +4148,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
@@ -4066,7 +4165,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
@@ -4083,7 +4182,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
@@ -4100,7 +4199,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
@@ -4117,7 +4216,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
@@ -4134,7 +4233,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
@@ -4151,7 +4250,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
@@ -4160,7 +4259,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
         <v>59</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="FIELD VALUES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="191">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -360,30 +355,6 @@
     <t>A,B,C</t>
   </si>
   <si>
-    <t>OSHA 10</t>
-  </si>
-  <si>
-    <t>FISRT AID</t>
-  </si>
-  <si>
-    <t>TOWER RESCUE</t>
-  </si>
-  <si>
-    <t>CONFINED SPACE</t>
-  </si>
-  <si>
-    <t>CRANE SAFETY</t>
-  </si>
-  <si>
-    <t>CRANE SIGNAL</t>
-  </si>
-  <si>
-    <t>GWO</t>
-  </si>
-  <si>
-    <t>EGONOMICS</t>
-  </si>
-  <si>
     <t>TYPE OF SERVICE</t>
   </si>
   <si>
@@ -411,12 +382,6 @@
     <t>NFPA CERTIFICATES</t>
   </si>
   <si>
-    <t>CERTIFICATES BY IAN</t>
-  </si>
-  <si>
-    <t>CERTIFICATES LIST &gt; IAN</t>
-  </si>
-  <si>
     <t>I 9</t>
   </si>
   <si>
@@ -492,17 +457,152 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Lista</t>
-  </si>
-  <si>
-    <t>Lista tabla</t>
+    <t>Osha 10</t>
+  </si>
+  <si>
+    <t>First Aid/CPR</t>
+  </si>
+  <si>
+    <t>Tower Rescue</t>
+  </si>
+  <si>
+    <t>Confined Space</t>
+  </si>
+  <si>
+    <t>NFPA 70 E</t>
+  </si>
+  <si>
+    <t>LOTO</t>
+  </si>
+  <si>
+    <t>Ergonomics</t>
+  </si>
+  <si>
+    <t>Hazcom</t>
+  </si>
+  <si>
+    <t>Crane Safety</t>
+  </si>
+  <si>
+    <t>Rigging/Signal Man</t>
+  </si>
+  <si>
+    <t>Fire extinguisher</t>
+  </si>
+  <si>
+    <t>CERTIFICATES</t>
+  </si>
+  <si>
+    <t>PLATFORM LIST</t>
+  </si>
+  <si>
+    <t>OEM</t>
+  </si>
+  <si>
+    <t>GAMESA</t>
+  </si>
+  <si>
+    <t>ACCIONA</t>
+  </si>
+  <si>
+    <t>NORDEX</t>
+  </si>
+  <si>
+    <t>ENVISION</t>
+  </si>
+  <si>
+    <t>GOLDWIND</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ENERCON</t>
+  </si>
+  <si>
+    <t>SENVION</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>SUZION</t>
+  </si>
+  <si>
+    <t>MANUFACTERE LIST</t>
+  </si>
+  <si>
+    <t>QUOTES LIST</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>HOURLY</t>
+  </si>
+  <si>
+    <t>RATE STANDARD PER TECH</t>
+  </si>
+  <si>
+    <t>RATE CUSTOM PER TECH</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>MOBILIZATION STANDARD IN</t>
+  </si>
+  <si>
+    <t>MOBILIZATION STANDARD OUT</t>
+  </si>
+  <si>
+    <t>MOBILIZATION CUSTOM IN</t>
+  </si>
+  <si>
+    <t>MOBILIZATION CUSTOM OUT</t>
+  </si>
+  <si>
+    <t>AUTO RENT STANTARD</t>
+  </si>
+  <si>
+    <t>AUTO RENT CUSTOM</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>TOOLING OWNER SUPPLY</t>
+  </si>
+  <si>
+    <t>TOOLING AXIS SUPPLY RENT</t>
+  </si>
+  <si>
+    <t>TOOLING AXIS SUPPLY BUY</t>
+  </si>
+  <si>
+    <t>TOOLING AXIS SUPPLY OWN</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +640,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -573,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -596,11 +719,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -616,20 +905,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -650,13 +950,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -705,13 +999,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Elbow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -760,13 +1048,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -813,13 +1095,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -866,13 +1142,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -919,13 +1189,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1003,7 +1267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,27 +1299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,24 +1333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1280,14 +1508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -1322,7 +1550,7 @@
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1350,7 +1578,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1382,7 +1610,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1420,19 +1648,19 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="2"/>
       <c r="AI3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AM3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1518,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1572,7 +1800,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>20</v>
@@ -1582,7 +1810,7 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AI5" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AJ5" s="6" t="s">
         <v>20</v>
@@ -1591,14 +1819,14 @@
         <v>3</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AN5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1646,13 +1874,13 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AI6" s="1" t="s">
@@ -1661,16 +1889,16 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AM6" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AN6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -1733,14 +1961,14 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AM7" s="12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -1800,7 +2028,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -1849,14 +2077,14 @@
         <v>55</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1902,17 +2130,17 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -1962,7 +2190,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -2008,7 +2236,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2056,7 +2284,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -2104,7 +2332,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2148,7 +2376,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -2192,7 +2420,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -2234,7 +2462,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2270,7 +2498,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2306,7 +2534,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2342,7 +2570,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2380,7 +2608,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2418,7 +2646,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2456,7 +2684,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2494,7 +2722,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2526,7 +2754,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2558,7 +2786,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2590,7 +2818,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2622,7 +2850,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2654,7 +2882,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2686,7 +2914,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2718,7 +2946,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2750,7 +2978,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2779,7 +3007,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -2816,7 +3044,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -2873,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>86</v>
@@ -2930,13 +3158,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>61</v>
@@ -2945,7 +3173,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>18</v>
@@ -2953,9 +3181,7 @@
       <c r="J37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="8" t="s">
         <v>79</v>
@@ -2987,7 +3213,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -3000,24 +3226,24 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N38" s="8"/>
+      <c r="N38" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="O38" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3042,7 +3268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -3061,18 +3287,18 @@
         <v>18</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N39" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O39" s="8" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3097,7 +3323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -3116,18 +3342,18 @@
         <v>18</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N40" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O40" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3152,10 +3378,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
@@ -3167,24 +3393,26 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N41" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O41" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3209,10 +3437,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
@@ -3224,13 +3452,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2">
@@ -3238,11 +3466,13 @@
         <v>2</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N42" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O42" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3258,7 +3488,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -3281,11 +3511,13 @@
         <v>3</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N43" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O43" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3301,10 +3533,10 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
@@ -3324,11 +3556,13 @@
         <v>4</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N44" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O44" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3344,7 +3578,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -3367,11 +3601,13 @@
         <v>5</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N45" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O45" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3387,7 +3623,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -3410,11 +3646,13 @@
         <v>6</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O46" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3430,7 +3668,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -3452,10 +3690,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O47" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3471,7 +3713,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -3493,10 +3735,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O48" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3512,7 +3758,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -3532,10 +3778,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O49" s="8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3551,7 +3801,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -3571,10 +3821,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="M50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O50" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3590,7 +3844,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -3610,17 +3864,21 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
+      <c r="M51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O51" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -3640,10 +3898,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O52" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3653,7 +3915,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -3671,16 +3933,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O53" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -3700,16 +3966,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O54" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -3724,11 +3994,11 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>108</v>
+      <c r="M55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>107</v>
@@ -3737,7 +4007,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -3752,11 +4022,11 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>135</v>
+      <c r="M56" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>107</v>
@@ -3765,7 +4035,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -3781,10 +4051,10 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>107</v>
@@ -3793,91 +4063,36 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="M58" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>108</v>
+    <row r="59" spans="1:22">
+      <c r="M59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M61" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M62" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M63" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M64" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M65" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O65" s="1" t="s">
+    <row r="60" spans="1:22">
+      <c r="M60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3894,25 +4109,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D2:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G57" sqref="D43:G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -3928,7 +4143,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13">
       <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
@@ -3944,7 +4159,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13">
       <c r="D4" s="13" t="s">
         <v>58</v>
       </c>
@@ -3961,7 +4176,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13">
       <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
@@ -3978,7 +4193,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13">
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
@@ -3995,7 +4210,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13">
       <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
@@ -4012,7 +4227,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13">
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
@@ -4029,7 +4244,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13">
       <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
@@ -4046,7 +4261,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13">
       <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
@@ -4063,7 +4278,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13">
       <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
@@ -4080,7 +4295,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13">
       <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
@@ -4097,7 +4312,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13">
       <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
@@ -4114,7 +4329,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13">
       <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
@@ -4131,7 +4346,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13">
       <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
@@ -4148,7 +4363,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13">
       <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
@@ -4165,7 +4380,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13">
       <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
@@ -4182,7 +4397,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13">
       <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
@@ -4199,7 +4414,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13">
       <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
@@ -4216,7 +4431,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13">
       <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
@@ -4233,7 +4448,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13">
       <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
@@ -4250,7 +4465,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13">
       <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
@@ -4259,7 +4474,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13">
       <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
@@ -4267,6 +4482,247 @@
         <f>D$17 &amp; ": OPEN"</f>
         <v>CONSTRUCT: OPEN</v>
       </c>
+    </row>
+    <row r="26" spans="4:13">
+      <c r="D26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="15.75" thickBot="1">
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="24.75" thickBot="1">
+      <c r="D43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="4:7" ht="15.75" thickBot="1">
+      <c r="D57" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="FIELD VALUES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="415">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -364,9 +372,6 @@
     <t>SITE NAME</t>
   </si>
   <si>
-    <t>(WIND NAME)</t>
-  </si>
-  <si>
     <t>LISTA DEL SCOPE. FILTER</t>
   </si>
   <si>
@@ -593,16 +598,691 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>FarmId</t>
+  </si>
+  <si>
+    <t>T600-48</t>
+  </si>
+  <si>
+    <t>T600-48DS</t>
+  </si>
+  <si>
+    <t>V27-225</t>
+  </si>
+  <si>
+    <t>M108/19</t>
+  </si>
+  <si>
+    <t>GE 1.6 XLE</t>
+  </si>
+  <si>
+    <t>GE 1.5 SLE</t>
+  </si>
+  <si>
+    <t>GE 1.85-82.5</t>
+  </si>
+  <si>
+    <t>N54/1000</t>
+  </si>
+  <si>
+    <t>MWT62/1.0</t>
+  </si>
+  <si>
+    <t>NM54/950</t>
+  </si>
+  <si>
+    <t>NM52/900</t>
+  </si>
+  <si>
+    <t>NTK500/37</t>
+  </si>
+  <si>
+    <t>V42</t>
+  </si>
+  <si>
+    <t>B19/120</t>
+  </si>
+  <si>
+    <t>V47-660</t>
+  </si>
+  <si>
+    <t>MWT-1000</t>
+  </si>
+  <si>
+    <t>GE 1.6-100</t>
+  </si>
+  <si>
+    <t>A1500-77</t>
+  </si>
+  <si>
+    <t>NM48/750</t>
+  </si>
+  <si>
+    <t>XL50</t>
+  </si>
+  <si>
+    <t>SE100/2.0</t>
+  </si>
+  <si>
+    <t>ECO100</t>
+  </si>
+  <si>
+    <t>G97-2.0</t>
+  </si>
+  <si>
+    <t>SWT2.3-101</t>
+  </si>
+  <si>
+    <t>V100-1.8</t>
+  </si>
+  <si>
+    <t>G90-2.0</t>
+  </si>
+  <si>
+    <t>GE 1.5 XLE</t>
+  </si>
+  <si>
+    <t>Vensys 70</t>
+  </si>
+  <si>
+    <t>Liberty 2.5-96</t>
+  </si>
+  <si>
+    <t>V82-1.65</t>
+  </si>
+  <si>
+    <t>NM82/1650</t>
+  </si>
+  <si>
+    <t>Liberty 2.5-93</t>
+  </si>
+  <si>
+    <t>Aeronautic 47</t>
+  </si>
+  <si>
+    <t>PowerWind 56</t>
+  </si>
+  <si>
+    <t>G52-850</t>
+  </si>
+  <si>
+    <t>V44-600</t>
+  </si>
+  <si>
+    <t>AOC 15/50</t>
+  </si>
+  <si>
+    <t>17S</t>
+  </si>
+  <si>
+    <t>NTK65/17</t>
+  </si>
+  <si>
+    <t>N43/600</t>
+  </si>
+  <si>
+    <t>NM44/750</t>
+  </si>
+  <si>
+    <t>GW82</t>
+  </si>
+  <si>
+    <t>Vensys 82</t>
+  </si>
+  <si>
+    <t>W250/29</t>
+  </si>
+  <si>
+    <t>B37/450</t>
+  </si>
+  <si>
+    <t>G87-2.0</t>
+  </si>
+  <si>
+    <t>G58-850</t>
+  </si>
+  <si>
+    <t>PS-600</t>
+  </si>
+  <si>
+    <t>VP-20</t>
+  </si>
+  <si>
+    <t>FL1500</t>
+  </si>
+  <si>
+    <t>SE93/2.0</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>V80-1.8</t>
+  </si>
+  <si>
+    <t>Northwind 100</t>
+  </si>
+  <si>
+    <t>FL100</t>
+  </si>
+  <si>
+    <t>Sky Farm 50kW VAWT</t>
+  </si>
+  <si>
+    <t>SL 3000/90</t>
+  </si>
+  <si>
+    <t>SL 1500/82</t>
+  </si>
+  <si>
+    <t>K100</t>
+  </si>
+  <si>
+    <t>MM92</t>
+  </si>
+  <si>
+    <t>NM950/54</t>
+  </si>
+  <si>
+    <t>S88-2.1</t>
+  </si>
+  <si>
+    <t>M700/225</t>
+  </si>
+  <si>
+    <t>D8.2</t>
+  </si>
+  <si>
+    <t>NM72c/1500</t>
+  </si>
+  <si>
+    <t>S64-1.25</t>
+  </si>
+  <si>
+    <t>N90/2300</t>
+  </si>
+  <si>
+    <t>V17</t>
+  </si>
+  <si>
+    <t>GE 1.85-87</t>
+  </si>
+  <si>
+    <t>LTW77-1.5</t>
+  </si>
+  <si>
+    <t>FL250</t>
+  </si>
+  <si>
+    <t>A54-750</t>
+  </si>
+  <si>
+    <t>T400-34</t>
+  </si>
+  <si>
+    <t>GW87</t>
+  </si>
+  <si>
+    <t>V39-500</t>
+  </si>
+  <si>
+    <t>MWT92/2.4</t>
+  </si>
+  <si>
+    <t>Aeroman 14.8</t>
+  </si>
+  <si>
+    <t>G114-2.0</t>
+  </si>
+  <si>
+    <t>AW3000-116</t>
+  </si>
+  <si>
+    <t>S95-2.1</t>
+  </si>
+  <si>
+    <t>S97-2.1</t>
+  </si>
+  <si>
+    <t>V27</t>
+  </si>
+  <si>
+    <t>V20</t>
+  </si>
+  <si>
+    <t>V15/65</t>
+  </si>
+  <si>
+    <t>E3120 50kW</t>
+  </si>
+  <si>
+    <t>DW54-900</t>
+  </si>
+  <si>
+    <t>DW52-750</t>
+  </si>
+  <si>
+    <t>HQ2000</t>
+  </si>
+  <si>
+    <t>N1000</t>
+  </si>
+  <si>
+    <t>NPS 100</t>
+  </si>
+  <si>
+    <t>NPS Prototype</t>
+  </si>
+  <si>
+    <t>P-1650</t>
+  </si>
+  <si>
+    <t>SHI2.5-100</t>
+  </si>
+  <si>
+    <t>250/50</t>
+  </si>
+  <si>
+    <t>WES 250</t>
+  </si>
+  <si>
+    <t>V90-3.0</t>
+  </si>
+  <si>
+    <t>A1500-70</t>
+  </si>
+  <si>
+    <t>JIMP25</t>
+  </si>
+  <si>
+    <t>AW3000-109</t>
+  </si>
+  <si>
+    <t>Z-50</t>
+  </si>
+  <si>
+    <t>V100-2.0</t>
+  </si>
+  <si>
+    <t>GE 1.68-82.5</t>
+  </si>
+  <si>
+    <t>FL2500/90</t>
+  </si>
+  <si>
+    <t>U54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vensys 77</t>
+  </si>
+  <si>
+    <t>N60/1300</t>
+  </si>
+  <si>
+    <t>SWT2.3-93</t>
+  </si>
+  <si>
+    <t>V42-600</t>
+  </si>
+  <si>
+    <t>DW52-900</t>
+  </si>
+  <si>
+    <t>HQ1650</t>
+  </si>
+  <si>
+    <t>GE 1.5 S</t>
+  </si>
+  <si>
+    <t>GW100-2.5</t>
+  </si>
+  <si>
+    <t>GE 2.85-103</t>
+  </si>
+  <si>
+    <t>GW77</t>
+  </si>
+  <si>
+    <t>SWT3.0-101</t>
+  </si>
+  <si>
+    <t>GE 2.5-120</t>
+  </si>
+  <si>
+    <t>MWT-600</t>
+  </si>
+  <si>
+    <t>W200</t>
+  </si>
+  <si>
+    <t>GE 1.7-100</t>
+  </si>
+  <si>
+    <t>V90-1.8</t>
+  </si>
+  <si>
+    <t>MP-R</t>
+  </si>
+  <si>
+    <t>AW1500-82</t>
+  </si>
+  <si>
+    <t>SE8720IIIE</t>
+  </si>
+  <si>
+    <t>V112-3.3</t>
+  </si>
+  <si>
+    <t>NM72/1650</t>
+  </si>
+  <si>
+    <t>MWT95/2.4</t>
+  </si>
+  <si>
+    <t>N100/2500</t>
+  </si>
+  <si>
+    <t>SWT2.3-108</t>
+  </si>
+  <si>
+    <t>M65/13</t>
+  </si>
+  <si>
+    <t>G83-2.0</t>
+  </si>
+  <si>
+    <t>GE 1.7-103</t>
+  </si>
+  <si>
+    <t>Liberty 2.5-89</t>
+  </si>
+  <si>
+    <t>Z-40</t>
+  </si>
+  <si>
+    <t>NedWind</t>
+  </si>
+  <si>
+    <t>ECO86</t>
+  </si>
+  <si>
+    <t>GE 1.5SL</t>
+  </si>
+  <si>
+    <t>B62/1300</t>
+  </si>
+  <si>
+    <t>15S</t>
+  </si>
+  <si>
+    <t>N90/2500 LS</t>
+  </si>
+  <si>
+    <t>1.5s (Enron)</t>
+  </si>
+  <si>
+    <t>CCWE-3600D/115</t>
+  </si>
+  <si>
+    <t>V17E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V17 </t>
+  </si>
+  <si>
+    <t>GE 1.5 SE</t>
+  </si>
+  <si>
+    <t>N90/2500 HS</t>
+  </si>
+  <si>
+    <t>D9.2</t>
+  </si>
+  <si>
+    <t>N117/2400</t>
+  </si>
+  <si>
+    <t>V112-3.0</t>
+  </si>
+  <si>
+    <t>56-100</t>
+  </si>
+  <si>
+    <t>V80-2.0</t>
+  </si>
+  <si>
+    <t>GE 2.5-100</t>
+  </si>
+  <si>
+    <t>G80-2.0</t>
+  </si>
+  <si>
+    <t>GE 1.5 SL</t>
+  </si>
+  <si>
+    <t>23 E2</t>
+  </si>
+  <si>
+    <t>95T</t>
+  </si>
+  <si>
+    <t>SWT-2.3</t>
+  </si>
+  <si>
+    <t>NM82/1500</t>
+  </si>
+  <si>
+    <t>MWT-250</t>
+  </si>
+  <si>
+    <t>B15/65</t>
+  </si>
+  <si>
+    <t>AW1500-77</t>
+  </si>
+  <si>
+    <t>MWT102/2.4</t>
+  </si>
+  <si>
+    <t>MWT100/2.4</t>
+  </si>
+  <si>
+    <t>SWT3.0-113</t>
+  </si>
+  <si>
+    <t>W99XT</t>
+  </si>
+  <si>
+    <t>B23/150</t>
+  </si>
+  <si>
+    <t>V110-2.0</t>
+  </si>
+  <si>
+    <t>24/160</t>
+  </si>
+  <si>
+    <t>Enertech 44/40</t>
+  </si>
+  <si>
+    <t>Z-48</t>
+  </si>
+  <si>
+    <t>Windmaster-211</t>
+  </si>
+  <si>
+    <t>V15</t>
+  </si>
+  <si>
+    <t>Elecon</t>
+  </si>
+  <si>
+    <t>Vestas</t>
+  </si>
+  <si>
+    <t>Nordex</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>AAER</t>
+  </si>
+  <si>
+    <t>Bergey Windpower</t>
+  </si>
+  <si>
+    <t>Sany</t>
+  </si>
+  <si>
+    <t>Alstom</t>
+  </si>
+  <si>
+    <t>Gamesa</t>
+  </si>
+  <si>
+    <t>Vensys</t>
+  </si>
+  <si>
+    <t>Clipper</t>
+  </si>
+  <si>
+    <t>Aeronautica</t>
+  </si>
+  <si>
+    <t>PowerWind</t>
+  </si>
+  <si>
+    <t>Atlantic Orient</t>
+  </si>
+  <si>
+    <t>Windmatic</t>
+  </si>
+  <si>
+    <t>Goldwind</t>
+  </si>
+  <si>
+    <t>RRB Energy</t>
+  </si>
+  <si>
+    <t>Renewegy</t>
+  </si>
+  <si>
+    <t>Fuhrländer</t>
+  </si>
+  <si>
+    <t>Enertech</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>Eastern Wind Power</t>
+  </si>
+  <si>
+    <t>Sinovel</t>
+  </si>
+  <si>
+    <t>Kenersys</t>
+  </si>
+  <si>
+    <t>Senvion</t>
+  </si>
+  <si>
+    <t>Suzlon</t>
+  </si>
+  <si>
+    <t>Daewoo Dewind</t>
+  </si>
+  <si>
+    <t>Leitwind</t>
+  </si>
+  <si>
+    <t>Turbowinds</t>
+  </si>
+  <si>
+    <t>Aeroman</t>
+  </si>
+  <si>
+    <t>Acciona</t>
+  </si>
+  <si>
+    <t>Endurance</t>
+  </si>
+  <si>
+    <t>EWT</t>
+  </si>
+  <si>
+    <t>HHI</t>
+  </si>
+  <si>
+    <t>Nordic</t>
+  </si>
+  <si>
+    <t>Northern Power Systems</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>SHI</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>Wind Energy Solutions</t>
+  </si>
+  <si>
+    <t>Jonica Impianti</t>
+  </si>
+  <si>
+    <t>Unison</t>
+  </si>
+  <si>
+    <t>Wincon</t>
+  </si>
+  <si>
+    <t>Vergnet</t>
+  </si>
+  <si>
+    <t>CCWE</t>
+  </si>
+  <si>
+    <t>Kenetech</t>
+  </si>
+  <si>
+    <t>Danwin</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Windmaster</t>
+  </si>
+  <si>
+    <t>PlatformId</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>PlatformName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,9 +1567,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -909,10 +1589,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -923,6 +1603,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -930,6 +1611,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -950,7 +1639,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -999,7 +1694,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvPr id="5" name="Elbow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1048,7 +1749,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1095,7 +1802,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1142,7 +1855,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1189,7 +1908,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1267,7 +1992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1299,9 +2024,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1333,6 +2076,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1508,14 +2269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="L27" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -1533,7 +2294,7 @@
     <col min="15" max="15" width="24.7109375" customWidth="1"/>
     <col min="16" max="16" width="3.140625" customWidth="1"/>
     <col min="17" max="17" width="3.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.7109375" customWidth="1"/>
@@ -1550,7 +2311,7 @@
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1578,7 +2339,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1610,7 +2371,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1648,19 +2409,19 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="2"/>
       <c r="AI3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1746,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1800,7 +2561,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>20</v>
@@ -1810,7 +2571,7 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AI5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ5" s="6" t="s">
         <v>20</v>
@@ -1819,14 +2580,14 @@
         <v>3</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1874,13 +2635,13 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AI6" s="1" t="s">
@@ -1889,16 +2650,16 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AM6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -1961,14 +2722,14 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AM7" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -2028,7 +2789,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -2077,14 +2838,14 @@
         <v>55</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -2130,17 +2891,17 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -2190,7 +2951,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -2236,7 +2997,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2284,7 +3045,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -2332,7 +3093,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2376,7 +3137,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -2420,7 +3181,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -2462,7 +3223,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2498,7 +3259,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2534,7 +3295,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2570,7 +3331,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2608,7 +3369,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2646,7 +3407,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2684,7 +3445,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2722,7 +3483,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2754,7 +3515,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2786,7 +3547,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2818,7 +3579,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2850,7 +3611,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2882,7 +3643,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2914,7 +3675,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2946,7 +3707,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2978,7 +3739,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3007,7 +3768,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -3044,7 +3805,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -3101,7 +3862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>86</v>
@@ -3158,13 +3919,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>61</v>
@@ -3213,7 +3974,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -3232,7 +3993,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -3240,10 +4001,10 @@
         <v>81</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3268,7 +4029,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -3287,18 +4048,18 @@
         <v>18</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3323,7 +4084,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -3342,18 +4103,18 @@
         <v>18</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3378,10 +4139,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
@@ -3393,26 +4154,26 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="8" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3437,10 +4198,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
@@ -3452,13 +4213,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2">
@@ -3466,13 +4227,13 @@
         <v>2</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3488,7 +4249,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -3511,13 +4272,13 @@
         <v>3</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3533,10 +4294,10 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
@@ -3556,13 +4317,13 @@
         <v>4</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3578,7 +4339,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -3601,13 +4362,13 @@
         <v>5</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3623,7 +4384,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -3646,13 +4407,13 @@
         <v>6</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3668,7 +4429,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -3691,13 +4452,13 @@
         <v>7</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3713,7 +4474,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -3736,13 +4497,13 @@
         <v>8</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3758,7 +4519,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -3779,13 +4540,13 @@
         <v>9</v>
       </c>
       <c r="M49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O49" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3801,7 +4562,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -3822,7 +4583,7 @@
         <v>10</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>108</v>
@@ -3844,7 +4605,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -3865,10 +4626,10 @@
         <v>11</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>107</v>
@@ -3878,7 +4639,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -3899,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>108</v>
@@ -3915,7 +4676,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -3934,10 +4695,10 @@
         <v>13</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>107</v>
@@ -3946,7 +4707,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -3967,7 +4728,7 @@
         <v>14</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>108</v>
@@ -3979,7 +4740,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -3995,10 +4756,10 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>107</v>
@@ -4007,7 +4768,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -4023,7 +4784,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N56" s="8" t="s">
         <v>108</v>
@@ -4035,7 +4796,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -4051,10 +4812,10 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>107</v>
@@ -4063,7 +4824,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M58" s="8" t="s">
         <v>109</v>
       </c>
@@ -4074,20 +4835,20 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M59" s="8" t="s">
         <v>109</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M60" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>18</v>
@@ -4109,25 +4870,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="C2:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G57" sqref="D43:G57"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E110" sqref="E109:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -4143,7 +4905,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
@@ -4159,7 +4921,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>58</v>
       </c>
@@ -4176,7 +4938,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
@@ -4193,7 +4955,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
@@ -4210,7 +4972,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
@@ -4227,7 +4989,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
@@ -4244,7 +5006,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
@@ -4261,7 +5023,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
@@ -4278,7 +5040,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
@@ -4295,7 +5057,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +5074,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
@@ -4329,7 +5091,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
@@ -4346,7 +5108,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
@@ -4363,7 +5125,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
@@ -4380,7 +5142,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
@@ -4397,7 +5159,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
@@ -4414,7 +5176,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
@@ -4431,7 +5193,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
@@ -4448,7 +5210,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
@@ -4465,7 +5227,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
@@ -4474,7 +5236,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
@@ -4483,86 +5245,86 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="4:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" ht="15.75" thickBot="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="24.75" thickBot="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D43" s="16" t="s">
         <v>49</v>
       </c>
@@ -4570,161 +5332,3238 @@
         <v>52</v>
       </c>
       <c r="F43" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7">
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="20">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:7">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:7">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="4:7">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="4:7">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="22">
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="4:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D49" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="22">
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="4:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="4:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="4:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="4:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="4:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" spans="4:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="4:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="4:7" ht="15.75" thickBot="1">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
     </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>412</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" t="str">
+        <f>"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D61&amp;"', '"&amp;E61&amp;"');"</f>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="29">
+        <f>+C61+1</f>
+        <v>2</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" ref="G62:G125" si="0">"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D62&amp;"', '"&amp;E62&amp;"');"</f>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="29">
+        <f t="shared" ref="C63:C126" si="1">+C62+1</f>
+        <v>3</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="29">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="29">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="29">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="29">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="29">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="29">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="29">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="29">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="29">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="29">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="29">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="29">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="29">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="29">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="29">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="29">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="29">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="29">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="29">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="29">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="29">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="29">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="29">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="29">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="29">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="29">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E103" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="29">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="29">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="29">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="29">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="29">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="29">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="29">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="29">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="29">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="29">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="29">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="29">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="29">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="29">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="29">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="29">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="29">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="29">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="29">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="29">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="29">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="29">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="29">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" ref="G126:G189" si="2">"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D126&amp;"', '"&amp;E126&amp;"');"</f>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="29">
+        <f t="shared" ref="C127:C190" si="3">+C126+1</f>
+        <v>67</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="29">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="29">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="29">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="29">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="29">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="29">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="29">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="29">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="29">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="29">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="29">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="29">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="29">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="29">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="29">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="29">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="29">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="29">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="29">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E146" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="29">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="29">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E148" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="29">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="29">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="29">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="29">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D153" t="s">
+        <v>399</v>
+      </c>
+      <c r="E153" t="s">
+        <v>282</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D154" t="s">
+        <v>375</v>
+      </c>
+      <c r="E154" t="s">
+        <v>224</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D155" t="s">
+        <v>380</v>
+      </c>
+      <c r="E155" t="s">
+        <v>239</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D156" t="s">
+        <v>379</v>
+      </c>
+      <c r="E156" t="s">
+        <v>238</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="D157" t="s">
+        <v>369</v>
+      </c>
+      <c r="E157" t="s">
+        <v>211</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="D158" t="s">
+        <v>369</v>
+      </c>
+      <c r="E158" t="s">
+        <v>241</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D159" t="s">
+        <v>369</v>
+      </c>
+      <c r="E159" t="s">
+        <v>313</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D160" t="s">
+        <v>387</v>
+      </c>
+      <c r="E160" t="s">
+        <v>250</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="D161" t="s">
+        <v>400</v>
+      </c>
+      <c r="E161" t="s">
+        <v>283</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="D162" t="s">
+        <v>366</v>
+      </c>
+      <c r="E162" t="s">
+        <v>204</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="D163" t="s">
+        <v>366</v>
+      </c>
+      <c r="E163" t="s">
+        <v>214</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="D164" t="s">
+        <v>366</v>
+      </c>
+      <c r="E164" t="s">
+        <v>235</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="D165" t="s">
+        <v>366</v>
+      </c>
+      <c r="E165" t="s">
+        <v>297</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="D166" t="s">
+        <v>366</v>
+      </c>
+      <c r="E166" t="s">
+        <v>305</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="D167" t="s">
+        <v>366</v>
+      </c>
+      <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="D168" t="s">
+        <v>366</v>
+      </c>
+      <c r="E168" t="s">
+        <v>327</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="D169" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" t="s">
+        <v>346</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="D170" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" t="s">
+        <v>349</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="D171" t="s">
+        <v>366</v>
+      </c>
+      <c r="E171" t="s">
+        <v>353</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="D172" t="s">
+        <v>366</v>
+      </c>
+      <c r="E172" t="s">
+        <v>355</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="D173" t="s">
+        <v>385</v>
+      </c>
+      <c r="E173" t="s">
+        <v>247</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="D174" t="s">
+        <v>385</v>
+      </c>
+      <c r="E174" t="s">
+        <v>248</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="D175" t="s">
+        <v>401</v>
+      </c>
+      <c r="E175" t="s">
+        <v>284</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="D176" t="s">
+        <v>388</v>
+      </c>
+      <c r="E176" t="s">
+        <v>252</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="D177" t="s">
+        <v>388</v>
+      </c>
+      <c r="E177" t="s">
+        <v>256</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="D178" t="s">
+        <v>388</v>
+      </c>
+      <c r="E178" t="s">
+        <v>270</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="D179" t="s">
+        <v>388</v>
+      </c>
+      <c r="E179" t="s">
+        <v>271</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="D180" t="s">
+        <v>391</v>
+      </c>
+      <c r="E180" t="s">
+        <v>191</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="D181" t="s">
+        <v>391</v>
+      </c>
+      <c r="E181" t="s">
+        <v>263</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="D182" t="s">
+        <v>404</v>
+      </c>
+      <c r="E182" t="s">
+        <v>294</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="D183" t="s">
+        <v>410</v>
+      </c>
+      <c r="E183" t="s">
+        <v>345</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="D184" t="s">
+        <v>372</v>
+      </c>
+      <c r="E184" t="s">
+        <v>218</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="D185" t="s">
+        <v>372</v>
+      </c>
+      <c r="E185" t="s">
+        <v>233</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="D186" t="s">
+        <v>372</v>
+      </c>
+      <c r="E186" t="s">
+        <v>295</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="D187" t="s">
+        <v>406</v>
+      </c>
+      <c r="E187" t="s">
+        <v>311</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="D188" t="s">
+        <v>363</v>
+      </c>
+      <c r="E188" t="s">
+        <v>193</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="D189" t="s">
+        <v>363</v>
+      </c>
+      <c r="E189" t="s">
+        <v>194</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="D190" t="s">
+        <v>363</v>
+      </c>
+      <c r="E190" t="s">
+        <v>200</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" ref="G190:G233" si="4">"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D190&amp;"', '"&amp;E190&amp;"');"</f>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f t="shared" ref="C191:C233" si="5">+C190+1</f>
+        <v>131</v>
+      </c>
+      <c r="D191" t="s">
+        <v>363</v>
+      </c>
+      <c r="E191" t="s">
+        <v>201</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="D192" t="s">
+        <v>363</v>
+      </c>
+      <c r="E192" t="s">
+        <v>202</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="D193" t="s">
+        <v>363</v>
+      </c>
+      <c r="E193" t="s">
+        <v>203</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="D194" t="s">
+        <v>363</v>
+      </c>
+      <c r="E194" t="s">
+        <v>205</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="D195" t="s">
+        <v>363</v>
+      </c>
+      <c r="E195" t="s">
+        <v>209</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="D196" t="s">
+        <v>363</v>
+      </c>
+      <c r="E196" t="s">
+        <v>215</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="D197" t="s">
+        <v>363</v>
+      </c>
+      <c r="E197" t="s">
+        <v>220</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="D198" t="s">
+        <v>363</v>
+      </c>
+      <c r="E198" t="s">
+        <v>221</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="D199" t="s">
+        <v>363</v>
+      </c>
+      <c r="E199" t="s">
+        <v>226</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="D200" t="s">
+        <v>363</v>
+      </c>
+      <c r="E200" t="s">
+        <v>229</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="D201" t="s">
+        <v>363</v>
+      </c>
+      <c r="E201" t="s">
+        <v>231</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="D202" t="s">
+        <v>363</v>
+      </c>
+      <c r="E202" t="s">
+        <v>234</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="D203" t="s">
+        <v>363</v>
+      </c>
+      <c r="E203" t="s">
+        <v>243</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="D204" t="s">
+        <v>363</v>
+      </c>
+      <c r="E204" t="s">
+        <v>251</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="D205" t="s">
+        <v>363</v>
+      </c>
+      <c r="E205" t="s">
+        <v>253</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="D206" t="s">
+        <v>363</v>
+      </c>
+      <c r="E206" t="s">
+        <v>255</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="D207" t="s">
+        <v>363</v>
+      </c>
+      <c r="E207" t="s">
+        <v>258</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="D208" t="s">
+        <v>363</v>
+      </c>
+      <c r="E208" t="s">
+        <v>265</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="D209" t="s">
+        <v>363</v>
+      </c>
+      <c r="E209" t="s">
+        <v>272</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="D210" t="s">
+        <v>363</v>
+      </c>
+      <c r="E210" t="s">
+        <v>273</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="D211" t="s">
+        <v>363</v>
+      </c>
+      <c r="E211" t="s">
+        <v>274</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="D212" t="s">
+        <v>363</v>
+      </c>
+      <c r="E212" t="s">
+        <v>286</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="D213" t="s">
+        <v>363</v>
+      </c>
+      <c r="E213" t="s">
+        <v>291</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="D214" t="s">
+        <v>363</v>
+      </c>
+      <c r="E214" t="s">
+        <v>298</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="D215" t="s">
+        <v>363</v>
+      </c>
+      <c r="E215" t="s">
+        <v>310</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
+      </c>
+    </row>
+    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="D216" t="s">
+        <v>363</v>
+      </c>
+      <c r="E216" t="s">
+        <v>314</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
+      </c>
+    </row>
+    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="D217" t="s">
+        <v>363</v>
+      </c>
+      <c r="E217" t="s">
+        <v>315</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="D218" t="s">
+        <v>363</v>
+      </c>
+      <c r="E218" t="s">
+        <v>319</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="D219" t="s">
+        <v>363</v>
+      </c>
+      <c r="E219" t="s">
+        <v>324</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="D220" t="s">
+        <v>363</v>
+      </c>
+      <c r="E220" t="s">
+        <v>332</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="D221" t="s">
+        <v>363</v>
+      </c>
+      <c r="E221" t="s">
+        <v>333</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="D222" t="s">
+        <v>363</v>
+      </c>
+      <c r="E222" t="s">
+        <v>338</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="D223" t="s">
+        <v>363</v>
+      </c>
+      <c r="E223" t="s">
+        <v>340</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="D224" t="s">
+        <v>363</v>
+      </c>
+      <c r="E224" t="s">
+        <v>347</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="D225" t="s">
+        <v>363</v>
+      </c>
+      <c r="E225" t="s">
+        <v>356</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="D226" t="s">
+        <v>363</v>
+      </c>
+      <c r="E226" t="s">
+        <v>361</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="D227" t="s">
+        <v>405</v>
+      </c>
+      <c r="E227" t="s">
+        <v>308</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="D228" t="s">
+        <v>405</v>
+      </c>
+      <c r="E228" t="s">
+        <v>354</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="D229" t="s">
+        <v>402</v>
+      </c>
+      <c r="E229" t="s">
+        <v>285</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="D230" t="s">
+        <v>411</v>
+      </c>
+      <c r="E230" t="s">
+        <v>360</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="D231" t="s">
+        <v>377</v>
+      </c>
+      <c r="E231" t="s">
+        <v>228</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="D232" t="s">
+        <v>377</v>
+      </c>
+      <c r="E232">
+        <v>200</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="D233" t="s">
+        <v>377</v>
+      </c>
+      <c r="E233" t="s">
+        <v>328</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>367</v>
+      </c>
+      <c r="F240" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>393</v>
+      </c>
+      <c r="F241" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>392</v>
+      </c>
+      <c r="F242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>374</v>
+      </c>
+      <c r="F243" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>370</v>
+      </c>
+      <c r="F244" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>376</v>
+      </c>
+      <c r="F245" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>368</v>
+      </c>
+      <c r="F246" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>407</v>
+      </c>
+      <c r="F247" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>373</v>
+      </c>
+      <c r="F248" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>389</v>
+      </c>
+      <c r="F249" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>409</v>
+      </c>
+      <c r="F250" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C60:E233">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Bergey Windpower"/>
+        <filter val="GE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="D61:E233">
+    <sortCondition ref="D60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="416">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1273,16 +1268,19 @@
   </si>
   <si>
     <t>PlatformName</t>
+  </si>
+  <si>
+    <t>TOOL LIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,9 +1565,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1589,10 +1587,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1604,6 +1602,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1642,7 +1641,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1696,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1751,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1804,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1857,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1910,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +1991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2024,27 +2023,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,24 +2057,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2269,14 +2232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L27" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="R33" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2303,15 +2266,15 @@
     <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" customWidth="1"/>
+    <col min="28" max="28" width="40" customWidth="1"/>
     <col min="29" max="29" width="24.28515625" customWidth="1"/>
     <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2339,7 +2302,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2371,7 +2334,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2421,7 +2384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2507,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -2587,7 +2550,7 @@
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -2659,7 +2622,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -2729,7 +2692,7 @@
       </c>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -2789,7 +2752,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -2845,7 +2808,7 @@
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -2901,7 +2864,7 @@
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -2951,7 +2914,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -2997,7 +2960,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3045,7 +3008,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3093,7 +3056,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3137,7 +3100,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3181,7 +3144,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3223,7 +3186,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3259,7 +3222,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3295,7 +3258,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3331,7 +3294,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3369,7 +3332,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3407,7 +3370,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3445,7 +3408,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3483,7 +3446,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3515,7 +3478,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3547,7 +3510,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3579,7 +3542,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3611,7 +3574,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3643,7 +3606,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3675,7 +3638,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3707,7 +3670,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3739,7 +3702,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3768,7 +3731,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -3805,7 +3768,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -3861,8 +3824,11 @@
       <c r="Y35" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB35" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>86</v>
@@ -3919,7 +3885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -3974,7 +3940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -4029,7 +3995,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -4084,7 +4050,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -4139,7 +4105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>141</v>
@@ -4198,7 +4164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>142</v>
@@ -4249,7 +4215,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -4294,7 +4260,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>143</v>
@@ -4339,7 +4305,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -4384,7 +4350,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -4429,7 +4395,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -4474,7 +4440,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -4519,7 +4485,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -4562,7 +4528,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -4605,7 +4571,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -4639,7 +4605,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -4676,7 +4642,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -4707,7 +4673,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -4740,7 +4706,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -4768,7 +4734,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -4796,7 +4762,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -4824,7 +4790,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="M58" s="8" t="s">
         <v>109</v>
       </c>
@@ -4835,7 +4801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="M59" s="8" t="s">
         <v>109</v>
       </c>
@@ -4846,7 +4812,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -4870,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:M290"/>
   <sheetViews>
@@ -4878,7 +4844,7 @@
       <selection activeCell="E110" sqref="E109:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -4889,7 +4855,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -4905,7 +4871,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13">
       <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
@@ -4921,7 +4887,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13">
       <c r="D4" s="13" t="s">
         <v>58</v>
       </c>
@@ -4938,7 +4904,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13">
       <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
@@ -4955,7 +4921,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13">
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
@@ -4972,7 +4938,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13">
       <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
@@ -4989,7 +4955,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13">
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +4972,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13">
       <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
@@ -5023,7 +4989,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13">
       <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
@@ -5040,7 +5006,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13">
       <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
@@ -5057,7 +5023,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13">
       <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
@@ -5074,7 +5040,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13">
       <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
@@ -5091,7 +5057,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13">
       <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
@@ -5108,7 +5074,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13">
       <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
@@ -5125,7 +5091,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13">
       <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
@@ -5142,7 +5108,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13">
       <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
@@ -5159,7 +5125,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13">
       <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
@@ -5176,7 +5142,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13">
       <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
@@ -5193,7 +5159,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13">
       <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
@@ -5210,7 +5176,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13">
       <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
@@ -5227,7 +5193,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13">
       <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
@@ -5236,7 +5202,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13">
       <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
@@ -5245,7 +5211,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13">
       <c r="D26" s="15" t="s">
         <v>156</v>
       </c>
@@ -5253,78 +5219,78 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" ht="15.75" thickBot="1">
       <c r="D42" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="4:7" ht="24.75" thickBot="1">
       <c r="D43" s="16" t="s">
         <v>49</v>
       </c>
@@ -5338,7 +5304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7">
       <c r="D44" s="17" t="s">
         <v>174</v>
       </c>
@@ -5350,7 +5316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:7">
       <c r="D45" s="21" t="s">
         <v>175</v>
       </c>
@@ -5362,7 +5328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:7">
       <c r="D46" s="21" t="s">
         <v>172</v>
       </c>
@@ -5372,7 +5338,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7">
       <c r="D47" s="21" t="s">
         <v>172</v>
       </c>
@@ -5382,7 +5348,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7">
       <c r="D48" s="21" t="s">
         <v>178</v>
       </c>
@@ -5394,7 +5360,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7">
       <c r="D49" s="21" t="s">
         <v>179</v>
       </c>
@@ -5406,7 +5372,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7">
       <c r="D50" s="21" t="s">
         <v>180</v>
       </c>
@@ -5416,7 +5382,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7">
       <c r="D51" s="21" t="s">
         <v>181</v>
       </c>
@@ -5426,7 +5392,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7">
       <c r="D52" s="21" t="s">
         <v>182</v>
       </c>
@@ -5436,7 +5402,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7">
       <c r="D53" s="21" t="s">
         <v>183</v>
       </c>
@@ -5446,7 +5412,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7">
       <c r="D54" s="21" t="s">
         <v>185</v>
       </c>
@@ -5456,7 +5422,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7">
       <c r="D55" s="21" t="s">
         <v>186</v>
       </c>
@@ -5466,7 +5432,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7">
       <c r="D56" s="21" t="s">
         <v>187</v>
       </c>
@@ -5476,7 +5442,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1">
       <c r="D57" s="24" t="s">
         <v>188</v>
       </c>
@@ -5486,7 +5452,7 @@
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7">
       <c r="C60" t="s">
         <v>412</v>
       </c>
@@ -5497,7 +5463,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" hidden="1">
       <c r="C61" s="29">
         <v>1</v>
       </c>
@@ -5512,7 +5478,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" hidden="1">
       <c r="C62" s="29">
         <f>+C61+1</f>
         <v>2</v>
@@ -5528,7 +5494,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" hidden="1">
       <c r="C63" s="29">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -5544,7 +5510,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" hidden="1">
       <c r="C64" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5560,7 +5526,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" hidden="1">
       <c r="C65" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5576,7 +5542,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" hidden="1">
       <c r="C66" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5592,7 +5558,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" hidden="1">
       <c r="C67" s="29">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5608,7 +5574,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" hidden="1">
       <c r="C68" s="29">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5624,7 +5590,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" hidden="1">
       <c r="C69" s="29">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5640,7 +5606,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" hidden="1">
       <c r="C70" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5656,7 +5622,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" hidden="1">
       <c r="C71" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5672,7 +5638,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" hidden="1">
       <c r="C72" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5688,7 +5654,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7">
       <c r="C73" s="29">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5704,7 +5670,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" hidden="1">
       <c r="C74" s="29">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5720,7 +5686,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" hidden="1">
       <c r="C75" s="29">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5736,7 +5702,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" hidden="1">
       <c r="C76" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5752,7 +5718,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" hidden="1">
       <c r="C77" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -5768,7 +5734,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" hidden="1">
       <c r="C78" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -5784,7 +5750,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" hidden="1">
       <c r="C79" s="29">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -5800,7 +5766,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" hidden="1">
       <c r="C80" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5816,7 +5782,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" hidden="1">
       <c r="C81" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -5832,7 +5798,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" hidden="1">
       <c r="C82" s="29">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -5848,7 +5814,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" hidden="1">
       <c r="C83" s="29">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -5864,7 +5830,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" hidden="1">
       <c r="C84" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5880,7 +5846,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" hidden="1">
       <c r="C85" s="29">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5896,7 +5862,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" hidden="1">
       <c r="C86" s="29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -5912,7 +5878,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" hidden="1">
       <c r="C87" s="29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5928,7 +5894,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" hidden="1">
       <c r="C88" s="29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -5944,7 +5910,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" hidden="1">
       <c r="C89" s="29">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -5960,7 +5926,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" hidden="1">
       <c r="C90" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -5976,7 +5942,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" hidden="1">
       <c r="C91" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -5992,7 +5958,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" hidden="1">
       <c r="C92" s="29">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -6008,7 +5974,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" hidden="1">
       <c r="C93" s="29">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -6024,7 +5990,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" hidden="1">
       <c r="C94" s="29">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -6040,7 +6006,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" hidden="1">
       <c r="C95" s="29">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -6056,7 +6022,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" hidden="1">
       <c r="C96" s="29">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -6072,7 +6038,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" hidden="1">
       <c r="C97" s="29">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -6088,7 +6054,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" hidden="1">
       <c r="C98" s="29">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -6104,7 +6070,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" hidden="1">
       <c r="C99" s="29">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6120,7 +6086,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" hidden="1">
       <c r="C100" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -6136,7 +6102,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" hidden="1">
       <c r="C101" s="29">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -6152,7 +6118,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" hidden="1">
       <c r="C102" s="29">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6168,7 +6134,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" hidden="1">
       <c r="C103" s="29">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -6184,7 +6150,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7">
       <c r="C104" s="29">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6200,7 +6166,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7">
       <c r="C105" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6216,7 +6182,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7">
       <c r="C106" s="29">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6232,7 +6198,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7">
       <c r="C107" s="29">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -6248,7 +6214,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7">
       <c r="C108" s="29">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -6264,7 +6230,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7">
       <c r="C109" s="29">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6280,7 +6246,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7">
       <c r="C110" s="29">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6296,7 +6262,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7">
       <c r="C111" s="29">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6312,7 +6278,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7">
       <c r="C112" s="29">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6328,7 +6294,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7">
       <c r="C113" s="29">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6344,7 +6310,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7">
       <c r="C114" s="29">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6360,7 +6326,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7">
       <c r="C115" s="29">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6376,7 +6342,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7">
       <c r="C116" s="29">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6392,7 +6358,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7">
       <c r="C117" s="29">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6408,7 +6374,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7">
       <c r="C118" s="29">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6424,7 +6390,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7">
       <c r="C119" s="29">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6440,7 +6406,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7">
       <c r="C120" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6456,7 +6422,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7">
       <c r="C121" s="29">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6472,7 +6438,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7">
       <c r="C122" s="29">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6488,7 +6454,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7">
       <c r="C123" s="29">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6504,7 +6470,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" hidden="1">
       <c r="C124" s="29">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6520,7 +6486,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" hidden="1">
       <c r="C125" s="29">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6536,7 +6502,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" hidden="1">
       <c r="C126" s="29">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6552,7 +6518,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" hidden="1">
       <c r="C127" s="29">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -6568,7 +6534,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" hidden="1">
       <c r="C128" s="29">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -6584,7 +6550,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" hidden="1">
       <c r="C129" s="29">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -6600,7 +6566,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" hidden="1">
       <c r="C130" s="29">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -6616,7 +6582,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" hidden="1">
       <c r="C131" s="29">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -6632,7 +6598,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" hidden="1">
       <c r="C132" s="29">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -6648,7 +6614,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" hidden="1">
       <c r="C133" s="29">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -6664,7 +6630,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" hidden="1">
       <c r="C134" s="29">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -6680,7 +6646,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" hidden="1">
       <c r="C135" s="29">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -6696,7 +6662,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" hidden="1">
       <c r="C136" s="29">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -6712,7 +6678,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" hidden="1">
       <c r="C137" s="29">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -6728,7 +6694,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" hidden="1">
       <c r="C138" s="29">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -6744,7 +6710,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" hidden="1">
       <c r="C139" s="29">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -6760,7 +6726,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" hidden="1">
       <c r="C140" s="29">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -6776,7 +6742,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" hidden="1">
       <c r="C141" s="29">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -6792,7 +6758,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" hidden="1">
       <c r="C142" s="29">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -6808,7 +6774,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" hidden="1">
       <c r="C143" s="29">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -6824,7 +6790,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" hidden="1">
       <c r="C144" s="29">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -6840,7 +6806,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" hidden="1">
       <c r="C145" s="29">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -6856,7 +6822,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" hidden="1">
       <c r="C146" s="29">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -6872,7 +6838,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" hidden="1">
       <c r="C147" s="29">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -6888,7 +6854,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" hidden="1">
       <c r="C148" s="29">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -6904,7 +6870,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" hidden="1">
       <c r="C149" s="29">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -6920,7 +6886,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" hidden="1">
       <c r="C150" s="29">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -6936,7 +6902,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" hidden="1">
       <c r="C151" s="29">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -6952,7 +6918,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" hidden="1">
       <c r="C152" s="29">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -6968,7 +6934,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" hidden="1">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -6984,7 +6950,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" hidden="1">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -7000,7 +6966,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" hidden="1">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -7016,7 +6982,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" hidden="1">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -7032,7 +6998,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" hidden="1">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -7048,7 +7014,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" hidden="1">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -7064,7 +7030,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" hidden="1">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -7080,7 +7046,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" hidden="1">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -7096,7 +7062,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" hidden="1">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -7112,7 +7078,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" hidden="1">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -7128,7 +7094,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" hidden="1">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -7144,7 +7110,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" hidden="1">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -7160,7 +7126,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" hidden="1">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -7176,7 +7142,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" hidden="1">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -7192,7 +7158,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" hidden="1">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -7208,7 +7174,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" hidden="1">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -7224,7 +7190,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" hidden="1">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -7240,7 +7206,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" hidden="1">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -7256,7 +7222,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" hidden="1">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -7272,7 +7238,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" hidden="1">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -7288,7 +7254,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" hidden="1">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -7304,7 +7270,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" hidden="1">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -7320,7 +7286,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" hidden="1">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -7336,7 +7302,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" hidden="1">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -7352,7 +7318,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" hidden="1">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -7368,7 +7334,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" hidden="1">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -7384,7 +7350,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" hidden="1">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -7400,7 +7366,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" hidden="1">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -7416,7 +7382,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" hidden="1">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -7432,7 +7398,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" hidden="1">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -7448,7 +7414,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" hidden="1">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -7464,7 +7430,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" hidden="1">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -7480,7 +7446,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" hidden="1">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -7496,7 +7462,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" hidden="1">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -7512,7 +7478,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" hidden="1">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -7528,7 +7494,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" hidden="1">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -7544,7 +7510,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" hidden="1">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -7560,7 +7526,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" hidden="1">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -7576,7 +7542,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" hidden="1">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -7592,7 +7558,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" hidden="1">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -7608,7 +7574,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" hidden="1">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -7624,7 +7590,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" hidden="1">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -7640,7 +7606,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" hidden="1">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -7656,7 +7622,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" hidden="1">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -7672,7 +7638,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" hidden="1">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -7688,7 +7654,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" hidden="1">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -7704,7 +7670,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" hidden="1">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -7720,7 +7686,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" hidden="1">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -7736,7 +7702,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" hidden="1">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -7752,7 +7718,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" hidden="1">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -7768,7 +7734,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" hidden="1">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -7784,7 +7750,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" hidden="1">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -7800,7 +7766,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" hidden="1">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -7816,7 +7782,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" hidden="1">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -7832,7 +7798,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" hidden="1">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -7848,7 +7814,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" hidden="1">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -7864,7 +7830,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" hidden="1">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -7880,7 +7846,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" hidden="1">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -7896,7 +7862,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" hidden="1">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -7912,7 +7878,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" hidden="1">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -7928,7 +7894,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" hidden="1">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -7944,7 +7910,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" hidden="1">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -7960,7 +7926,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" hidden="1">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -7976,7 +7942,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" hidden="1">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -7992,7 +7958,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" hidden="1">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -8008,7 +7974,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" hidden="1">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -8024,7 +7990,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" hidden="1">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -8040,7 +8006,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" hidden="1">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -8056,7 +8022,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" hidden="1">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -8072,7 +8038,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" hidden="1">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -8088,7 +8054,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" hidden="1">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -8104,7 +8070,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" hidden="1">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -8120,7 +8086,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" hidden="1">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -8136,7 +8102,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" hidden="1">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -8152,7 +8118,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" hidden="1">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -8168,7 +8134,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" hidden="1">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -8184,7 +8150,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" hidden="1">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -8200,7 +8166,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" hidden="1">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -8216,7 +8182,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" hidden="1">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -8232,7 +8198,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" hidden="1">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -8248,7 +8214,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" hidden="1">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -8264,7 +8230,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7">
       <c r="D240" t="s">
         <v>367</v>
       </c>
@@ -8272,7 +8238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6">
       <c r="D241" t="s">
         <v>393</v>
       </c>
@@ -8280,7 +8246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6">
       <c r="D242" t="s">
         <v>392</v>
       </c>
@@ -8288,7 +8254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6">
       <c r="D243" t="s">
         <v>374</v>
       </c>
@@ -8296,7 +8262,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6">
       <c r="D244" t="s">
         <v>370</v>
       </c>
@@ -8304,7 +8270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6">
       <c r="D245" t="s">
         <v>376</v>
       </c>
@@ -8312,7 +8278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6">
       <c r="D246" t="s">
         <v>368</v>
       </c>
@@ -8320,7 +8286,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6">
       <c r="D247" t="s">
         <v>407</v>
       </c>
@@ -8328,7 +8294,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6">
       <c r="D248" t="s">
         <v>373</v>
       </c>
@@ -8336,7 +8302,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6">
       <c r="D249" t="s">
         <v>389</v>
       </c>
@@ -8344,7 +8310,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6">
       <c r="D250" t="s">
         <v>409</v>
       </c>
@@ -8352,202 +8318,202 @@
         <v>167</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6">
       <c r="D251" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6">
       <c r="D252" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6">
       <c r="D253" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6">
       <c r="D254" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6">
       <c r="D255" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6">
       <c r="D256" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4">
       <c r="D257" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4">
       <c r="D258" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4">
       <c r="D259" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4">
       <c r="D260" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4">
       <c r="D261" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4">
       <c r="D262" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4">
       <c r="D263" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4">
       <c r="D264" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4">
       <c r="D265" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4">
       <c r="D266" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4">
       <c r="D267" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4">
       <c r="D268" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4">
       <c r="D269" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4">
       <c r="D270" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4">
       <c r="D271" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4">
       <c r="D272" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4">
       <c r="D273" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4">
       <c r="D274" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4">
       <c r="D275" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4">
       <c r="D276" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4">
       <c r="D277" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4">
       <c r="D278" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4">
       <c r="D279" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4">
       <c r="D280" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4">
       <c r="D281" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4">
       <c r="D282" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4">
       <c r="D283" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4">
       <c r="D284" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4">
       <c r="D285" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4">
       <c r="D286" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4">
       <c r="D287" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4">
       <c r="D288" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4">
       <c r="D289" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4">
       <c r="D290" t="s">
         <v>377</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="417">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1271,16 +1276,19 @@
   </si>
   <si>
     <t>TOOL LIST</t>
+  </si>
+  <si>
+    <t>quoteslist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,7 +1573,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1587,10 +1595,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1641,7 +1649,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1704,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1759,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1812,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1865,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1918,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,9 +2031,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,6 +2083,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2232,14 +2276,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R33" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2274,7 +2316,7 @@
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2302,7 +2344,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2334,7 +2376,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2384,7 +2426,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2470,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -2550,7 +2592,7 @@
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -2622,7 +2664,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -2692,7 +2734,7 @@
       </c>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -2752,7 +2794,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -2808,7 +2850,7 @@
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -2864,7 +2906,7 @@
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -2914,7 +2956,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -2960,7 +3002,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3008,7 +3050,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3056,7 +3098,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3100,7 +3142,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3144,7 +3186,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3186,7 +3228,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3222,7 +3264,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3258,7 +3300,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3294,7 +3336,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3332,7 +3374,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3370,7 +3412,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3408,7 +3450,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3446,7 +3488,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3478,7 +3520,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3510,7 +3552,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3542,7 +3584,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3574,7 +3616,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3606,7 +3648,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3638,7 +3680,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3670,7 +3712,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3702,7 +3744,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3731,7 +3773,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -3768,7 +3810,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -3828,7 +3870,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>86</v>
@@ -3885,7 +3927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -3940,7 +3982,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -3995,7 +4037,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -4050,7 +4092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -4105,7 +4147,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>141</v>
@@ -4164,7 +4206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>142</v>
@@ -4215,7 +4257,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -4260,7 +4302,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>143</v>
@@ -4305,7 +4347,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -4350,7 +4392,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -4395,7 +4437,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -4440,7 +4482,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -4485,7 +4527,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -4528,7 +4570,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -4571,7 +4613,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -4605,7 +4647,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -4642,7 +4684,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -4673,7 +4715,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -4706,7 +4748,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -4734,7 +4776,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -4762,7 +4804,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -4790,7 +4832,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M58" s="8" t="s">
         <v>109</v>
       </c>
@@ -4801,7 +4843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M59" s="8" t="s">
         <v>109</v>
       </c>
@@ -4812,7 +4854,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -4836,15 +4878,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:M290"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E110" sqref="E109:E110"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -4855,7 +4897,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -4871,7 +4913,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
@@ -4887,7 +4929,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>58</v>
       </c>
@@ -4904,7 +4946,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
@@ -4921,7 +4963,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
@@ -4938,7 +4980,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
@@ -4955,7 +4997,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
@@ -4972,7 +5014,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="13" t="s">
         <v>58</v>
       </c>
@@ -4989,7 +5031,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="13" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +5048,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="13" t="s">
         <v>58</v>
       </c>
@@ -5023,7 +5065,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
@@ -5040,7 +5082,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
@@ -5057,7 +5099,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
@@ -5074,7 +5116,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
@@ -5091,7 +5133,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
@@ -5108,7 +5150,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
@@ -5125,7 +5167,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
@@ -5142,7 +5184,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
@@ -5159,7 +5201,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
@@ -5176,7 +5218,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
@@ -5193,7 +5235,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
@@ -5202,7 +5244,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
@@ -5211,7 +5253,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="15" t="s">
         <v>156</v>
       </c>
@@ -5219,78 +5261,81 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="4:13">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="4:13">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="4:13">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="4:13">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="4:13">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="4:7">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="4:7">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="4:7">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="4:7">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="15.75" thickBot="1">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="43" spans="4:7" ht="24.75" thickBot="1">
+      <c r="K42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D43" s="16" t="s">
         <v>49</v>
       </c>
@@ -5304,7 +5349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="4:7">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="17" t="s">
         <v>174</v>
       </c>
@@ -5316,7 +5361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:7">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="21" t="s">
         <v>175</v>
       </c>
@@ -5328,7 +5373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:7">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="21" t="s">
         <v>172</v>
       </c>
@@ -5338,7 +5383,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="4:7">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="21" t="s">
         <v>172</v>
       </c>
@@ -5348,7 +5393,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="4:7">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="21" t="s">
         <v>178</v>
       </c>
@@ -5360,7 +5405,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D49" s="21" t="s">
         <v>179</v>
       </c>
@@ -5372,7 +5417,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="21" t="s">
         <v>180</v>
       </c>
@@ -5382,7 +5427,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="3:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="21" t="s">
         <v>181</v>
       </c>
@@ -5392,7 +5437,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="21" t="s">
         <v>182</v>
       </c>
@@ -5402,7 +5447,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="21" t="s">
         <v>183</v>
       </c>
@@ -5412,7 +5457,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" s="21" t="s">
         <v>185</v>
       </c>
@@ -5422,7 +5467,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" s="21" t="s">
         <v>186</v>
       </c>
@@ -5432,7 +5477,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" s="21" t="s">
         <v>187</v>
       </c>
@@ -5442,7 +5487,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="24" t="s">
         <v>188</v>
       </c>
@@ -5452,7 +5497,7 @@
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>412</v>
       </c>
@@ -5463,7 +5508,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1">
+    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="29">
         <v>1</v>
       </c>
@@ -5478,7 +5523,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1">
+    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="29">
         <f>+C61+1</f>
         <v>2</v>
@@ -5494,7 +5539,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1">
+    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="29">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -5510,7 +5555,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1">
+    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5526,7 +5571,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1">
+    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5542,7 +5587,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1">
+    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5558,7 +5603,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1">
+    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="29">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5574,7 +5619,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1">
+    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="29">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5590,7 +5635,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1">
+    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="29">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5606,7 +5651,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1">
+    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5622,7 +5667,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1">
+    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C71" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5638,7 +5683,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1">
+    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5654,7 +5699,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="29">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5670,7 +5715,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1">
+    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" s="29">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5686,7 +5731,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1">
+    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C75" s="29">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5702,7 +5747,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1">
+    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5718,7 +5763,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1">
+    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -5734,7 +5779,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1">
+    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -5750,7 +5795,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1">
+    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C79" s="29">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -5766,7 +5811,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1">
+    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C80" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5782,7 +5827,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1">
+    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C81" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -5798,7 +5843,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1">
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="29">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -5814,7 +5859,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1">
+    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C83" s="29">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -5830,7 +5875,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1">
+    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C84" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5846,7 +5891,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1">
+    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C85" s="29">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5862,7 +5907,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1">
+    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C86" s="29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -5878,7 +5923,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1">
+    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C87" s="29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5894,7 +5939,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1">
+    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" s="29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -5910,7 +5955,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1">
+    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" s="29">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -5926,7 +5971,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1">
+    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C90" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -5942,7 +5987,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1">
+    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C91" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -5958,7 +6003,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1">
+    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C92" s="29">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -5974,7 +6019,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1">
+    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93" s="29">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -5990,7 +6035,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1">
+    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C94" s="29">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -6006,7 +6051,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1">
+    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C95" s="29">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -6022,7 +6067,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1">
+    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="29">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -6038,7 +6083,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1">
+    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C97" s="29">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -6054,7 +6099,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1">
+    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C98" s="29">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -6070,7 +6115,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1">
+    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99" s="29">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6086,7 +6131,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1">
+    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C100" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -6102,7 +6147,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1">
+    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C101" s="29">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -6118,7 +6163,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1">
+    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C102" s="29">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6134,7 +6179,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1">
+    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C103" s="29">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -6150,7 +6195,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" s="29">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6166,7 +6211,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6182,7 +6227,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" s="29">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6198,7 +6243,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="29">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -6214,7 +6259,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="29">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -6230,7 +6275,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="29">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6246,7 +6291,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="29">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6262,7 +6307,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="29">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6278,7 +6323,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="29">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6294,7 +6339,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113" s="29">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6310,7 +6355,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" s="29">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6326,7 +6371,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="29">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6342,7 +6387,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="29">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6358,7 +6403,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="29">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6374,7 +6419,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="29">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -6390,7 +6435,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="29">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6406,7 +6451,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6422,7 +6467,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="29">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6438,7 +6483,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="29">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6454,7 +6499,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="29">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6470,7 +6515,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1">
+    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C124" s="29">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6486,7 +6531,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1">
+    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C125" s="29">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6502,7 +6547,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1">
+    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C126" s="29">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -6518,7 +6563,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1">
+    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C127" s="29">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -6534,7 +6579,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1">
+    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C128" s="29">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -6550,7 +6595,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1">
+    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C129" s="29">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -6566,7 +6611,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1">
+    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C130" s="29">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -6582,7 +6627,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1">
+    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131" s="29">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -6598,7 +6643,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1">
+    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C132" s="29">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -6614,7 +6659,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1">
+    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C133" s="29">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -6630,7 +6675,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1">
+    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C134" s="29">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -6646,7 +6691,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1">
+    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C135" s="29">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -6662,7 +6707,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1">
+    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C136" s="29">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -6678,7 +6723,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1">
+    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C137" s="29">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -6694,7 +6739,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1">
+    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138" s="29">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -6710,7 +6755,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1">
+    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C139" s="29">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -6726,7 +6771,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1">
+    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C140" s="29">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -6742,7 +6787,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1">
+    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C141" s="29">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -6758,7 +6803,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1">
+    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C142" s="29">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -6774,7 +6819,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1">
+    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C143" s="29">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -6790,7 +6835,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1">
+    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C144" s="29">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -6806,7 +6851,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1">
+    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C145" s="29">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -6822,7 +6867,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1">
+    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C146" s="29">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -6838,7 +6883,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1">
+    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C147" s="29">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -6854,7 +6899,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1">
+    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C148" s="29">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -6870,7 +6915,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1">
+    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C149" s="29">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -6886,7 +6931,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1">
+    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C150" s="29">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -6902,7 +6947,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1">
+    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C151" s="29">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -6918,7 +6963,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1">
+    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C152" s="29">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -6934,7 +6979,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1">
+    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -6950,7 +6995,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1">
+    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -6966,7 +7011,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1">
+    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -6982,7 +7027,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1">
+    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -6998,7 +7043,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1">
+    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -7014,7 +7059,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1">
+    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -7030,7 +7075,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1">
+    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -7046,7 +7091,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1">
+    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -7062,7 +7107,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1">
+    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -7078,7 +7123,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1">
+    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -7094,7 +7139,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1">
+    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -7110,7 +7155,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1">
+    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -7126,7 +7171,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1">
+    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -7142,7 +7187,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1">
+    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -7158,7 +7203,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1">
+    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -7174,7 +7219,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1">
+    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -7190,7 +7235,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1">
+    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -7206,7 +7251,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1">
+    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -7222,7 +7267,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1">
+    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -7238,7 +7283,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1">
+    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -7254,7 +7299,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1">
+    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -7270,7 +7315,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1">
+    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -7286,7 +7331,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1">
+    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -7302,7 +7347,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1">
+    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -7318,7 +7363,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1">
+    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -7334,7 +7379,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1">
+    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -7350,7 +7395,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1">
+    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -7366,7 +7411,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1">
+    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -7382,7 +7427,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1">
+    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -7398,7 +7443,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1">
+    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -7414,7 +7459,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1">
+    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -7430,7 +7475,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1">
+    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -7446,7 +7491,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1">
+    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -7462,7 +7507,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1">
+    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -7478,7 +7523,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1">
+    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -7494,7 +7539,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1">
+    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -7510,7 +7555,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1">
+    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -7526,7 +7571,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1">
+    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -7542,7 +7587,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1">
+    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -7558,7 +7603,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1">
+    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -7574,7 +7619,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1">
+    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -7590,7 +7635,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1">
+    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -7606,7 +7651,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1">
+    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -7622,7 +7667,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1">
+    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -7638,7 +7683,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1">
+    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -7654,7 +7699,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1">
+    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -7670,7 +7715,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1">
+    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -7686,7 +7731,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1">
+    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -7702,7 +7747,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1">
+    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -7718,7 +7763,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1">
+    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -7734,7 +7779,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1">
+    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -7750,7 +7795,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1">
+    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -7766,7 +7811,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1">
+    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -7782,7 +7827,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1">
+    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -7798,7 +7843,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1">
+    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -7814,7 +7859,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1">
+    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -7830,7 +7875,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1">
+    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -7846,7 +7891,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1">
+    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -7862,7 +7907,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1">
+    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -7878,7 +7923,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1">
+    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -7894,7 +7939,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1">
+    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -7910,7 +7955,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1">
+    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -7926,7 +7971,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1">
+    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -7942,7 +7987,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1">
+    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -7958,7 +8003,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1">
+    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -7974,7 +8019,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1">
+    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -7990,7 +8035,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1">
+    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -8006,7 +8051,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1">
+    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -8022,7 +8067,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1">
+    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -8038,7 +8083,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1">
+    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -8054,7 +8099,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1">
+    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -8070,7 +8115,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1">
+    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -8086,7 +8131,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1">
+    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -8102,7 +8147,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1">
+    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -8118,7 +8163,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1">
+    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -8134,7 +8179,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1">
+    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -8150,7 +8195,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1">
+    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -8166,7 +8211,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1">
+    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -8182,7 +8227,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1">
+    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -8198,7 +8243,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1">
+    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -8214,7 +8259,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1">
+    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -8230,7 +8275,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>367</v>
       </c>
@@ -8238,7 +8283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="4:6">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>393</v>
       </c>
@@ -8246,7 +8291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="242" spans="4:6">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>392</v>
       </c>
@@ -8254,7 +8299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="243" spans="4:6">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>374</v>
       </c>
@@ -8262,7 +8307,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="244" spans="4:6">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>370</v>
       </c>
@@ -8270,7 +8315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="245" spans="4:6">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>376</v>
       </c>
@@ -8278,7 +8323,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="4:6">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>368</v>
       </c>
@@ -8286,7 +8331,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="247" spans="4:6">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>407</v>
       </c>
@@ -8294,7 +8339,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="248" spans="4:6">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>373</v>
       </c>
@@ -8302,7 +8347,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="249" spans="4:6">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>389</v>
       </c>
@@ -8310,7 +8355,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="250" spans="4:6">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>409</v>
       </c>
@@ -8318,202 +8363,202 @@
         <v>167</v>
       </c>
     </row>
-    <row r="251" spans="4:6">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="252" spans="4:6">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="253" spans="4:6">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="4:6">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="255" spans="4:6">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="256" spans="4:6">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="289" spans="4:4">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="290" spans="4:4">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>377</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="443">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -420,33 +415,12 @@
     <t>OEM / GAMESA / ACCIONA / NORDEX / ENVISION / GOLDWIND / GE / ENERCON / SENVION / SIEMENS / SUZION</t>
   </si>
   <si>
-    <t>TABLE: JOBS</t>
-  </si>
-  <si>
-    <t>JOB #</t>
-  </si>
-  <si>
-    <t>REPIT JOBS</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>PO DATE</t>
-  </si>
-  <si>
     <t>TABLE: CONTRACT</t>
   </si>
   <si>
-    <t>CONTRACT</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>OC CLIENTE</t>
-  </si>
-  <si>
     <t>FECHA DEL CONTRATO</t>
   </si>
   <si>
@@ -1275,20 +1249,119 @@
     <t>PlatformName</t>
   </si>
   <si>
-    <t>TOOL LIST</t>
-  </si>
-  <si>
     <t>quoteslist</t>
+  </si>
+  <si>
+    <t>CONTRACT (JOB #)</t>
+  </si>
+  <si>
+    <t>COMENTARIOS DEL CONTRATO</t>
+  </si>
+  <si>
+    <t>FECHA PROMESA</t>
+  </si>
+  <si>
+    <t>STAR DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>FECHA DE INICIO</t>
+  </si>
+  <si>
+    <t>PO #</t>
+  </si>
+  <si>
+    <t>Autonumber</t>
+  </si>
+  <si>
+    <t>PO Client</t>
+  </si>
+  <si>
+    <t>PO del Cliente</t>
+  </si>
+  <si>
+    <t>PO Client File</t>
+  </si>
+  <si>
+    <t>Imagen del PO Client</t>
+  </si>
+  <si>
+    <t>COMENTARIOS DEL PO</t>
+  </si>
+  <si>
+    <t>FIELD OPERATIONS</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>TABLE: PURCHASE ORDERS</t>
+  </si>
+  <si>
+    <t>FIELD SUPERVISOR</t>
+  </si>
+  <si>
+    <t>SUPERVISAR DE OBRA</t>
+  </si>
+  <si>
+    <t>AGREGAR TECNICO A PO</t>
+  </si>
+  <si>
+    <t>TABLE: FIELD OPERATIONS TECHS</t>
+  </si>
+  <si>
+    <t>PER DIEM ADVANCE</t>
+  </si>
+  <si>
+    <t>7 / 14</t>
+  </si>
+  <si>
+    <t>TECH  APPROVAL</t>
+  </si>
+  <si>
+    <t>YES / NO</t>
+  </si>
+  <si>
+    <t>TECH APPROVAL ADV</t>
+  </si>
+  <si>
+    <t>PO ASIGNED</t>
+  </si>
+  <si>
+    <t>BANCH / IN FIELD</t>
+  </si>
+  <si>
+    <t>DATA FLIGHT</t>
+  </si>
+  <si>
+    <t>ARCHIVO PDF DE LA RESERVACION</t>
+  </si>
+  <si>
+    <t>COST FLIGHT</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>COSTO DEL BOLETO DE AVION</t>
+  </si>
+  <si>
+    <t>CERTIFICATES STATUS</t>
+  </si>
+  <si>
+    <t>YES / NO (ENVIADAS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,9 +1646,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1588,17 +1661,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1611,6 +1683,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1649,7 +1726,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1781,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1836,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1889,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1942,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1995,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,6 +2005,165 @@
         <a:xfrm>
           <a:off x="14287500" y="1047750"/>
           <a:ext cx="500063" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20347781" y="869157"/>
+          <a:ext cx="904875" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45244</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20381119" y="1081088"/>
+          <a:ext cx="904875" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25738931" y="878682"/>
+          <a:ext cx="597694" cy="2381"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1999,7 +2235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2031,27 +2267,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2083,24 +2301,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2276,12 +2476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2307,16 +2509,24 @@
     <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5703125" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" customWidth="1"/>
-    <col min="28" max="28" width="40" customWidth="1"/>
-    <col min="29" max="29" width="24.28515625" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" customWidth="1"/>
+    <col min="33" max="33" width="19" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="34.7109375" customWidth="1"/>
+    <col min="36" max="36" width="4.7109375" customWidth="1"/>
+    <col min="37" max="37" width="4.140625" customWidth="1"/>
+    <col min="38" max="38" width="19.5703125" customWidth="1"/>
+    <col min="39" max="39" width="13" customWidth="1"/>
+    <col min="40" max="40" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2343,8 +2553,12 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2"/>
+      <c r="AG1" s="33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2375,8 +2589,9 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2412,21 +2627,26 @@
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="2"/>
-      <c r="AI3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="2"/>
+      <c r="AG3" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2482,37 +2702,42 @@
       <c r="Y4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="5" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AG4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AN4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AM4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -2564,35 +2789,38 @@
         <v>20</v>
       </c>
       <c r="Y5" s="8"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AI5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AE5" s="2"/>
+      <c r="AG5" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO5" s="1"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="32"/>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -2638,33 +2866,38 @@
         <v>20</v>
       </c>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="2"/>
+      <c r="AG6" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD6" s="2"/>
-      <c r="AI6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AM6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -2712,29 +2945,40 @@
         <v>18</v>
       </c>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="2"/>
-      <c r="AI7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AM7" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO7" s="1"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="2"/>
+      <c r="AG7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -2784,17 +3028,38 @@
         <v>18</v>
       </c>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AG8" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -2838,19 +3103,38 @@
         <v>20</v>
       </c>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AG9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN9" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -2894,19 +3178,38 @@
         <v>20</v>
       </c>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD10" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AG10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI10" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -2950,13 +3253,32 @@
         <v>18</v>
       </c>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE11" s="2"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AL11" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -2998,11 +3320,30 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AB12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AL12" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3049,8 +3390,18 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE13" s="2"/>
+      <c r="AL13" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3097,8 +3448,9 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3141,8 +3493,9 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3185,8 +3538,9 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3227,8 +3581,9 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3263,8 +3618,9 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3299,8 +3655,9 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3335,8 +3692,9 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE20" s="2"/>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3373,8 +3731,9 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE21" s="2"/>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3411,8 +3770,9 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE22" s="2"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3449,8 +3809,9 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3487,8 +3848,9 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3519,8 +3881,9 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE25" s="2"/>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3551,8 +3914,9 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="2"/>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3583,8 +3947,9 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE27" s="2"/>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3615,8 +3980,9 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="2"/>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3647,8 +4013,9 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="2"/>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3679,8 +4046,9 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="2"/>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3711,8 +4079,9 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="2"/>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3743,8 +4112,9 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE32" s="2"/>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3767,13 +4137,13 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE33" s="2"/>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -3809,8 +4179,9 @@
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -3866,14 +4237,13 @@
       <c r="Y35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AB35" s="30" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z35" s="29"/>
+      <c r="AC35" s="29"/>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
@@ -3926,8 +4296,9 @@
       <c r="Y36" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z36" s="30"/>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -3981,8 +4352,9 @@
       <c r="Y37" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z37" s="30"/>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -4009,7 +4381,7 @@
         <v>81</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>118</v>
@@ -4036,8 +4408,9 @@
       <c r="Y38" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z38" s="30"/>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -4061,13 +4434,13 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -4091,8 +4464,9 @@
       <c r="Y39" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z39" s="30"/>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -4116,13 +4490,13 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -4146,11 +4520,12 @@
       <c r="Y40" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z40" s="30"/>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
@@ -4162,7 +4537,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>18</v>
@@ -4175,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -4205,11 +4580,12 @@
       <c r="Y41" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z41" s="30"/>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
@@ -4235,13 +4611,13 @@
         <v>2</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -4257,7 +4633,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -4280,13 +4656,13 @@
         <v>3</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -4302,10 +4678,10 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
@@ -4325,13 +4701,13 @@
         <v>4</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -4347,7 +4723,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -4370,13 +4746,13 @@
         <v>5</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -4392,7 +4768,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -4415,13 +4791,13 @@
         <v>6</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -4437,7 +4813,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -4460,13 +4836,13 @@
         <v>7</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -4482,7 +4858,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -4505,13 +4881,13 @@
         <v>8</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -4527,7 +4903,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -4548,13 +4924,13 @@
         <v>9</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -4570,7 +4946,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -4613,7 +4989,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -4647,7 +5023,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -4684,7 +5060,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -4715,7 +5091,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -4748,7 +5124,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -4776,7 +5152,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -4804,7 +5180,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -4832,7 +5208,16 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
+      <c r="B58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="M58" s="8" t="s">
         <v>109</v>
       </c>
@@ -4843,7 +5228,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
+      <c r="B59" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1"/>
       <c r="M59" s="8" t="s">
         <v>109</v>
       </c>
@@ -4854,7 +5246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -4867,8 +5259,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4878,15 +5270,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -4897,7 +5289,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -4913,11 +5305,11 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="4:13">
+      <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="13" t="str">
+      <c r="E3" s="12" t="str">
         <f>D$3 &amp; ": OEM SUPPORT"</f>
         <v>SERVICES: OEM SUPPORT</v>
       </c>
@@ -4929,11 +5321,11 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="4:13">
+      <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="13" t="str">
+      <c r="E4" s="12" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE CONVERTER"</f>
         <v>SERVICES: LARGE CORRECTIVE CONVERTER</v>
       </c>
@@ -4946,11 +5338,11 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
+    <row r="5" spans="4:13">
+      <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="12" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE GEARBOX"</f>
         <v>SERVICES: LARGE CORRECTIVE GEARBOX</v>
       </c>
@@ -4963,11 +5355,11 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="13" t="s">
+    <row r="6" spans="4:13">
+      <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="12" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE GENERATOR"</f>
         <v>SERVICES: LARGE CORRECTIVE GENERATOR</v>
       </c>
@@ -4980,11 +5372,11 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="4:13">
+      <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="E7" s="12" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE TRANSFORMER"</f>
         <v>SERVICES: LARGE CORRECTIVE TRANSFORMER</v>
       </c>
@@ -4997,11 +5389,11 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="13" t="s">
+    <row r="8" spans="4:13">
+      <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="13" t="str">
+      <c r="E8" s="12" t="str">
         <f>D$3 &amp; ": LARGE CORRECTIVE OPEN"</f>
         <v>SERVICES: LARGE CORRECTIVE OPEN</v>
       </c>
@@ -5014,11 +5406,11 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="13" t="s">
+    <row r="9" spans="4:13">
+      <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="13" t="str">
+      <c r="E9" s="12" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 3 MONTH"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE 3 MONTH</v>
       </c>
@@ -5031,11 +5423,11 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="13" t="s">
+    <row r="10" spans="4:13">
+      <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="12" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 6 MONTH"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE 6 MONTH</v>
       </c>
@@ -5048,11 +5440,11 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="13" t="s">
+    <row r="11" spans="4:13">
+      <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="12" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE 12 MONTH"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE 12 MONTH</v>
       </c>
@@ -5065,11 +5457,11 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="13" t="s">
+    <row r="12" spans="4:13">
+      <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="12" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE TRANSFORMER"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE TRANSFORMER</v>
       </c>
@@ -5082,11 +5474,11 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="13" t="s">
+    <row r="13" spans="4:13">
+      <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="13" t="str">
+      <c r="E13" s="12" t="str">
         <f>D$3 &amp; ": PREVENTIVE MAINTENANCE OPEN"</f>
         <v>SERVICES: PREVENTIVE MAINTENANCE OPEN</v>
       </c>
@@ -5099,11 +5491,11 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="13" t="s">
+    <row r="14" spans="4:13">
+      <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="12" t="str">
         <f>D$3 &amp; ":DESIGN MODIFICATION"</f>
         <v>SERVICES:DESIGN MODIFICATION</v>
       </c>
@@ -5116,11 +5508,11 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="13" t="s">
+    <row r="15" spans="4:13">
+      <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="13" t="str">
+      <c r="E15" s="12" t="str">
         <f>D$3 &amp; ":INSPECTION"</f>
         <v>SERVICES:INSPECTION</v>
       </c>
@@ -5133,11 +5525,11 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="4:13">
+      <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="13" t="str">
+      <c r="E16" s="12" t="str">
         <f>D$3 &amp; ":OPEN"</f>
         <v>SERVICES:OPEN</v>
       </c>
@@ -5150,11 +5542,11 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
+    <row r="17" spans="4:13">
+      <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="14" t="str">
+      <c r="E17" s="13" t="str">
         <f>D$17 &amp; ":TECHNICAL ADVISORS"</f>
         <v>CONSTRUCT:TECHNICAL ADVISORS</v>
       </c>
@@ -5167,11 +5559,11 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="s">
+    <row r="18" spans="4:13">
+      <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="14" t="str">
+      <c r="E18" s="13" t="str">
         <f>D$17 &amp; ": QA / QC"</f>
         <v>CONSTRUCT: QA / QC</v>
       </c>
@@ -5184,11 +5576,11 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="14" t="s">
+    <row r="19" spans="4:13">
+      <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="14" t="str">
+      <c r="E19" s="13" t="str">
         <f>D$17 &amp; ":  BLADE"</f>
         <v>CONSTRUCT:  BLADE</v>
       </c>
@@ -5201,11 +5593,11 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="s">
+    <row r="20" spans="4:13">
+      <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="14" t="str">
+      <c r="E20" s="13" t="str">
         <f>D$17 &amp; ":  NCR"</f>
         <v>CONSTRUCT:  NCR</v>
       </c>
@@ -5218,11 +5610,11 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="s">
+    <row r="21" spans="4:13">
+      <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="14" t="str">
+      <c r="E21" s="13" t="str">
         <f>D$17 &amp; ": LOGISTICS"</f>
         <v>CONSTRUCT: LOGISTICS</v>
       </c>
@@ -5235,3021 +5627,3021 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="14" t="s">
+    <row r="22" spans="4:13">
+      <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="14" t="str">
+      <c r="E22" s="13" t="str">
         <f>D$17 &amp; ": COMMISION"</f>
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="14" t="s">
+    <row r="23" spans="4:13">
+      <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="14" t="str">
+      <c r="E23" s="13" t="str">
         <f>D$17 &amp; ": OPEN"</f>
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="15" t="s">
-        <v>156</v>
+    <row r="26" spans="4:13">
+      <c r="D26" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" ht="24.75" thickBot="1">
+      <c r="D43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11">
+      <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+      <c r="E44" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11">
+      <c r="D45" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11">
+      <c r="D46" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K42" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="27" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="4:11">
+      <c r="D47" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="4:11">
+      <c r="D48" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="17" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="21">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="D49" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="21">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="D50" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="21" t="s">
+      <c r="E51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="21" t="s">
+      <c r="E53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="22">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="21" t="s">
+      <c r="E54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="22">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="21" t="s">
+      <c r="E55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="21" t="s">
+      <c r="E56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+      <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="21" t="s">
+      <c r="E57" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="60" spans="3:7">
       <c r="C60" t="s">
-        <v>412</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="29">
+        <v>405</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" hidden="1">
+      <c r="C61" s="28">
         <v>1</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>208</v>
+      <c r="D61" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="G61" t="str">
         <f>"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D61&amp;"', '"&amp;E61&amp;"');"</f>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="29">
+    <row r="62" spans="3:7" hidden="1">
+      <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
       </c>
-      <c r="D62" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>287</v>
+      <c r="D62" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" ref="G62:G125" si="0">"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D62&amp;"', '"&amp;E62&amp;"');"</f>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="29">
+    <row r="63" spans="3:7" hidden="1">
+      <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>269</v>
+      <c r="D63" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="29">
+    <row r="64" spans="3:7" hidden="1">
+      <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>289</v>
+      <c r="D64" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="29">
+    <row r="65" spans="3:7" hidden="1">
+      <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D65" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>312</v>
+      <c r="D65" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="29">
+    <row r="66" spans="3:7" hidden="1">
+      <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D66" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>350</v>
+      <c r="D66" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="29">
+    <row r="67" spans="3:7" hidden="1">
+      <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D67" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>267</v>
+      <c r="D67" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="29">
+    <row r="68" spans="3:7" hidden="1">
+      <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D68" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>223</v>
+      <c r="D68" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="29">
+    <row r="69" spans="3:7" hidden="1">
+      <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>262</v>
+      <c r="D69" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="29">
+    <row r="70" spans="3:7" hidden="1">
+      <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D70" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>212</v>
+      <c r="D70" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="29">
+    <row r="71" spans="3:7" hidden="1">
+      <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D71" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>325</v>
+      <c r="D71" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="29">
+    <row r="72" spans="3:7" hidden="1">
+      <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D72" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>227</v>
+      <c r="D72" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="29">
+    <row r="73" spans="3:7">
+      <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D73" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>210</v>
+      <c r="D73" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="29">
+    <row r="74" spans="3:7" hidden="1">
+      <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D74" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>331</v>
+      <c r="D74" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>324</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="29">
+    <row r="75" spans="3:7" hidden="1">
+      <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D75" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>219</v>
+      <c r="D75" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>212</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="29">
+    <row r="76" spans="3:7" hidden="1">
+      <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>222</v>
+      <c r="D76" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="29">
+    <row r="77" spans="3:7" hidden="1">
+      <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D77" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>322</v>
+      <c r="D77" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>315</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="29">
+    <row r="78" spans="3:7" hidden="1">
+      <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D78" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>254</v>
+      <c r="D78" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="29">
+    <row r="79" spans="3:7" hidden="1">
+      <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D79" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>336</v>
+      <c r="D79" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="29">
+    <row r="80" spans="3:7" hidden="1">
+      <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D80" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>344</v>
+      <c r="D80" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>337</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="29">
+    <row r="81" spans="3:7" hidden="1">
+      <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D81" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>357</v>
+      <c r="D81" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="29">
+    <row r="82" spans="3:7" hidden="1">
+      <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D82" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>244</v>
+      <c r="D82" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="29">
+    <row r="83" spans="3:7" hidden="1">
+      <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>246</v>
+      <c r="D83" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="29">
+    <row r="84" spans="3:7" hidden="1">
+      <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D84" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>191</v>
+      <c r="D84" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="29">
+    <row r="85" spans="3:7" hidden="1">
+      <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D85" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>192</v>
+      <c r="D85" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="29">
+    <row r="86" spans="3:7" hidden="1">
+      <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D86" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>275</v>
+      <c r="D86" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="29">
+    <row r="87" spans="3:7" hidden="1">
+      <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>242</v>
+      <c r="D87" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="29">
+    <row r="88" spans="3:7" hidden="1">
+      <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>358</v>
+      <c r="D88" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="29">
+    <row r="89" spans="3:7" hidden="1">
+      <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>276</v>
+      <c r="D89" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="29">
+    <row r="90" spans="3:7" hidden="1">
+      <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D90" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>277</v>
+      <c r="D90" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="29">
+    <row r="91" spans="3:7" hidden="1">
+      <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D91" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>299</v>
+      <c r="D91" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>292</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="29">
+    <row r="92" spans="3:7" hidden="1">
+      <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D92" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>240</v>
+      <c r="D92" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="29">
+    <row r="93" spans="3:7" hidden="1">
+      <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D93" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>245</v>
+      <c r="D93" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="29">
+    <row r="94" spans="3:7" hidden="1">
+      <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D94" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>261</v>
+      <c r="D94" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>254</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="29">
+    <row r="95" spans="3:7" hidden="1">
+      <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D95" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>293</v>
+      <c r="D95" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="29">
+    <row r="96" spans="3:7" hidden="1">
+      <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>213</v>
+      <c r="D96" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="29">
+    <row r="97" spans="3:7" hidden="1">
+      <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D97" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>216</v>
+      <c r="D97" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="29">
+    <row r="98" spans="3:7" hidden="1">
+      <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>225</v>
+      <c r="D98" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="29">
+    <row r="99" spans="3:7" hidden="1">
+      <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="D99" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>236</v>
+      <c r="D99" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="29">
+    <row r="100" spans="3:7" hidden="1">
+      <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D100" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>237</v>
+      <c r="D100" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="29">
+    <row r="101" spans="3:7" hidden="1">
+      <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>268</v>
+      <c r="D101" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>261</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="29">
+    <row r="102" spans="3:7" hidden="1">
+      <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>320</v>
+      <c r="D102" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>313</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="29">
+    <row r="103" spans="3:7" hidden="1">
+      <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D103" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>342</v>
+      <c r="D103" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="29">
+    <row r="104" spans="3:7">
+      <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D104" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>195</v>
+      <c r="D104" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="29">
+    <row r="105" spans="3:7">
+      <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D105" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>196</v>
+      <c r="D105" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="29">
+    <row r="106" spans="3:7">
+      <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D106" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>197</v>
+      <c r="D106" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="29">
+    <row r="107" spans="3:7">
+      <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D107" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>207</v>
+      <c r="D107" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="29">
+    <row r="108" spans="3:7">
+      <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D108" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>217</v>
+      <c r="D108" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="29">
+    <row r="109" spans="3:7">
+      <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D109" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>259</v>
+      <c r="D109" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>252</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="29">
+    <row r="110" spans="3:7">
+      <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D110" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>290</v>
+      <c r="D110" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>283</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="29">
+    <row r="111" spans="3:7">
+      <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D111" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>292</v>
+      <c r="D111" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>285</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="29">
+    <row r="112" spans="3:7">
+      <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>301</v>
+      <c r="D112" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="29">
+    <row r="113" spans="3:7">
+      <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="D113" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>303</v>
+      <c r="D113" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>296</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="29">
+    <row r="114" spans="3:7">
+      <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="D114" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>306</v>
+      <c r="D114" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="29">
+    <row r="115" spans="3:7">
+      <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D115" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>309</v>
+      <c r="D115" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>302</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="29">
+    <row r="116" spans="3:7">
+      <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="D116" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>321</v>
+      <c r="D116" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="29">
+    <row r="117" spans="3:7">
+      <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D117" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>323</v>
+      <c r="D117" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="29">
+    <row r="118" spans="3:7">
+      <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="D118" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>326</v>
+      <c r="D118" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>319</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="29">
+    <row r="119" spans="3:7">
+      <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="D119" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>330</v>
+      <c r="D119" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>323</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="29">
+    <row r="120" spans="3:7">
+      <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D120" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>334</v>
+      <c r="D120" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="29">
+    <row r="121" spans="3:7">
+      <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D121" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>341</v>
+      <c r="D121" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="29">
+    <row r="122" spans="3:7">
+      <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="D122" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>343</v>
+      <c r="D122" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>336</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="29">
+    <row r="123" spans="3:7">
+      <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="D123" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>359</v>
+      <c r="D123" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="29">
+    <row r="124" spans="3:7" hidden="1">
+      <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="D124" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>232</v>
+      <c r="D124" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="29">
+    <row r="125" spans="3:7" hidden="1">
+      <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D125" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>264</v>
+      <c r="D125" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>257</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="29">
+    <row r="126" spans="3:7" hidden="1">
+      <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D126" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>302</v>
+      <c r="D126" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>295</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" ref="G126:G189" si="2">"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D126&amp;"', '"&amp;E126&amp;"');"</f>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="29">
+    <row r="127" spans="3:7" hidden="1">
+      <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>304</v>
+      <c r="D127" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>297</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="29">
+    <row r="128" spans="3:7" hidden="1">
+      <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="D128" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>278</v>
+      <c r="D128" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="29">
+    <row r="129" spans="3:7" hidden="1">
+      <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="D129" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>300</v>
+      <c r="D129" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>293</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="29">
+    <row r="130" spans="3:7" hidden="1">
+      <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>288</v>
+      <c r="D130" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="29">
+    <row r="131" spans="3:7" hidden="1">
+      <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="D131" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>249</v>
+      <c r="D131" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="29">
+    <row r="132" spans="3:7" hidden="1">
+      <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="D132" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>339</v>
+      <c r="D132" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>332</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="29">
+    <row r="133" spans="3:7" hidden="1">
+      <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="D133" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>260</v>
+      <c r="D133" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>253</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="29">
+    <row r="134" spans="3:7" hidden="1">
+      <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="D134" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>199</v>
+      <c r="D134" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="29">
+    <row r="135" spans="3:7" hidden="1">
+      <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="D135" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>206</v>
+      <c r="D135" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="29">
+    <row r="136" spans="3:7" hidden="1">
+      <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="D136" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>266</v>
+      <c r="D136" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="29">
+    <row r="137" spans="3:7" hidden="1">
+      <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="D137" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>307</v>
+      <c r="D137" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>300</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="29">
+    <row r="138" spans="3:7" hidden="1">
+      <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="D138" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>316</v>
+      <c r="D138" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="29">
+    <row r="139" spans="3:7" hidden="1">
+      <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="D139" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>348</v>
+      <c r="D139" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="29">
+    <row r="140" spans="3:7" hidden="1">
+      <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="D140" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>351</v>
+      <c r="D140" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="29">
+    <row r="141" spans="3:7" hidden="1">
+      <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="D141" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E141" s="29" t="s">
-        <v>352</v>
+      <c r="D141" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>345</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="29">
+    <row r="142" spans="3:7" hidden="1">
+      <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="D142" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>198</v>
+      <c r="D142" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="29">
+    <row r="143" spans="3:7" hidden="1">
+      <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="D143" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>230</v>
+      <c r="D143" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="29">
+    <row r="144" spans="3:7" hidden="1">
+      <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="D144" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>257</v>
+      <c r="D144" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>250</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="29">
+    <row r="145" spans="3:7" hidden="1">
+      <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="D145" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>296</v>
+      <c r="D145" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="29">
+    <row r="146" spans="3:7" hidden="1">
+      <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="D146" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>317</v>
+      <c r="D146" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="29">
+    <row r="147" spans="3:7" hidden="1">
+      <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="D147" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>329</v>
+      <c r="D147" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="29">
+    <row r="148" spans="3:7" hidden="1">
+      <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="D148" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E148" s="29" t="s">
-        <v>335</v>
+      <c r="D148" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="29">
+    <row r="149" spans="3:7" hidden="1">
+      <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="D149" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>337</v>
+      <c r="D149" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E149" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="29">
+    <row r="150" spans="3:7" hidden="1">
+      <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="D150" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>279</v>
+      <c r="D150" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="29">
+    <row r="151" spans="3:7" hidden="1">
+      <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="D151" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="E151" s="29" t="s">
-        <v>280</v>
+      <c r="D151" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="29">
+    <row r="152" spans="3:7" hidden="1">
+      <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="D152" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="E152" s="29" t="s">
-        <v>281</v>
+      <c r="D152" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E152" s="28" t="s">
+        <v>274</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" hidden="1">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="D153" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E153" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" hidden="1">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="D154" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E154" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" hidden="1">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="D155" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E155" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" hidden="1">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="D156" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E156" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" hidden="1">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="D157" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E157" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" hidden="1">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="D158" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E158" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" hidden="1">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="D159" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" hidden="1">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D160" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" hidden="1">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="D161" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E161" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" hidden="1">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="D162" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E162" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" hidden="1">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="D163" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E163" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" hidden="1">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="D164" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E164" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" hidden="1">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="D165" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" hidden="1">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="D166" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" hidden="1">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="D167" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E167" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" hidden="1">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="D168" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" hidden="1">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="D169" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E169" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" hidden="1">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="D170" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E170" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" hidden="1">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="D171" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E171" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" hidden="1">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="D172" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E172" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" hidden="1">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="D173" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E173" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" hidden="1">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="D174" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E174" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" hidden="1">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="D175" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E175" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" hidden="1">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="D176" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E176" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" hidden="1">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="D177" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E177" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" hidden="1">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="D178" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E178" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" hidden="1">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="D179" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E179" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" hidden="1">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="D180" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E180" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" hidden="1">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="D181" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E181" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" hidden="1">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="D182" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E182" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" hidden="1">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="D183" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" hidden="1">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="D184" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E184" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" hidden="1">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="D185" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E185" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" hidden="1">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="D186" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E186" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" hidden="1">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="D187" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E187" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" hidden="1">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="D188" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E188" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" hidden="1">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="D189" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E189" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" hidden="1">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="D190" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E190" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" ref="G190:G233" si="4">"INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('"&amp;D190&amp;"', '"&amp;E190&amp;"');"</f>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" hidden="1">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
       </c>
       <c r="D191" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E191" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" hidden="1">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="D192" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E192" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" hidden="1">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="D193" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E193" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" hidden="1">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="D194" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E194" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" hidden="1">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="D195" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E195" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" hidden="1">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="D196" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E196" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" hidden="1">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="D197" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E197" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" hidden="1">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="D198" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E198" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" hidden="1">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="D199" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E199" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" hidden="1">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="D200" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E200" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" hidden="1">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="D201" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E201" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" hidden="1">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="D202" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E202" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" hidden="1">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="D203" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E203" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" hidden="1">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="D204" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E204" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" hidden="1">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="D205" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E205" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" hidden="1">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="D206" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E206" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" hidden="1">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="D207" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E207" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" hidden="1">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="D208" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E208" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" hidden="1">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="D209" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E209" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" hidden="1">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="D210" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E210" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" hidden="1">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="D211" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E211" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" hidden="1">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="D212" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E212" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" hidden="1">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="D213" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E213" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" hidden="1">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="D214" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E214" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" hidden="1">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="D215" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E215" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" hidden="1">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="D216" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E216" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" hidden="1">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="D217" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E217" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" hidden="1">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="D218" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E218" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" hidden="1">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="D219" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E219" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" hidden="1">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="D220" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E220" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" hidden="1">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="D221" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E221" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" hidden="1">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="D222" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E222" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" hidden="1">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="D223" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E223" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" hidden="1">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="D224" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E224" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" hidden="1">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="D225" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E225" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" hidden="1">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="D226" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E226" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" hidden="1">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="D227" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E227" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" hidden="1">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="D228" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E228" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" hidden="1">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="D229" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E229" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" hidden="1">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="D230" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E230" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" hidden="1">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="D231" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E231" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" hidden="1">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="D232" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E232">
         <v>200</v>
@@ -8259,308 +8651,308 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" hidden="1">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="D233" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E233" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7">
       <c r="D240" t="s">
+        <v>360</v>
+      </c>
+      <c r="F240" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6">
+      <c r="D241" t="s">
+        <v>386</v>
+      </c>
+      <c r="F241" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6">
+      <c r="D242" t="s">
+        <v>385</v>
+      </c>
+      <c r="F242" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6">
+      <c r="D243" t="s">
         <v>367</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F243" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6">
+      <c r="D244" t="s">
+        <v>363</v>
+      </c>
+      <c r="F244" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6">
+      <c r="D245" t="s">
+        <v>369</v>
+      </c>
+      <c r="F245" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6">
+      <c r="D246" t="s">
+        <v>361</v>
+      </c>
+      <c r="F246" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6">
+      <c r="D247" t="s">
+        <v>400</v>
+      </c>
+      <c r="F247" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D241" t="s">
+    <row r="248" spans="4:6">
+      <c r="D248" t="s">
+        <v>366</v>
+      </c>
+      <c r="F248" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6">
+      <c r="D249" t="s">
+        <v>382</v>
+      </c>
+      <c r="F249" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6">
+      <c r="D250" t="s">
+        <v>402</v>
+      </c>
+      <c r="F250" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6">
+      <c r="D251" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6">
+      <c r="D252" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6">
+      <c r="D253" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6">
+      <c r="D254" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6">
+      <c r="D255" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6">
+      <c r="D256" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4">
+      <c r="D264" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4">
+      <c r="D271" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" t="s">
         <v>393</v>
       </c>
-      <c r="F241" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D242" t="s">
-        <v>392</v>
-      </c>
-      <c r="F242" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D243" t="s">
-        <v>374</v>
-      </c>
-      <c r="F243" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D244" t="s">
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4">
+      <c r="D284" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4">
+      <c r="D285" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4">
+      <c r="D286" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4">
+      <c r="D287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4">
+      <c r="D288" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4">
+      <c r="D289" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4">
+      <c r="D290" t="s">
         <v>370</v>
-      </c>
-      <c r="F244" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D245" t="s">
-        <v>376</v>
-      </c>
-      <c r="F245" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D246" t="s">
-        <v>368</v>
-      </c>
-      <c r="F246" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D247" t="s">
-        <v>407</v>
-      </c>
-      <c r="F247" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D248" t="s">
-        <v>373</v>
-      </c>
-      <c r="F248" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D249" t="s">
-        <v>389</v>
-      </c>
-      <c r="F249" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D250" t="s">
-        <v>409</v>
-      </c>
-      <c r="F250" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D251" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D252" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D253" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D254" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D255" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D256" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D258" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D259" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D260" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D261" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D262" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D263" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D264" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D265" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D266" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D267" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D268" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D271" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D272" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D273" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D274" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D275" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D278" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D279" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D280" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D282" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D283" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D284" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D285" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D286" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D287" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D288" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D289" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D290" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="446">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1294,18 +1294,12 @@
     <t>FIELD OPERATIONS</t>
   </si>
   <si>
-    <t>USER</t>
-  </si>
-  <si>
     <t>TABLE: PURCHASE ORDERS</t>
   </si>
   <si>
     <t>FIELD SUPERVISOR</t>
   </si>
   <si>
-    <t>SUPERVISAR DE OBRA</t>
-  </si>
-  <si>
     <t>AGREGAR TECNICO A PO</t>
   </si>
   <si>
@@ -1321,9 +1315,6 @@
     <t>TECH  APPROVAL</t>
   </si>
   <si>
-    <t>YES / NO</t>
-  </si>
-  <si>
     <t>TECH APPROVAL ADV</t>
   </si>
   <si>
@@ -1352,6 +1343,24 @@
   </si>
   <si>
     <t>YES / NO (ENVIADAS)</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>SUPERVISAR DE OBRA (usuarios)</t>
+  </si>
+  <si>
+    <t>YES / NO (Field Ops Manager)</t>
+  </si>
+  <si>
+    <t>YES / NO (BENTON MORE)</t>
+  </si>
+  <si>
+    <t>PLANING / IN PROCESS / COMPLETED</t>
+  </si>
+  <si>
+    <t>OPEN / CLOSED</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1427,12 @@
       <b/>
       <vertAlign val="subscript"/>
       <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1648,7 +1663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1684,10 +1699,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1726,7 +1742,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1797,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1852,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1905,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1958,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2011,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2064,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2117,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2170,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,6 +2179,59 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="25738931" y="878682"/>
+          <a:ext cx="597694" cy="2381"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>2305049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30880049" y="876301"/>
           <a:ext cx="597694" cy="2381"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2479,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2488,7 +2557,7 @@
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" customWidth="1"/>
@@ -2554,9 +2623,19 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
+      <c r="AF1" s="2"/>
       <c r="AG1" s="33" t="s">
         <v>422</v>
       </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2"/>
@@ -2590,6 +2669,17 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="2"/>
@@ -2635,16 +2725,21 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
+        <v>423</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
       <c r="AL3" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
+        <v>426</v>
+      </c>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="2"/>
@@ -2714,6 +2809,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2725,13 +2821,13 @@
       </c>
       <c r="AJ4" s="29"/>
       <c r="AK4" s="29"/>
-      <c r="AL4" s="5" t="s">
+      <c r="AL4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AM4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="34" t="s">
         <v>2</v>
       </c>
       <c r="AO4" s="29"/>
@@ -2801,6 +2897,7 @@
         <v>3</v>
       </c>
       <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="6" t="s">
         <v>409</v>
       </c>
@@ -2808,17 +2905,17 @@
         <v>20</v>
       </c>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="32"/>
+      <c r="AJ5" s="30"/>
       <c r="AK5" s="7"/>
-      <c r="AL5" s="6" t="s">
+      <c r="AL5" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AM5" s="6" t="s">
+      <c r="AM5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AN5" s="1"/>
+      <c r="AN5" s="32"/>
       <c r="AO5" s="7"/>
-      <c r="AP5" s="32"/>
+      <c r="AP5" s="30"/>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="2"/>
@@ -2876,6 +2973,7 @@
       </c>
       <c r="AD6" s="6"/>
       <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="6" t="s">
         <v>415</v>
       </c>
@@ -2885,15 +2983,17 @@
       <c r="AI6" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN6" s="6"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN6" s="31" t="s">
+        <v>425</v>
+      </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
     </row>
@@ -2955,6 +3055,7 @@
       </c>
       <c r="AD7" s="6"/>
       <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="6" t="s">
         <v>417</v>
       </c>
@@ -2964,19 +3065,19 @@
       <c r="AI7" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN7" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="2"/>
@@ -3040,6 +3141,7 @@
         <v>132</v>
       </c>
       <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
       <c r="AG8" s="6" t="s">
         <v>419</v>
       </c>
@@ -3049,15 +3151,19 @@
       <c r="AI8" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="AL8" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>432</v>
-      </c>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN8" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="2"/>
@@ -3105,16 +3211,17 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="6" t="s">
+      <c r="AB9" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="31" t="s">
         <v>414</v>
       </c>
       <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
       <c r="AG9" s="6" t="s">
         <v>2</v>
       </c>
@@ -3124,15 +3231,19 @@
       <c r="AI9" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="AL9" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN9" s="34" t="s">
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="31" t="s">
         <v>430</v>
       </c>
+      <c r="AM9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN9" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="2"/>
@@ -3180,34 +3291,39 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="6" t="s">
+      <c r="AB10" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="31" t="s">
         <v>131</v>
       </c>
       <c r="AD10" s="31" t="s">
         <v>411</v>
       </c>
       <c r="AE10" s="2"/>
-      <c r="AG10" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AH10" s="6" t="s">
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH10" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI10" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AI10" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>432</v>
-      </c>
+      <c r="AN10" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="2"/>
@@ -3265,18 +3381,29 @@
         <v>133</v>
       </c>
       <c r="AE11" s="2"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AL11" s="6" t="s">
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI11" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM11" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="AM11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN11" s="6" t="s">
+      <c r="AN11" s="31" t="s">
         <v>437</v>
       </c>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="2"/>
@@ -3330,18 +3457,23 @@
         <v>410</v>
       </c>
       <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
-      <c r="AL12" s="6" t="s">
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="AM12" s="6" t="s">
+      <c r="AM12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN12" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="AN12" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="2"/>
@@ -3387,19 +3519,27 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
+      <c r="AB13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>445</v>
+      </c>
       <c r="AE13" s="2"/>
-      <c r="AL13" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>442</v>
-      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="2"/>
@@ -3449,6 +3589,17 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="2"/>
@@ -3494,6 +3645,17 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="2"/>
@@ -3539,8 +3701,19 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3582,8 +3755,19 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3619,8 +3803,19 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3656,8 +3851,19 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3693,8 +3899,19 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3732,8 +3949,19 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3771,8 +3999,19 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3810,8 +4049,19 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3849,8 +4099,19 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3882,8 +4143,19 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3915,8 +4187,19 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3948,8 +4231,19 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3981,8 +4275,19 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4014,8 +4319,19 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4047,8 +4363,19 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4080,8 +4407,19 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4113,8 +4451,19 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4142,8 +4491,19 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -4181,7 +4541,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:42">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -4240,7 +4600,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:42">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -4298,7 +4658,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:42">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -4354,7 +4714,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:42">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -4410,7 +4770,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:42">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -4466,7 +4826,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:42">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -4522,7 +4882,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:42">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -4582,7 +4942,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:42">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -4633,7 +4993,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:42">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -4678,7 +5038,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:42">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -4723,7 +5083,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:42">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -4768,7 +5128,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:42">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -4813,7 +5173,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:42">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -4858,7 +5218,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:42">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5209,14 +5569,14 @@
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>435</v>
+      <c r="D58" s="32" t="s">
+        <v>432</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>109</v>
@@ -5229,13 +5589,13 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="B59" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="32"/>
       <c r="M59" s="8" t="s">
         <v>109</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -13,17 +18,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="449">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1361,16 +1362,25 @@
   </si>
   <si>
     <t>OPEN / CLOSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date auto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es necesario definir los perfiles y los niveles de acceso que tendra </t>
+  </si>
+  <si>
+    <t>cada uno.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,9 +1671,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1682,10 +1692,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1703,7 +1713,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1742,7 +1753,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1808,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1863,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1916,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1969,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2022,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2075,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,10 +2112,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
@@ -2117,7 +2128,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,8 +2136,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20381119" y="1081088"/>
-          <a:ext cx="904875" cy="154781"/>
+          <a:off x="17264062" y="952500"/>
+          <a:ext cx="4105276" cy="283369"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2170,7 +2181,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2234,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2336,9 +2347,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2370,6 +2399,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2545,14 +2592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2595,7 +2642,7 @@
     <col min="40" max="40" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2637,7 +2684,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2681,7 +2728,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2741,7 +2788,7 @@
       <c r="AO3" s="30"/>
       <c r="AP3" s="30"/>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2833,7 +2880,7 @@
       <c r="AO4" s="29"/>
       <c r="AP4" s="29"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -2917,7 +2964,7 @@
       <c r="AO5" s="7"/>
       <c r="AP5" s="30"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -2985,19 +3032,19 @@
       </c>
       <c r="AJ6" s="30"/>
       <c r="AK6" s="30"/>
-      <c r="AL6" s="31" t="s">
+      <c r="AL6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AM6" s="31" t="s">
+      <c r="AM6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AN6" s="31" t="s">
+      <c r="AN6" s="11" t="s">
         <v>425</v>
       </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3067,19 +3114,19 @@
       </c>
       <c r="AJ7" s="30"/>
       <c r="AK7" s="30"/>
-      <c r="AL7" s="31" t="s">
+      <c r="AL7" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="AM7" s="31" t="s">
+      <c r="AM7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="31" t="s">
+      <c r="AN7" s="11" t="s">
         <v>442</v>
       </c>
       <c r="AO7" s="30"/>
       <c r="AP7" s="30"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3153,19 +3200,19 @@
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="31" t="s">
+      <c r="AL8" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="AM8" s="31" t="s">
+      <c r="AM8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AN8" s="35" t="s">
+      <c r="AN8" s="36" t="s">
         <v>428</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3211,13 +3258,13 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="31" t="s">
+      <c r="AB9" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="AC9" s="31" t="s">
+      <c r="AC9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AD9" s="31" t="s">
+      <c r="AD9" s="11" t="s">
         <v>414</v>
       </c>
       <c r="AE9" s="2"/>
@@ -3233,19 +3280,19 @@
       </c>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="31" t="s">
+      <c r="AL9" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="AM9" s="31" t="s">
+      <c r="AM9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AN9" s="31" t="s">
+      <c r="AN9" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3291,41 +3338,41 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="31" t="s">
+      <c r="AB10" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="AC10" s="31" t="s">
+      <c r="AC10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AD10" s="31" t="s">
+      <c r="AD10" s="11" t="s">
         <v>411</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="AH10" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="AI10" s="31" t="s">
-        <v>441</v>
+      <c r="AG10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-      <c r="AL10" s="31" t="s">
+      <c r="AL10" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="AM10" s="31" t="s">
+      <c r="AM10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AN10" s="31" t="s">
+      <c r="AN10" s="11" t="s">
         <v>434</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3382,30 +3429,30 @@
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI11" s="31" t="s">
-        <v>444</v>
+      <c r="AG11" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="31" t="s">
+      <c r="AL11" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="AM11" s="31" t="s">
+      <c r="AM11" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="AN11" s="31" t="s">
+      <c r="AN11" s="11" t="s">
         <v>437</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3447,35 +3494,41 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="6" t="s">
+      <c r="AB12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="11" t="s">
         <v>410</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
+      <c r="AG12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>444</v>
+      </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="31" t="s">
+      <c r="AL12" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="AM12" s="31" t="s">
+      <c r="AM12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AN12" s="31" t="s">
+      <c r="AN12" s="11" t="s">
         <v>439</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3519,13 +3572,13 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="8" t="s">
+      <c r="AB13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AD13" s="35" t="s">
         <v>445</v>
       </c>
       <c r="AE13" s="2"/>
@@ -3541,7 +3594,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3601,7 +3654,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3657,7 +3710,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3707,13 +3760,15 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+      <c r="AL16" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3761,13 +3816,15 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
+      <c r="AL17" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3815,7 +3872,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3863,7 +3920,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3911,7 +3968,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3961,7 +4018,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4011,7 +4068,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4061,7 +4118,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4111,7 +4168,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4155,7 +4212,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4199,7 +4256,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4243,7 +4300,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4287,7 +4344,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4331,7 +4388,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4375,7 +4432,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4419,7 +4476,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4463,7 +4520,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4503,7 +4560,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -4541,7 +4598,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -4600,7 +4657,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -4658,7 +4715,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -4714,7 +4771,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -4770,7 +4827,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -4826,7 +4883,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -4882,7 +4939,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -4942,7 +4999,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -4993,7 +5050,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -5038,7 +5095,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -5083,7 +5140,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -5128,7 +5185,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -5173,7 +5230,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -5218,7 +5275,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5263,7 +5320,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -5306,7 +5363,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -5349,7 +5406,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5383,7 +5440,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -5420,7 +5477,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -5451,7 +5508,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5484,7 +5541,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -5512,7 +5569,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -5540,7 +5597,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -5568,7 +5625,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
@@ -5588,7 +5645,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>431</v>
       </c>
@@ -5606,7 +5663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -5621,24 +5678,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:M290"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -5649,7 +5701,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -5665,7 +5717,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="4:13">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -5681,7 +5733,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="4:13">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -5698,7 +5750,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="4:13">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -5715,7 +5767,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="4:13">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -5732,7 +5784,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -5749,7 +5801,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -5766,7 +5818,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -5783,7 +5835,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -5800,7 +5852,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -5817,7 +5869,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -5834,7 +5886,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -5851,7 +5903,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -5868,7 +5920,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -5885,7 +5937,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -5902,7 +5954,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
@@ -5919,7 +5971,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
@@ -5936,7 +5988,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
@@ -5953,7 +6005,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
@@ -5970,7 +6022,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
@@ -5987,7 +6039,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
@@ -5996,7 +6048,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
@@ -6005,7 +6057,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
@@ -6013,73 +6065,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="4:13">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="4:13">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:13">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:13">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:13">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="4:11">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="4:11">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="4:11">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="4:11">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>162</v>
       </c>
@@ -6087,7 +6139,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1">
+    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D43" s="15" t="s">
         <v>49</v>
       </c>
@@ -6101,7 +6153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="4:11">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
@@ -6113,7 +6165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:11">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="20" t="s">
         <v>168</v>
       </c>
@@ -6125,7 +6177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:11">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="20" t="s">
         <v>165</v>
       </c>
@@ -6135,7 +6187,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="4:11">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="20" t="s">
         <v>165</v>
       </c>
@@ -6145,7 +6197,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="4:11">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="20" t="s">
         <v>171</v>
       </c>
@@ -6157,7 +6209,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
@@ -6169,7 +6221,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="20" t="s">
         <v>173</v>
       </c>
@@ -6179,7 +6231,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="3:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
@@ -6189,7 +6241,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
@@ -6199,7 +6251,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
@@ -6209,7 +6261,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
@@ -6219,7 +6271,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
@@ -6229,7 +6281,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
@@ -6239,7 +6291,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
@@ -6249,7 +6301,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>405</v>
       </c>
@@ -6260,7 +6312,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1">
+    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="28">
         <v>1</v>
       </c>
@@ -6275,7 +6327,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1">
+    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
@@ -6291,7 +6343,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1">
+    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -6307,7 +6359,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1">
+    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6323,7 +6375,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1">
+    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6339,7 +6391,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1">
+    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6355,7 +6407,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1">
+    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6371,7 +6423,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1">
+    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6387,7 +6439,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1">
+    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6403,7 +6455,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1">
+    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6419,7 +6471,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1">
+    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6435,7 +6487,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1">
+    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6451,7 +6503,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6467,7 +6519,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1">
+    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6483,7 +6535,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1">
+    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6499,7 +6551,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1">
+    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6515,7 +6567,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1">
+    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6531,7 +6583,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1">
+    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6547,7 +6599,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1">
+    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6563,7 +6615,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1">
+    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6579,7 +6631,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1">
+    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6595,7 +6647,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1">
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6611,7 +6663,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1">
+    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6627,7 +6679,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1">
+    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6643,7 +6695,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1">
+    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6659,7 +6711,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1">
+    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6675,7 +6727,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1">
+    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6691,7 +6743,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1">
+    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6707,7 +6759,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1">
+    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6723,7 +6775,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1">
+    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6739,7 +6791,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1">
+    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -6755,7 +6807,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1">
+    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -6771,7 +6823,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1">
+    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -6787,7 +6839,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1">
+    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -6803,7 +6855,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1">
+    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -6819,7 +6871,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1">
+    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -6835,7 +6887,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1">
+    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -6851,7 +6903,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1">
+    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -6867,7 +6919,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1">
+    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6883,7 +6935,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1">
+    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -6899,7 +6951,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1">
+    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -6915,7 +6967,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1">
+    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6931,7 +6983,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1">
+    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -6947,7 +6999,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6963,7 +7015,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6979,7 +7031,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6995,7 +7047,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7011,7 +7063,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7027,7 +7079,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7043,7 +7095,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7059,7 +7111,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7075,7 +7127,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7091,7 +7143,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7107,7 +7159,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7123,7 +7175,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7139,7 +7191,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7155,7 +7207,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7171,7 +7223,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7187,7 +7239,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7203,7 +7255,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7219,7 +7271,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7235,7 +7287,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7251,7 +7303,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7267,7 +7319,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1">
+    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7283,7 +7335,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1">
+    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7299,7 +7351,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1">
+    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7315,7 +7367,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1">
+    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -7331,7 +7383,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1">
+    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -7347,7 +7399,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1">
+    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -7363,7 +7415,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1">
+    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -7379,7 +7431,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1">
+    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -7395,7 +7447,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1">
+    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -7411,7 +7463,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1">
+    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -7427,7 +7479,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1">
+    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -7443,7 +7495,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1">
+    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -7459,7 +7511,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1">
+    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -7475,7 +7527,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1">
+    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -7491,7 +7543,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1">
+    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -7507,7 +7559,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1">
+    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -7523,7 +7575,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1">
+    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -7539,7 +7591,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1">
+    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -7555,7 +7607,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1">
+    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -7571,7 +7623,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1">
+    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -7587,7 +7639,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1">
+    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -7603,7 +7655,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1">
+    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -7619,7 +7671,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1">
+    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -7635,7 +7687,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1">
+    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -7651,7 +7703,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1">
+    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -7667,7 +7719,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1">
+    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -7683,7 +7735,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1">
+    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -7699,7 +7751,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1">
+    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -7715,7 +7767,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1">
+    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -7731,7 +7783,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1">
+    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -7747,7 +7799,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1">
+    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -7763,7 +7815,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1">
+    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -7779,7 +7831,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1">
+    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -7795,7 +7847,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1">
+    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -7811,7 +7863,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1">
+    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -7827,7 +7879,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1">
+    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -7843,7 +7895,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1">
+    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -7859,7 +7911,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1">
+    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -7875,7 +7927,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1">
+    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -7891,7 +7943,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1">
+    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -7907,7 +7959,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1">
+    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -7923,7 +7975,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1">
+    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -7939,7 +7991,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1">
+    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -7955,7 +8007,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1">
+    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -7971,7 +8023,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1">
+    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -7987,7 +8039,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1">
+    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8003,7 +8055,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1">
+    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8019,7 +8071,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1">
+    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8035,7 +8087,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1">
+    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8051,7 +8103,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1">
+    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8067,7 +8119,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1">
+    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8083,7 +8135,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1">
+    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -8099,7 +8151,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1">
+    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8115,7 +8167,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1">
+    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8131,7 +8183,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1">
+    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8147,7 +8199,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1">
+    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8163,7 +8215,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1">
+    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -8179,7 +8231,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1">
+    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8195,7 +8247,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1">
+    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8211,7 +8263,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1">
+    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8227,7 +8279,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1">
+    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8243,7 +8295,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1">
+    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8259,7 +8311,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1">
+    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8275,7 +8327,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1">
+    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -8291,7 +8343,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1">
+    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -8307,7 +8359,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1">
+    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -8323,7 +8375,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1">
+    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -8339,7 +8391,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1">
+    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -8355,7 +8407,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1">
+    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8371,7 +8423,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1">
+    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -8387,7 +8439,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1">
+    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -8403,7 +8455,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1">
+    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -8419,7 +8471,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1">
+    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -8435,7 +8487,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1">
+    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -8451,7 +8503,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1">
+    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -8467,7 +8519,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1">
+    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -8483,7 +8535,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1">
+    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -8499,7 +8551,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1">
+    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -8515,7 +8567,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1">
+    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -8531,7 +8583,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1">
+    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -8547,7 +8599,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1">
+    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -8563,7 +8615,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1">
+    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -8579,7 +8631,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1">
+    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -8595,7 +8647,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1">
+    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -8611,7 +8663,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1">
+    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -8627,7 +8679,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1">
+    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -8643,7 +8695,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1">
+    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -8659,7 +8711,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1">
+    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -8675,7 +8727,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1">
+    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -8691,7 +8743,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1">
+    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -8707,7 +8759,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1">
+    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -8723,7 +8775,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1">
+    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -8739,7 +8791,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1">
+    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -8755,7 +8807,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1">
+    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -8771,7 +8823,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1">
+    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -8787,7 +8839,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1">
+    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -8803,7 +8855,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1">
+    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -8819,7 +8871,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1">
+    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -8835,7 +8887,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1">
+    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -8851,7 +8903,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1">
+    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -8867,7 +8919,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1">
+    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -8883,7 +8935,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1">
+    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -8899,7 +8951,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1">
+    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -8915,7 +8967,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1">
+    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -8931,7 +8983,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1">
+    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -8947,7 +8999,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1">
+    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -8963,7 +9015,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1">
+    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -8979,7 +9031,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1">
+    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -8995,7 +9047,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1">
+    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -9011,7 +9063,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1">
+    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -9027,7 +9079,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>360</v>
       </c>
@@ -9035,7 +9087,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="4:6">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>386</v>
       </c>
@@ -9043,7 +9095,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="4:6">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>385</v>
       </c>
@@ -9051,7 +9103,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>367</v>
       </c>
@@ -9059,7 +9111,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="4:6">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>363</v>
       </c>
@@ -9067,7 +9119,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="4:6">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>369</v>
       </c>
@@ -9075,7 +9127,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="4:6">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>361</v>
       </c>
@@ -9083,7 +9135,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="4:6">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>400</v>
       </c>
@@ -9091,7 +9143,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="4:6">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>366</v>
       </c>
@@ -9099,7 +9151,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="4:6">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>382</v>
       </c>
@@ -9107,7 +9159,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="4:6">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>402</v>
       </c>
@@ -9115,202 +9167,202 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="4:6">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="4:6">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="4:6">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="4:6">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="4:6">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="4:6">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="4:4">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="290" spans="4:4">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>370</v>
       </c>
@@ -9328,10 +9380,5 @@
     <sortCondition ref="D60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="456">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1371,6 +1371,27 @@
   </si>
   <si>
     <t>cada uno.</t>
+  </si>
+  <si>
+    <t>Open /  Closed (Este campo servira para identificar cuando se libere un tecnico de un proyecto)</t>
+  </si>
+  <si>
+    <t>Descripción del vuelo</t>
+  </si>
+  <si>
+    <t>TABLE: FLIGHTS</t>
+  </si>
+  <si>
+    <t>ID FIELD OP</t>
+  </si>
+  <si>
+    <t>ID FLIGHT</t>
+  </si>
+  <si>
+    <t>ID TECH</t>
+  </si>
+  <si>
+    <t>Redundancia para reporte de costo de Tech</t>
   </si>
 </sst>
 </file>
@@ -2269,6 +2290,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connector: Elbow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35873531" y="845344"/>
+          <a:ext cx="1047750" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2593,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,9 +2714,12 @@
     <col min="38" max="38" width="19.5703125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
     <col min="40" max="40" width="30.28515625" customWidth="1"/>
+    <col min="43" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2684,7 +2761,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2728,7 +2805,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2787,8 +2864,13 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="30"/>
       <c r="AP3" s="30"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2879,8 +2961,17 @@
       </c>
       <c r="AO4" s="29"/>
       <c r="AP4" s="29"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -2963,8 +3054,15 @@
       <c r="AN5" s="32"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="30"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS5" s="11"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -3043,8 +3141,17 @@
       </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3125,8 +3232,17 @@
       </c>
       <c r="AO7" s="30"/>
       <c r="AP7" s="30"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3211,8 +3327,17 @@
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AS8" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3291,8 +3416,15 @@
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3361,18 +3493,27 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="11" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS10" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3441,18 +3582,18 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="11" t="s">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>436</v>
+        <v>18</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3516,19 +3657,13 @@
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>439</v>
-      </c>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3594,7 +3729,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3648,13 +3783,15 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3704,13 +3841,15 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3760,9 +3899,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2" t="s">
-        <v>447</v>
-      </c>
+      <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -3816,9 +3953,7 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="2" t="s">
-        <v>448</v>
-      </c>
+      <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
@@ -4514,9 +4649,6 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
@@ -4554,9 +4686,6 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="464">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1322,9 +1321,6 @@
     <t>PO ASIGNED</t>
   </si>
   <si>
-    <t>BANCH / IN FIELD</t>
-  </si>
-  <si>
     <t>DATA FLIGHT</t>
   </si>
   <si>
@@ -1367,15 +1363,6 @@
     <t xml:space="preserve">Date auto </t>
   </si>
   <si>
-    <t xml:space="preserve">Es necesario definir los perfiles y los niveles de acceso que tendra </t>
-  </si>
-  <si>
-    <t>cada uno.</t>
-  </si>
-  <si>
-    <t>Open /  Closed (Este campo servira para identificar cuando se libere un tecnico de un proyecto)</t>
-  </si>
-  <si>
     <t>Descripción del vuelo</t>
   </si>
   <si>
@@ -1392,6 +1379,42 @@
   </si>
   <si>
     <t>Redundancia para reporte de costo de Tech</t>
+  </si>
+  <si>
+    <t>BANCH / IN FIELD / PENDING  APPROVAL</t>
+  </si>
+  <si>
+    <t>Assigned /  Closed / Pending Approval / Denied (Este campo servira para identificar cuando se libere un tecnico de un proyecto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending Approval / </t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>Cuando el tecnico se aprueba la asignación a la PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando al tecnico se libera de la PO </t>
+  </si>
+  <si>
+    <t>Cuando esta pendiente que se apruebe o niegue la participación del tecnico al PO</t>
+  </si>
+  <si>
+    <t>Cuando se niega la participación del tecnico a la PO</t>
+  </si>
+  <si>
+    <t>Cuando nieguen a un tecnico se libera el Tecnico, por lo cual</t>
+  </si>
+  <si>
+    <t>se debera modificar el status de la tabla tecnico pasando a banch</t>
   </si>
 </sst>
 </file>
@@ -2669,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2888,7 @@
       <c r="AO3" s="30"/>
       <c r="AP3" s="30"/>
       <c r="AQ3" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
@@ -3055,7 +3078,7 @@
       <c r="AO5" s="7"/>
       <c r="AP5" s="30"/>
       <c r="AQ5" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AR5" s="11" t="s">
         <v>20</v>
@@ -3148,7 +3171,7 @@
         <v>18</v>
       </c>
       <c r="AS6" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -3228,18 +3251,18 @@
         <v>18</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO7" s="30"/>
       <c r="AP7" s="30"/>
       <c r="AQ7" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AR7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AS7" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -3328,13 +3351,13 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="AR8" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AS8" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="AS8" s="11" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -3412,12 +3435,12 @@
         <v>18</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AR9" s="11" t="s">
         <v>20</v>
@@ -3488,29 +3511,29 @@
         <v>131</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AR10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AS10" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -3574,10 +3597,10 @@
         <v>424</v>
       </c>
       <c r="AH11" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI11" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
@@ -3588,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -3653,7 +3676,7 @@
         <v>18</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
@@ -3714,7 +3737,7 @@
         <v>18</v>
       </c>
       <c r="AD13" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3723,8 +3746,12 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
+      <c r="AL13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -3784,9 +3811,11 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="AM14" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3842,9 +3871,11 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AM15" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3899,8 +3930,12 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
+      <c r="AL16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -4001,7 +4036,9 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
+      <c r="AL18" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
@@ -4049,7 +4086,9 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
+      <c r="AL19" s="2" t="s">
+        <v>463</v>
+      </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -5762,7 +5801,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>109</v>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,13 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="482">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1416,16 +1410,70 @@
   </si>
   <si>
     <t>se debera modificar el status de la tabla tecnico pasando a banch</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Opmanager</t>
+  </si>
+  <si>
+    <t>Adminmanager</t>
+  </si>
+  <si>
+    <t>Super User</t>
+  </si>
+  <si>
+    <t>Tecnico / Operativo</t>
+  </si>
+  <si>
+    <t>Supervisor de Campo</t>
+  </si>
+  <si>
+    <t>Field Operation Manager</t>
+  </si>
+  <si>
+    <t>Accounting / Admin Manager</t>
+  </si>
+  <si>
+    <t>Autorización de gastos</t>
+  </si>
+  <si>
+    <t>Autorización de Tecnicos</t>
+  </si>
+  <si>
+    <t>Solicita Autorización de tecnicos a Campo</t>
+  </si>
+  <si>
+    <t>Tecnico en campo</t>
+  </si>
+  <si>
+    <t>Administrador del sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,9 +1764,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1737,10 +1785,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1760,6 +1808,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1798,7 +1847,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1902,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1957,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +2010,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2063,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2116,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2169,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2222,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2275,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2328,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2381,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2445,27 +2494,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2497,24 +2528,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2690,14 +2703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2743,7 +2756,7 @@
     <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2785,7 +2798,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2829,7 +2842,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2894,7 +2907,7 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2995,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -3086,7 +3099,7 @@
       </c>
       <c r="AS5" s="11"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -3175,7 +3188,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3266,7 +3279,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3361,7 +3374,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3448,7 +3461,7 @@
       </c>
       <c r="AS9" s="11"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3537,7 +3550,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3617,7 +3630,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3687,7 +3700,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3757,7 +3770,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3821,7 +3834,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3881,7 +3894,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3941,7 +3954,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3995,7 +4008,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4045,7 +4058,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4095,7 +4108,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4143,7 +4156,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4193,7 +4206,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4243,7 +4256,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4293,7 +4306,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4343,7 +4356,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4387,7 +4400,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4431,7 +4444,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4475,7 +4488,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4519,7 +4532,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4563,7 +4576,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4607,7 +4620,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4651,7 +4664,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4692,7 +4705,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4729,7 +4742,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -4767,7 +4780,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -4826,7 +4839,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -4884,7 +4897,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -4940,7 +4953,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -4996,7 +5009,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -5052,7 +5065,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -5108,7 +5121,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -5168,7 +5181,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -5219,7 +5232,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -5264,7 +5277,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -5309,7 +5322,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -5354,7 +5367,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -5399,7 +5412,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -5444,7 +5457,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5489,7 +5502,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -5532,7 +5545,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -5575,7 +5588,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5609,7 +5622,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -5646,7 +5659,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -5677,7 +5690,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5710,7 +5723,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -5738,7 +5751,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -5766,7 +5779,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -5794,7 +5807,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
@@ -5814,7 +5827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="B59" s="31" t="s">
         <v>431</v>
       </c>
@@ -5832,7 +5845,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -5851,15 +5864,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="C2:M290"/>
+  <dimension ref="C2:S290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -5868,9 +5881,12 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" customWidth="1"/>
+    <col min="19" max="19" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:19">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -5885,8 +5901,17 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="Q2" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="4:19">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -5901,8 +5926,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -5918,8 +5952,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -5935,8 +5978,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -5952,8 +6004,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -5969,8 +6030,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -5987,7 +6057,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:19">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -6004,7 +6074,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:19">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -6021,7 +6091,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:19">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -6038,7 +6108,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:19">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -6055,7 +6125,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:19">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -6072,7 +6142,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:19">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -6089,7 +6159,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:19">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6106,7 +6176,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:19">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -6123,7 +6193,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13">
       <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
@@ -6140,7 +6210,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13">
       <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
@@ -6157,7 +6227,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13">
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
@@ -6174,7 +6244,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13">
       <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
@@ -6191,7 +6261,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13">
       <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
@@ -6208,7 +6278,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13">
       <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
@@ -6217,7 +6287,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13">
       <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
@@ -6226,7 +6296,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13">
       <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
@@ -6234,73 +6304,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1">
       <c r="D42" t="s">
         <v>162</v>
       </c>
@@ -6308,7 +6378,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="4:11" ht="24.75" thickBot="1">
       <c r="D43" s="15" t="s">
         <v>49</v>
       </c>
@@ -6322,7 +6392,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11">
       <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
@@ -6334,7 +6404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11">
       <c r="D45" s="20" t="s">
         <v>168</v>
       </c>
@@ -6346,7 +6416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11">
       <c r="D46" s="20" t="s">
         <v>165</v>
       </c>
@@ -6356,7 +6426,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11">
       <c r="D47" s="20" t="s">
         <v>165</v>
       </c>
@@ -6366,7 +6436,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11">
       <c r="D48" s="20" t="s">
         <v>171</v>
       </c>
@@ -6378,7 +6448,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7">
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
@@ -6390,7 +6460,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7">
       <c r="D50" s="20" t="s">
         <v>173</v>
       </c>
@@ -6400,7 +6470,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7">
       <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
@@ -6410,7 +6480,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7">
       <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
@@ -6420,7 +6490,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7">
       <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
@@ -6430,7 +6500,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7">
       <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
@@ -6440,7 +6510,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7">
       <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
@@ -6450,7 +6520,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7">
       <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
@@ -6460,7 +6530,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1">
       <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
@@ -6470,7 +6540,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7">
       <c r="C60" t="s">
         <v>405</v>
       </c>
@@ -6481,7 +6551,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" hidden="1">
       <c r="C61" s="28">
         <v>1</v>
       </c>
@@ -6496,7 +6566,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" hidden="1">
       <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
@@ -6512,7 +6582,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" hidden="1">
       <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -6528,7 +6598,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" hidden="1">
       <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6544,7 +6614,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" hidden="1">
       <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6560,7 +6630,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" hidden="1">
       <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6576,7 +6646,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" hidden="1">
       <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6592,7 +6662,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" hidden="1">
       <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6608,7 +6678,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" hidden="1">
       <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6624,7 +6694,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" hidden="1">
       <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6640,7 +6710,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" hidden="1">
       <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6656,7 +6726,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" hidden="1">
       <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6672,7 +6742,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7">
       <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6688,7 +6758,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" hidden="1">
       <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6704,7 +6774,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" hidden="1">
       <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6720,7 +6790,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" hidden="1">
       <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6736,7 +6806,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" hidden="1">
       <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6752,7 +6822,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" hidden="1">
       <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6768,7 +6838,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" hidden="1">
       <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6784,7 +6854,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" hidden="1">
       <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6800,7 +6870,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" hidden="1">
       <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6816,7 +6886,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" hidden="1">
       <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6832,7 +6902,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" hidden="1">
       <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6848,7 +6918,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" hidden="1">
       <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6864,7 +6934,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" hidden="1">
       <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6880,7 +6950,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" hidden="1">
       <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6896,7 +6966,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" hidden="1">
       <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6912,7 +6982,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" hidden="1">
       <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6928,7 +6998,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" hidden="1">
       <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6944,7 +7014,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" hidden="1">
       <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6960,7 +7030,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" hidden="1">
       <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -6976,7 +7046,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" hidden="1">
       <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -6992,7 +7062,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" hidden="1">
       <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7008,7 +7078,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" hidden="1">
       <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7024,7 +7094,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" hidden="1">
       <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7040,7 +7110,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" hidden="1">
       <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7056,7 +7126,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" hidden="1">
       <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7072,7 +7142,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" hidden="1">
       <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7088,7 +7158,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" hidden="1">
       <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7104,7 +7174,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" hidden="1">
       <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7120,7 +7190,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" hidden="1">
       <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7136,7 +7206,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" hidden="1">
       <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7152,7 +7222,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" hidden="1">
       <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7168,7 +7238,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7">
       <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7184,7 +7254,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7">
       <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7200,7 +7270,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7">
       <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7216,7 +7286,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7">
       <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7232,7 +7302,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7">
       <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7248,7 +7318,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7">
       <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7264,7 +7334,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7">
       <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7280,7 +7350,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7">
       <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7296,7 +7366,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7">
       <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7312,7 +7382,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7">
       <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7328,7 +7398,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7">
       <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7344,7 +7414,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7">
       <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7360,7 +7430,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7">
       <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7376,7 +7446,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7">
       <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7392,7 +7462,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7">
       <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7408,7 +7478,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7">
       <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7424,7 +7494,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7">
       <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7440,7 +7510,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7">
       <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7456,7 +7526,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7">
       <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7472,7 +7542,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7">
       <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7488,7 +7558,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" hidden="1">
       <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7504,7 +7574,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" hidden="1">
       <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7520,7 +7590,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" hidden="1">
       <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7536,7 +7606,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" hidden="1">
       <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -7552,7 +7622,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" hidden="1">
       <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -7568,7 +7638,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" hidden="1">
       <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -7584,7 +7654,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" hidden="1">
       <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -7600,7 +7670,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" hidden="1">
       <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -7616,7 +7686,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" hidden="1">
       <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -7632,7 +7702,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" hidden="1">
       <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -7648,7 +7718,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" hidden="1">
       <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -7664,7 +7734,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" hidden="1">
       <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -7680,7 +7750,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" hidden="1">
       <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -7696,7 +7766,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" hidden="1">
       <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -7712,7 +7782,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" hidden="1">
       <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -7728,7 +7798,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" hidden="1">
       <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -7744,7 +7814,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" hidden="1">
       <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -7760,7 +7830,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" hidden="1">
       <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -7776,7 +7846,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" hidden="1">
       <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -7792,7 +7862,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" hidden="1">
       <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -7808,7 +7878,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" hidden="1">
       <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -7824,7 +7894,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" hidden="1">
       <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -7840,7 +7910,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" hidden="1">
       <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -7856,7 +7926,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" hidden="1">
       <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -7872,7 +7942,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" hidden="1">
       <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -7888,7 +7958,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" hidden="1">
       <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -7904,7 +7974,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" hidden="1">
       <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -7920,7 +7990,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" hidden="1">
       <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -7936,7 +8006,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" hidden="1">
       <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -7952,7 +8022,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" hidden="1">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -7968,7 +8038,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" hidden="1">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -7984,7 +8054,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" hidden="1">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -8000,7 +8070,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" hidden="1">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -8016,7 +8086,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" hidden="1">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -8032,7 +8102,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" hidden="1">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8048,7 +8118,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" hidden="1">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8064,7 +8134,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" hidden="1">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8080,7 +8150,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" hidden="1">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8096,7 +8166,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" hidden="1">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8112,7 +8182,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" hidden="1">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8128,7 +8198,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" hidden="1">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8144,7 +8214,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" hidden="1">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8160,7 +8230,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" hidden="1">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8176,7 +8246,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" hidden="1">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8192,7 +8262,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" hidden="1">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8208,7 +8278,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" hidden="1">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8224,7 +8294,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" hidden="1">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8240,7 +8310,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" hidden="1">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8256,7 +8326,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" hidden="1">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8272,7 +8342,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" hidden="1">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8288,7 +8358,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" hidden="1">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8304,7 +8374,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" hidden="1">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -8320,7 +8390,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" hidden="1">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8336,7 +8406,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" hidden="1">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8352,7 +8422,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" hidden="1">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8368,7 +8438,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" hidden="1">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8384,7 +8454,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" hidden="1">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -8400,7 +8470,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" hidden="1">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8416,7 +8486,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" hidden="1">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8432,7 +8502,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" hidden="1">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8448,7 +8518,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" hidden="1">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8464,7 +8534,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" hidden="1">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8480,7 +8550,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" hidden="1">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8496,7 +8566,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" hidden="1">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -8512,7 +8582,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" hidden="1">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -8528,7 +8598,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" hidden="1">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -8544,7 +8614,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" hidden="1">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -8560,7 +8630,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" hidden="1">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -8576,7 +8646,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" hidden="1">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8592,7 +8662,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" hidden="1">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -8608,7 +8678,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" hidden="1">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -8624,7 +8694,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" hidden="1">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -8640,7 +8710,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" hidden="1">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -8656,7 +8726,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" hidden="1">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -8672,7 +8742,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" hidden="1">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -8688,7 +8758,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" hidden="1">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -8704,7 +8774,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" hidden="1">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -8720,7 +8790,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" hidden="1">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -8736,7 +8806,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" hidden="1">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -8752,7 +8822,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" hidden="1">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -8768,7 +8838,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" hidden="1">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -8784,7 +8854,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" hidden="1">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -8800,7 +8870,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" hidden="1">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -8816,7 +8886,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" hidden="1">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -8832,7 +8902,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" hidden="1">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -8848,7 +8918,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" hidden="1">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -8864,7 +8934,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" hidden="1">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -8880,7 +8950,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" hidden="1">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -8896,7 +8966,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" hidden="1">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -8912,7 +8982,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" hidden="1">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -8928,7 +8998,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" hidden="1">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -8944,7 +9014,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" hidden="1">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -8960,7 +9030,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" hidden="1">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -8976,7 +9046,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" hidden="1">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -8992,7 +9062,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" hidden="1">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -9008,7 +9078,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" hidden="1">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -9024,7 +9094,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" hidden="1">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -9040,7 +9110,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" hidden="1">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -9056,7 +9126,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" hidden="1">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -9072,7 +9142,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" hidden="1">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -9088,7 +9158,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" hidden="1">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -9104,7 +9174,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" hidden="1">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -9120,7 +9190,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" hidden="1">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -9136,7 +9206,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" hidden="1">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -9152,7 +9222,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" hidden="1">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -9168,7 +9238,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" hidden="1">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -9184,7 +9254,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" hidden="1">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -9200,7 +9270,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" hidden="1">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -9216,7 +9286,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" hidden="1">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -9232,7 +9302,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" hidden="1">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -9248,7 +9318,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7">
       <c r="D240" t="s">
         <v>360</v>
       </c>
@@ -9256,7 +9326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6">
       <c r="D241" t="s">
         <v>386</v>
       </c>
@@ -9264,7 +9334,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6">
       <c r="D242" t="s">
         <v>385</v>
       </c>
@@ -9272,7 +9342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6">
       <c r="D243" t="s">
         <v>367</v>
       </c>
@@ -9280,7 +9350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6">
       <c r="D244" t="s">
         <v>363</v>
       </c>
@@ -9288,7 +9358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6">
       <c r="D245" t="s">
         <v>369</v>
       </c>
@@ -9296,7 +9366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6">
       <c r="D246" t="s">
         <v>361</v>
       </c>
@@ -9304,7 +9374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6">
       <c r="D247" t="s">
         <v>400</v>
       </c>
@@ -9312,7 +9382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6">
       <c r="D248" t="s">
         <v>366</v>
       </c>
@@ -9320,7 +9390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6">
       <c r="D249" t="s">
         <v>382</v>
       </c>
@@ -9328,7 +9398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6">
       <c r="D250" t="s">
         <v>402</v>
       </c>
@@ -9336,202 +9406,202 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6">
       <c r="D251" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6">
       <c r="D252" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6">
       <c r="D253" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6">
       <c r="D254" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6">
       <c r="D255" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6">
       <c r="D256" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4">
       <c r="D257" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4">
       <c r="D258" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4">
       <c r="D259" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4">
       <c r="D260" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4">
       <c r="D261" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4">
       <c r="D262" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4">
       <c r="D263" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4">
       <c r="D264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4">
       <c r="D265" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4">
       <c r="D266" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4">
       <c r="D267" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4">
       <c r="D268" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4">
       <c r="D269" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4">
       <c r="D270" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4">
       <c r="D271" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4">
       <c r="D272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4">
       <c r="D273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4">
       <c r="D274" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4">
       <c r="D275" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4">
       <c r="D276" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4">
       <c r="D277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4">
       <c r="D278" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4">
       <c r="D279" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4">
       <c r="D280" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4">
       <c r="D281" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4">
       <c r="D282" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4">
       <c r="D283" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4">
       <c r="D284" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4">
       <c r="D285" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4">
       <c r="D286" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4">
       <c r="D287" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4">
       <c r="D288" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4">
       <c r="D289" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4">
       <c r="D290" t="s">
         <v>370</v>
       </c>
@@ -9549,5 +9619,6 @@
     <sortCondition ref="D60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="465">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1416,6 +1415,9 @@
   </si>
   <si>
     <t>se debera modificar el status de la tabla tecnico pasando a banch</t>
+  </si>
+  <si>
+    <t>Pendiente agregar</t>
   </si>
 </sst>
 </file>
@@ -2693,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,17 +3897,19 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="479">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1418,16 +1413,58 @@
   </si>
   <si>
     <t>Pendiente agregar</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>SuperUser</t>
+  </si>
+  <si>
+    <t>SalesMan</t>
+  </si>
+  <si>
+    <t>SalesManager</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>FieldSupervisor</t>
+  </si>
+  <si>
+    <t>FieldManager</t>
+  </si>
+  <si>
+    <t>AccountManager</t>
+  </si>
+  <si>
+    <t>Benton</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ian, Geoger</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Rol Description</t>
+  </si>
+  <si>
+    <t>Angel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,9 +1755,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1739,10 +1776,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1762,6 +1799,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1800,7 +1838,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1893,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1948,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +2001,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2054,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2107,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2160,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2213,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2266,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2319,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2372,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2447,27 +2485,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2499,24 +2519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2692,14 +2694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2745,7 +2747,7 @@
     <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2787,7 +2789,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2831,7 +2833,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2896,7 +2898,7 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2997,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -3088,7 +3090,7 @@
       </c>
       <c r="AS5" s="11"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -3177,7 +3179,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3268,7 +3270,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3363,7 +3365,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3450,7 +3452,7 @@
       </c>
       <c r="AS9" s="11"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3539,7 +3541,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3619,7 +3621,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3689,7 +3691,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3759,7 +3761,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3823,7 +3825,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3883,7 +3885,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3945,7 +3947,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -3999,7 +4001,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4049,7 +4051,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4099,7 +4101,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4147,7 +4149,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4197,7 +4199,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4247,7 +4249,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4297,7 +4299,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4347,7 +4349,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4391,7 +4393,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4435,7 +4437,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4479,7 +4481,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4523,7 +4525,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4567,7 +4569,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4611,7 +4613,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4655,7 +4657,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4696,7 +4698,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4733,7 +4735,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -4771,7 +4773,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -4830,7 +4832,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -4888,7 +4890,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -4944,7 +4946,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -5000,7 +5002,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -5056,7 +5058,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -5112,7 +5114,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -5172,7 +5174,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -5223,7 +5225,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -5268,7 +5270,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -5313,7 +5315,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -5358,7 +5360,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -5403,7 +5405,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -5448,7 +5450,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5493,7 +5495,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -5536,7 +5538,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -5579,7 +5581,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5613,7 +5615,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -5650,7 +5652,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -5681,7 +5683,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5714,7 +5716,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -5742,7 +5744,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -5770,7 +5772,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -5798,7 +5800,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="B59" s="31" t="s">
         <v>431</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -5855,15 +5857,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="C2:M290"/>
+  <dimension ref="C2:R290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -5872,9 +5874,12 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:18">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -5889,8 +5894,17 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P2" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -5905,8 +5919,15 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="4:18">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -5922,8 +5943,13 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="4:18">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -5939,8 +5965,15 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="4:18">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -5956,8 +5989,13 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="4:18">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -5973,8 +6011,13 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P7" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="4:18">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -5990,8 +6033,15 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P8" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="4:18">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -6007,8 +6057,15 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P9" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="4:18">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -6025,7 +6082,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -6042,7 +6099,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -6059,7 +6116,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -6076,7 +6133,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -6093,7 +6150,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6110,7 +6167,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -6127,7 +6184,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13">
       <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
@@ -6144,7 +6201,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13">
       <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
@@ -6161,7 +6218,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13">
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
@@ -6178,7 +6235,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13">
       <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
@@ -6195,7 +6252,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13">
       <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
@@ -6212,7 +6269,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13">
       <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
@@ -6221,7 +6278,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13">
       <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
@@ -6230,7 +6287,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13">
       <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
@@ -6238,73 +6295,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1">
       <c r="D42" t="s">
         <v>162</v>
       </c>
@@ -6312,7 +6369,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="4:11" ht="24.75" thickBot="1">
       <c r="D43" s="15" t="s">
         <v>49</v>
       </c>
@@ -6326,7 +6383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11">
       <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
@@ -6338,7 +6395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11">
       <c r="D45" s="20" t="s">
         <v>168</v>
       </c>
@@ -6350,7 +6407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11">
       <c r="D46" s="20" t="s">
         <v>165</v>
       </c>
@@ -6360,7 +6417,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11">
       <c r="D47" s="20" t="s">
         <v>165</v>
       </c>
@@ -6370,7 +6427,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11">
       <c r="D48" s="20" t="s">
         <v>171</v>
       </c>
@@ -6382,7 +6439,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7">
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
@@ -6394,7 +6451,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7">
       <c r="D50" s="20" t="s">
         <v>173</v>
       </c>
@@ -6404,7 +6461,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7">
       <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
@@ -6414,7 +6471,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7">
       <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
@@ -6424,7 +6481,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7">
       <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
@@ -6434,7 +6491,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7">
       <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
@@ -6444,7 +6501,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7">
       <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
@@ -6454,7 +6511,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7">
       <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
@@ -6464,7 +6521,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1">
       <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
@@ -6474,7 +6531,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7">
       <c r="C60" t="s">
         <v>405</v>
       </c>
@@ -6485,7 +6542,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" hidden="1">
       <c r="C61" s="28">
         <v>1</v>
       </c>
@@ -6500,7 +6557,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" hidden="1">
       <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
@@ -6516,7 +6573,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" hidden="1">
       <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -6532,7 +6589,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" hidden="1">
       <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6548,7 +6605,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" hidden="1">
       <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6564,7 +6621,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" hidden="1">
       <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6580,7 +6637,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" hidden="1">
       <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6596,7 +6653,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" hidden="1">
       <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6612,7 +6669,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" hidden="1">
       <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6628,7 +6685,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" hidden="1">
       <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6644,7 +6701,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" hidden="1">
       <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6660,7 +6717,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" hidden="1">
       <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6676,7 +6733,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7">
       <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6692,7 +6749,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" hidden="1">
       <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6708,7 +6765,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" hidden="1">
       <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6724,7 +6781,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" hidden="1">
       <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6740,7 +6797,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" hidden="1">
       <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6756,7 +6813,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" hidden="1">
       <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6772,7 +6829,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" hidden="1">
       <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6788,7 +6845,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" hidden="1">
       <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6804,7 +6861,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" hidden="1">
       <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6820,7 +6877,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" hidden="1">
       <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6836,7 +6893,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" hidden="1">
       <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6852,7 +6909,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" hidden="1">
       <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6868,7 +6925,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" hidden="1">
       <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6884,7 +6941,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" hidden="1">
       <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6900,7 +6957,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" hidden="1">
       <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6916,7 +6973,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" hidden="1">
       <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6932,7 +6989,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" hidden="1">
       <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6948,7 +7005,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" hidden="1">
       <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6964,7 +7021,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" hidden="1">
       <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -6980,7 +7037,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" hidden="1">
       <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -6996,7 +7053,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" hidden="1">
       <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7012,7 +7069,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" hidden="1">
       <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7028,7 +7085,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" hidden="1">
       <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7044,7 +7101,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" hidden="1">
       <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7060,7 +7117,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" hidden="1">
       <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7076,7 +7133,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" hidden="1">
       <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7092,7 +7149,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" hidden="1">
       <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7108,7 +7165,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" hidden="1">
       <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7124,7 +7181,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" hidden="1">
       <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7140,7 +7197,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" hidden="1">
       <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7156,7 +7213,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" hidden="1">
       <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7172,7 +7229,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7">
       <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7188,7 +7245,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7">
       <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7204,7 +7261,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7">
       <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7220,7 +7277,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7">
       <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7236,7 +7293,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7">
       <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7252,7 +7309,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7">
       <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7268,7 +7325,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7">
       <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7284,7 +7341,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7">
       <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7300,7 +7357,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7">
       <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7316,7 +7373,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7">
       <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7332,7 +7389,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7">
       <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7348,7 +7405,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7">
       <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7364,7 +7421,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7">
       <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7380,7 +7437,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7">
       <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7396,7 +7453,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7">
       <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7412,7 +7469,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7">
       <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7428,7 +7485,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7">
       <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7444,7 +7501,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7">
       <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7460,7 +7517,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7">
       <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7476,7 +7533,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7">
       <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7492,7 +7549,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" hidden="1">
       <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7508,7 +7565,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" hidden="1">
       <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7524,7 +7581,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" hidden="1">
       <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7540,7 +7597,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" hidden="1">
       <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -7556,7 +7613,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" hidden="1">
       <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -7572,7 +7629,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" hidden="1">
       <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -7588,7 +7645,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" hidden="1">
       <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -7604,7 +7661,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" hidden="1">
       <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -7620,7 +7677,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" hidden="1">
       <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -7636,7 +7693,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" hidden="1">
       <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -7652,7 +7709,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" hidden="1">
       <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -7668,7 +7725,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" hidden="1">
       <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -7684,7 +7741,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" hidden="1">
       <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -7700,7 +7757,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" hidden="1">
       <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -7716,7 +7773,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" hidden="1">
       <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -7732,7 +7789,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" hidden="1">
       <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -7748,7 +7805,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" hidden="1">
       <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -7764,7 +7821,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" hidden="1">
       <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -7780,7 +7837,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" hidden="1">
       <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -7796,7 +7853,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" hidden="1">
       <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -7812,7 +7869,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" hidden="1">
       <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -7828,7 +7885,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" hidden="1">
       <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -7844,7 +7901,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" hidden="1">
       <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -7860,7 +7917,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" hidden="1">
       <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -7876,7 +7933,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" hidden="1">
       <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -7892,7 +7949,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" hidden="1">
       <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -7908,7 +7965,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" hidden="1">
       <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -7924,7 +7981,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" hidden="1">
       <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -7940,7 +7997,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" hidden="1">
       <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -7956,7 +8013,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" hidden="1">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -7972,7 +8029,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" hidden="1">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -7988,7 +8045,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" hidden="1">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -8004,7 +8061,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" hidden="1">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -8020,7 +8077,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" hidden="1">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -8036,7 +8093,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" hidden="1">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8052,7 +8109,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" hidden="1">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8068,7 +8125,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" hidden="1">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8084,7 +8141,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" hidden="1">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8100,7 +8157,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" hidden="1">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8116,7 +8173,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" hidden="1">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8132,7 +8189,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" hidden="1">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8148,7 +8205,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" hidden="1">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8164,7 +8221,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" hidden="1">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8180,7 +8237,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" hidden="1">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8196,7 +8253,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" hidden="1">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8212,7 +8269,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" hidden="1">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8228,7 +8285,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" hidden="1">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8244,7 +8301,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" hidden="1">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8260,7 +8317,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" hidden="1">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8276,7 +8333,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" hidden="1">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8292,7 +8349,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" hidden="1">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8308,7 +8365,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" hidden="1">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -8324,7 +8381,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" hidden="1">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8340,7 +8397,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" hidden="1">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8356,7 +8413,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" hidden="1">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8372,7 +8429,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" hidden="1">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8388,7 +8445,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" hidden="1">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -8404,7 +8461,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" hidden="1">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8420,7 +8477,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" hidden="1">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8436,7 +8493,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" hidden="1">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8452,7 +8509,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" hidden="1">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8468,7 +8525,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" hidden="1">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8484,7 +8541,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" hidden="1">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8500,7 +8557,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" hidden="1">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -8516,7 +8573,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" hidden="1">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -8532,7 +8589,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" hidden="1">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -8548,7 +8605,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" hidden="1">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -8564,7 +8621,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" hidden="1">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -8580,7 +8637,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" hidden="1">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8596,7 +8653,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" hidden="1">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -8612,7 +8669,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" hidden="1">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -8628,7 +8685,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" hidden="1">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -8644,7 +8701,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" hidden="1">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -8660,7 +8717,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" hidden="1">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -8676,7 +8733,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" hidden="1">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -8692,7 +8749,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" hidden="1">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -8708,7 +8765,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" hidden="1">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -8724,7 +8781,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" hidden="1">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -8740,7 +8797,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" hidden="1">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -8756,7 +8813,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" hidden="1">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -8772,7 +8829,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" hidden="1">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -8788,7 +8845,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" hidden="1">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -8804,7 +8861,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" hidden="1">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -8820,7 +8877,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" hidden="1">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -8836,7 +8893,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" hidden="1">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -8852,7 +8909,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" hidden="1">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -8868,7 +8925,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" hidden="1">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -8884,7 +8941,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" hidden="1">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -8900,7 +8957,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" hidden="1">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -8916,7 +8973,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" hidden="1">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -8932,7 +8989,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" hidden="1">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -8948,7 +9005,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" hidden="1">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -8964,7 +9021,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" hidden="1">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -8980,7 +9037,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" hidden="1">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -8996,7 +9053,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" hidden="1">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -9012,7 +9069,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" hidden="1">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -9028,7 +9085,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" hidden="1">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -9044,7 +9101,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" hidden="1">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -9060,7 +9117,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" hidden="1">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -9076,7 +9133,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" hidden="1">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -9092,7 +9149,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" hidden="1">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -9108,7 +9165,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" hidden="1">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -9124,7 +9181,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" hidden="1">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -9140,7 +9197,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" hidden="1">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -9156,7 +9213,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" hidden="1">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -9172,7 +9229,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" hidden="1">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -9188,7 +9245,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" hidden="1">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -9204,7 +9261,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" hidden="1">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -9220,7 +9277,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" hidden="1">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -9236,7 +9293,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" hidden="1">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -9252,7 +9309,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7">
       <c r="D240" t="s">
         <v>360</v>
       </c>
@@ -9260,7 +9317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6">
       <c r="D241" t="s">
         <v>386</v>
       </c>
@@ -9268,7 +9325,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6">
       <c r="D242" t="s">
         <v>385</v>
       </c>
@@ -9276,7 +9333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6">
       <c r="D243" t="s">
         <v>367</v>
       </c>
@@ -9284,7 +9341,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6">
       <c r="D244" t="s">
         <v>363</v>
       </c>
@@ -9292,7 +9349,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6">
       <c r="D245" t="s">
         <v>369</v>
       </c>
@@ -9300,7 +9357,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6">
       <c r="D246" t="s">
         <v>361</v>
       </c>
@@ -9308,7 +9365,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6">
       <c r="D247" t="s">
         <v>400</v>
       </c>
@@ -9316,7 +9373,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6">
       <c r="D248" t="s">
         <v>366</v>
       </c>
@@ -9324,7 +9381,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6">
       <c r="D249" t="s">
         <v>382</v>
       </c>
@@ -9332,7 +9389,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6">
       <c r="D250" t="s">
         <v>402</v>
       </c>
@@ -9340,202 +9397,202 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6">
       <c r="D251" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6">
       <c r="D252" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6">
       <c r="D253" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6">
       <c r="D254" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6">
       <c r="D255" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6">
       <c r="D256" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4">
       <c r="D257" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4">
       <c r="D258" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4">
       <c r="D259" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4">
       <c r="D260" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4">
       <c r="D261" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4">
       <c r="D262" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4">
       <c r="D263" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4">
       <c r="D264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4">
       <c r="D265" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4">
       <c r="D266" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4">
       <c r="D267" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4">
       <c r="D268" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4">
       <c r="D269" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4">
       <c r="D270" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4">
       <c r="D271" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4">
       <c r="D272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4">
       <c r="D273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4">
       <c r="D274" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4">
       <c r="D275" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4">
       <c r="D276" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4">
       <c r="D277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4">
       <c r="D278" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4">
       <c r="D279" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4">
       <c r="D280" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4">
       <c r="D281" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4">
       <c r="D282" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4">
       <c r="D283" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4">
       <c r="D284" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4">
       <c r="D285" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4">
       <c r="D286" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4">
       <c r="D287" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4">
       <c r="D288" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4">
       <c r="D289" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4">
       <c r="D290" t="s">
         <v>370</v>
       </c>
@@ -9553,5 +9610,6 @@
     <sortCondition ref="D60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="480">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1394,9 +1399,6 @@
     <t>Denied</t>
   </si>
   <si>
-    <t>Cuando el tecnico se aprueba la asignación a la PO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuando al tecnico se libera de la PO </t>
   </si>
   <si>
@@ -1455,16 +1457,22 @@
   </si>
   <si>
     <t>Angel</t>
+  </si>
+  <si>
+    <t>Cuando el tecnico se aprueba la asignación a la PO. Cuando se asignado cambia el status en la tabla de tecnico y se guarda el numero de PO</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,7 +1763,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1776,10 +1784,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1838,7 +1846,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1901,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1956,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2009,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2062,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2115,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2168,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2221,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2274,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2327,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2380,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2485,9 +2493,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2519,6 +2545,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2694,14 +2738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2747,7 +2791,7 @@
     <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2789,7 +2833,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2833,7 +2877,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -2898,7 +2942,7 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -2999,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -3090,7 +3134,7 @@
       </c>
       <c r="AS5" s="11"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -3179,7 +3223,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3270,7 +3314,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3365,7 +3409,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3452,7 +3496,7 @@
       </c>
       <c r="AS9" s="11"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3541,7 +3585,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3621,7 +3665,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3685,13 +3729,15 @@
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
+      <c r="AL12" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3755,13 +3801,13 @@
         <v>454</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3819,13 +3865,13 @@
         <v>455</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -3879,13 +3925,13 @@
         <v>456</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -3910,7 +3956,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -3941,13 +3987,13 @@
         <v>457</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4001,7 +4047,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4044,14 +4090,14 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4094,14 +4140,14 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4149,7 +4195,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4199,7 +4245,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4249,7 +4295,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4299,7 +4345,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4349,7 +4395,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4393,7 +4439,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4437,7 +4483,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4481,7 +4527,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4525,7 +4571,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4569,7 +4615,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4613,7 +4659,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4657,7 +4703,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4698,7 +4744,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4735,7 +4781,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -4773,7 +4819,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -4832,7 +4878,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -4890,7 +4936,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -4946,7 +4992,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -5002,7 +5048,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -5058,7 +5104,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -5114,7 +5160,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -5174,7 +5220,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -5225,7 +5271,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -5270,7 +5316,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -5315,7 +5361,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -5360,7 +5406,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -5405,7 +5451,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -5450,7 +5496,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5495,7 +5541,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -5538,7 +5584,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -5581,7 +5627,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5615,7 +5661,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -5652,7 +5698,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -5683,7 +5729,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5716,7 +5762,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -5744,7 +5790,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -5772,7 +5818,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -5800,7 +5846,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
@@ -5820,7 +5866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>431</v>
       </c>
@@ -5838,7 +5884,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -5857,15 +5903,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -5879,7 +5925,7 @@
     <col min="18" max="18" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -5895,16 +5941,16 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="P2" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q2" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="R2" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="R2" s="37" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="4:18">
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -5920,14 +5966,14 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="P3" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -5944,12 +5990,12 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="P4" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -5966,14 +6012,14 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="P5" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -5990,12 +6036,12 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="P6" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -6012,12 +6058,12 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="P7" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -6034,14 +6080,14 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="P8" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -6058,14 +6104,14 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="P9" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -6082,7 +6128,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -6099,7 +6145,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -6116,7 +6162,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -6133,7 +6179,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -6150,7 +6196,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6167,7 +6213,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -6184,7 +6230,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
@@ -6201,7 +6247,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
@@ -6218,7 +6264,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
@@ -6235,7 +6281,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
@@ -6252,7 +6298,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
@@ -6269,7 +6315,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
@@ -6278,7 +6324,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
@@ -6287,7 +6333,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
@@ -6295,73 +6341,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="4:13">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="4:13">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:13">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:13">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:13">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="4:11">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="4:11">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="4:11">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="4:11">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>162</v>
       </c>
@@ -6369,7 +6415,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1">
+    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D43" s="15" t="s">
         <v>49</v>
       </c>
@@ -6383,7 +6429,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="4:11">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
@@ -6395,7 +6441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:11">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="20" t="s">
         <v>168</v>
       </c>
@@ -6407,7 +6453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:11">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="20" t="s">
         <v>165</v>
       </c>
@@ -6417,7 +6463,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="4:11">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="20" t="s">
         <v>165</v>
       </c>
@@ -6427,7 +6473,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="4:11">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="20" t="s">
         <v>171</v>
       </c>
@@ -6439,7 +6485,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
@@ -6451,7 +6497,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="20" t="s">
         <v>173</v>
       </c>
@@ -6461,7 +6507,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="3:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
@@ -6471,7 +6517,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
@@ -6481,7 +6527,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
@@ -6491,7 +6537,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
@@ -6501,7 +6547,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
@@ -6511,7 +6557,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
@@ -6521,7 +6567,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
@@ -6531,7 +6577,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>405</v>
       </c>
@@ -6542,7 +6588,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1">
+    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="28">
         <v>1</v>
       </c>
@@ -6557,7 +6603,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1">
+    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
@@ -6573,7 +6619,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1">
+    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -6589,7 +6635,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1">
+    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6605,7 +6651,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1">
+    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6621,7 +6667,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1">
+    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6637,7 +6683,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1">
+    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6653,7 +6699,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1">
+    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6669,7 +6715,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1">
+    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6685,7 +6731,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1">
+    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6701,7 +6747,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1">
+    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6717,7 +6763,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1">
+    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6733,7 +6779,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6749,7 +6795,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1">
+    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6765,7 +6811,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1">
+    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6781,7 +6827,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1">
+    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6797,7 +6843,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1">
+    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6813,7 +6859,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1">
+    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6829,7 +6875,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1">
+    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6845,7 +6891,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1">
+    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6861,7 +6907,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1">
+    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6877,7 +6923,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1">
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6893,7 +6939,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1">
+    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6909,7 +6955,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1">
+    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6925,7 +6971,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1">
+    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6941,7 +6987,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1">
+    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6957,7 +7003,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1">
+    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6973,7 +7019,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1">
+    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6989,7 +7035,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1">
+    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7005,7 +7051,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1">
+    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7021,7 +7067,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1">
+    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7037,7 +7083,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1">
+    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7053,7 +7099,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1">
+    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7069,7 +7115,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1">
+    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7085,7 +7131,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1">
+    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7101,7 +7147,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1">
+    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7117,7 +7163,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1">
+    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7133,7 +7179,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1">
+    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7149,7 +7195,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1">
+    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7165,7 +7211,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1">
+    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7181,7 +7227,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1">
+    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7197,7 +7243,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1">
+    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7213,7 +7259,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1">
+    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7229,7 +7275,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7245,7 +7291,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7261,7 +7307,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7277,7 +7323,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7293,7 +7339,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7309,7 +7355,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7325,7 +7371,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7341,7 +7387,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7357,7 +7403,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7373,7 +7419,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7389,7 +7435,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7405,7 +7451,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7421,7 +7467,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7437,7 +7483,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7453,7 +7499,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7469,7 +7515,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7485,7 +7531,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7501,7 +7547,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7517,7 +7563,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7533,7 +7579,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7549,7 +7595,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1">
+    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7565,7 +7611,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1">
+    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7581,7 +7627,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1">
+    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7597,7 +7643,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1">
+    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -7613,7 +7659,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1">
+    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -7629,7 +7675,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1">
+    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -7645,7 +7691,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1">
+    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -7661,7 +7707,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1">
+    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -7677,7 +7723,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1">
+    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -7693,7 +7739,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1">
+    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -7709,7 +7755,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1">
+    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -7725,7 +7771,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1">
+    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -7741,7 +7787,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1">
+    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -7757,7 +7803,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1">
+    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -7773,7 +7819,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1">
+    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -7789,7 +7835,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1">
+    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -7805,7 +7851,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1">
+    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -7821,7 +7867,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1">
+    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -7837,7 +7883,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1">
+    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -7853,7 +7899,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1">
+    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -7869,7 +7915,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1">
+    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -7885,7 +7931,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1">
+    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -7901,7 +7947,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1">
+    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -7917,7 +7963,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1">
+    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -7933,7 +7979,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1">
+    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -7949,7 +7995,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1">
+    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -7965,7 +8011,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1">
+    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -7981,7 +8027,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1">
+    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -7997,7 +8043,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1">
+    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -8013,7 +8059,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1">
+    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -8029,7 +8075,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1">
+    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -8045,7 +8091,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1">
+    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -8061,7 +8107,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1">
+    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -8077,7 +8123,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1">
+    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -8093,7 +8139,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1">
+    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8109,7 +8155,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1">
+    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8125,7 +8171,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1">
+    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8141,7 +8187,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1">
+    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8157,7 +8203,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1">
+    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8173,7 +8219,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1">
+    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8189,7 +8235,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1">
+    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8205,7 +8251,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1">
+    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8221,7 +8267,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1">
+    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8237,7 +8283,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1">
+    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8253,7 +8299,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1">
+    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8269,7 +8315,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1">
+    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8285,7 +8331,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1">
+    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8301,7 +8347,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1">
+    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8317,7 +8363,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1">
+    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8333,7 +8379,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1">
+    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8349,7 +8395,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1">
+    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8365,7 +8411,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1">
+    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -8381,7 +8427,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1">
+    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8397,7 +8443,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1">
+    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8413,7 +8459,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1">
+    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8429,7 +8475,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1">
+    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8445,7 +8491,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1">
+    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -8461,7 +8507,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1">
+    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8477,7 +8523,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1">
+    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8493,7 +8539,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1">
+    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8509,7 +8555,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1">
+    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8525,7 +8571,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1">
+    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8541,7 +8587,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1">
+    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8557,7 +8603,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1">
+    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -8573,7 +8619,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1">
+    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -8589,7 +8635,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1">
+    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -8605,7 +8651,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1">
+    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -8621,7 +8667,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1">
+    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -8637,7 +8683,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1">
+    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8653,7 +8699,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1">
+    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -8669,7 +8715,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1">
+    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -8685,7 +8731,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1">
+    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -8701,7 +8747,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1">
+    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -8717,7 +8763,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1">
+    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -8733,7 +8779,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1">
+    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -8749,7 +8795,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1">
+    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -8765,7 +8811,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1">
+    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -8781,7 +8827,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1">
+    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -8797,7 +8843,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1">
+    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -8813,7 +8859,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1">
+    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -8829,7 +8875,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1">
+    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -8845,7 +8891,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1">
+    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -8861,7 +8907,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1">
+    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -8877,7 +8923,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1">
+    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -8893,7 +8939,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1">
+    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -8909,7 +8955,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1">
+    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -8925,7 +8971,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1">
+    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -8941,7 +8987,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1">
+    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -8957,7 +9003,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1">
+    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -8973,7 +9019,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1">
+    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -8989,7 +9035,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1">
+    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -9005,7 +9051,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1">
+    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -9021,7 +9067,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1">
+    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -9037,7 +9083,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1">
+    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -9053,7 +9099,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1">
+    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -9069,7 +9115,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1">
+    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -9085,7 +9131,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1">
+    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -9101,7 +9147,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1">
+    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -9117,7 +9163,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1">
+    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -9133,7 +9179,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1">
+    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -9149,7 +9195,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1">
+    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -9165,7 +9211,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1">
+    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -9181,7 +9227,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1">
+    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -9197,7 +9243,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1">
+    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -9213,7 +9259,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1">
+    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -9229,7 +9275,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1">
+    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -9245,7 +9291,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1">
+    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -9261,7 +9307,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1">
+    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -9277,7 +9323,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1">
+    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -9293,7 +9339,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1">
+    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -9309,7 +9355,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>360</v>
       </c>
@@ -9317,7 +9363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="4:6">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>386</v>
       </c>
@@ -9325,7 +9371,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="4:6">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>385</v>
       </c>
@@ -9333,7 +9379,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>367</v>
       </c>
@@ -9341,7 +9387,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="4:6">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>363</v>
       </c>
@@ -9349,7 +9395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="4:6">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>369</v>
       </c>
@@ -9357,7 +9403,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="4:6">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>361</v>
       </c>
@@ -9365,7 +9411,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="4:6">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>400</v>
       </c>
@@ -9373,7 +9419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="4:6">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>366</v>
       </c>
@@ -9381,7 +9427,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="4:6">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>382</v>
       </c>
@@ -9389,7 +9435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="4:6">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>402</v>
       </c>
@@ -9397,202 +9443,202 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="4:6">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="4:6">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="4:6">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="4:6">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="4:6">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="4:6">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="4:4">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="290" spans="4:4">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>370</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="493">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1463,6 +1463,45 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>TABLE: TOOL</t>
+  </si>
+  <si>
+    <t>IDTOLL</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Number Item</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>TABLE: TOOL KIT</t>
+  </si>
+  <si>
+    <t>IDTOLLKIT</t>
+  </si>
+  <si>
+    <t>IDComponent</t>
+  </si>
+  <si>
+    <t>Tool type</t>
+  </si>
+  <si>
+    <t>Kit type</t>
+  </si>
+  <si>
+    <t>Component type</t>
+  </si>
+  <si>
+    <t>IdToolKit</t>
+  </si>
+  <si>
+    <t>TABLE: Kit Components</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1808,6 +1847,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2739,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS60"/>
+  <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5895,6 +5937,167 @@
         <v>110</v>
       </c>
     </row>
+    <row r="67" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="H67" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="M67" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="H70" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="M70" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="H71" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="M71" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="H72" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="M72" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagarciar\Source\Repos\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="494">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1502,6 +1502,10 @@
   </si>
   <si>
     <t>TABLE: Kit Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+REJECTION COMMENT</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1848,6 +1852,9 @@
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2783,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2832,7 @@
     <col min="35" max="35" width="34.7109375" customWidth="1"/>
     <col min="36" max="36" width="4.7109375" customWidth="1"/>
     <col min="37" max="37" width="4.140625" customWidth="1"/>
-    <col min="38" max="38" width="19.5703125" customWidth="1"/>
+    <col min="38" max="38" width="20.42578125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
     <col min="40" max="40" width="30.28515625" customWidth="1"/>
     <col min="43" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -3707,7 +3714,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3771,15 +3778,17 @@
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
+      <c r="AL12" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN12" s="11"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3839,14 +3848,13 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="AM13" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
+      <c r="AL13" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN13" s="11"/>
       <c r="AP13" s="2"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -3904,11 +3912,9 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3964,10 +3970,10 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -4026,10 +4032,10 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -4083,8 +4089,12 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
+      <c r="AL17" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4132,9 +4142,11 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM18" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4181,9 +4193,7 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -4231,7 +4241,9 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
+      <c r="AL20" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -4281,7 +4293,9 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
+      <c r="AL21" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="498">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1506,6 +1506,19 @@
   <si>
     <t xml:space="preserve">
 REJECTION COMMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Approved /  Pending Approval / Denied (Este campo servira para identificar cuando se libere un tecnico de un proyecto)</t>
+  </si>
+  <si>
+    <t>Cuando esta pendiente que se apruebe o niegue la participación el vuelo</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Cuando se aprueba el vuelo</t>
   </si>
 </sst>
 </file>
@@ -2790,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,7 +2848,7 @@
     <col min="38" max="38" width="20.42578125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
     <col min="40" max="40" width="30.28515625" customWidth="1"/>
-    <col min="43" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3634,7 +3647,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3713,6 +3726,15 @@
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
+      <c r="AQ11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS11" s="39" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="12" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -3787,6 +3809,13 @@
       <c r="AN12" s="11"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
+      <c r="AQ12" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS12" s="11"/>
     </row>
     <row r="13" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -3918,6 +3947,12 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
+      <c r="AQ14" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -3978,6 +4013,12 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
+      <c r="AQ15" t="s">
+        <v>496</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -4040,6 +4081,9 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
+      <c r="AQ16" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="499">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1493,9 +1493,6 @@
   </si>
   <si>
     <t>Kit type</t>
-  </si>
-  <si>
-    <t>Component type</t>
   </si>
   <si>
     <t>IdToolKit</t>
@@ -1519,6 +1516,12 @@
   </si>
   <si>
     <t>Cuando se aprueba el vuelo</t>
+  </si>
+  <si>
+    <t>TABLE: TOOLTYPE</t>
+  </si>
+  <si>
+    <t>IDTOLLTYPE</t>
   </si>
 </sst>
 </file>
@@ -2477,6 +2480,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8060531" y="13787437"/>
+          <a:ext cx="381000" cy="726282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2801,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS73"/>
+  <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69:O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="AS11" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
@@ -3801,7 +3857,7 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>18</v>
@@ -3810,7 +3866,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AR12" s="11" t="s">
         <v>18</v>
@@ -3878,7 +3934,7 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM13" s="11" t="s">
         <v>18</v>
@@ -3951,7 +4007,7 @@
         <v>456</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -4014,10 +4070,10 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" t="s">
+        <v>495</v>
+      </c>
+      <c r="AR15" t="s">
         <v>496</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -6007,7 +6063,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="M67" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -6042,119 +6098,161 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="M69" s="8" t="s">
+      <c r="M69" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="N69" s="6" t="s">
+      <c r="N69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="8" t="s">
+      <c r="O69" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="H70" s="6" t="s">
+      <c r="C70" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="H70" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="6"/>
-      <c r="M70" s="6" t="s">
+      <c r="I70" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="31"/>
+      <c r="M70" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="N70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O70" s="6"/>
+      <c r="N70" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O70" s="31"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="H71" s="6" t="s">
+      <c r="C71" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="H71" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="6"/>
-      <c r="M71" s="6" t="s">
+      <c r="I71" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="31"/>
+      <c r="M71" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="N71" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="31"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="H72" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="31"/>
+      <c r="M72" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" s="31"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="31"/>
+      <c r="M73" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="N71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="H72" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="6"/>
-      <c r="M72" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6" t="s">
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
+      <c r="D80" s="32"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="507">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1441,22 +1436,7 @@
     <t>AccountManager</t>
   </si>
   <si>
-    <t>Benton</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Ian, Geoger</t>
-  </si>
-  <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>Rol Description</t>
-  </si>
-  <si>
-    <t>Angel</t>
   </si>
   <si>
     <t>Cuando el tecnico se aprueba la asignación a la PO. Cuando se asignado cambia el status en la tabla de tecnico y se guarda el numero de PO</t>
@@ -1522,16 +1502,55 @@
   </si>
   <si>
     <t>IDTOLLTYPE</t>
+  </si>
+  <si>
+    <t>Role Description</t>
+  </si>
+  <si>
+    <t>Angel Lavalle</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>Doug Hudson</t>
+  </si>
+  <si>
+    <t>Peter Tattersfield</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Gilbert Murrieta</t>
+  </si>
+  <si>
+    <t>En que momento se asigna a la Farm, ¿En el contrato?</t>
+  </si>
+  <si>
+    <t>Ian Price, George Tapia</t>
+  </si>
+  <si>
+    <t>Benton Moore</t>
+  </si>
+  <si>
+    <t>Resource Manager</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>By JOB? Or Zone or PO?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,9 +1841,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1843,10 +1862,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1873,6 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1911,7 +1931,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1986,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2041,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2094,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2147,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2200,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2253,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2306,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2359,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2412,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2465,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2518,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2611,27 +2631,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2663,24 +2665,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2856,14 +2840,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="M69" sqref="M69:O73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -2909,7 +2893,7 @@
     <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2951,7 +2935,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2995,7 +2979,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -3060,7 +3044,7 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -3161,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -3252,7 +3236,7 @@
       </c>
       <c r="AS5" s="11"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -3341,7 +3325,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3432,7 +3416,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3527,7 +3511,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3614,7 +3598,7 @@
       </c>
       <c r="AS9" s="11"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3703,7 +3687,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="45.75">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3789,10 +3773,10 @@
         <v>18</v>
       </c>
       <c r="AS11" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="23.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3857,7 +3841,7 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="39" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>18</v>
@@ -3866,14 +3850,14 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="39" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AR12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AS12" s="11"/>
     </row>
-    <row r="13" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="23.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -3934,7 +3918,7 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="39" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AM13" s="11" t="s">
         <v>18</v>
@@ -3942,7 +3926,7 @@
       <c r="AN13" s="11"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3997,7 +3981,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
@@ -4007,10 +3991,10 @@
         <v>456</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -4064,19 +4048,19 @@
         <v>454</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AR15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -4141,7 +4125,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4199,7 +4183,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4251,7 +4235,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4299,7 +4283,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4349,7 +4333,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4401,7 +4385,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4451,7 +4435,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4501,7 +4485,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4551,7 +4535,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4595,7 +4579,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4639,7 +4623,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4683,7 +4667,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4727,7 +4711,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4771,7 +4755,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4815,7 +4799,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4859,7 +4843,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4900,7 +4884,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4937,7 +4921,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -4975,7 +4959,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -5034,7 +5018,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -5092,7 +5076,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -5148,7 +5132,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -5204,7 +5188,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -5260,7 +5244,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -5316,7 +5300,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -5376,7 +5360,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -5427,7 +5411,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -5472,7 +5456,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -5517,7 +5501,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -5562,7 +5546,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -5607,7 +5591,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -5652,7 +5636,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5697,7 +5681,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -5740,7 +5724,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -5783,7 +5767,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5817,7 +5801,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -5854,7 +5838,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -5885,7 +5869,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5918,7 +5902,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -5946,7 +5930,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -5974,7 +5958,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -6002,7 +5986,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
@@ -6022,7 +6006,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="B59" s="31" t="s">
         <v>431</v>
       </c>
@@ -6040,7 +6024,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -6051,24 +6035,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="23.25">
       <c r="B67" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="H67" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="M67" s="38" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15">
       <c r="B68" s="5" t="s">
         <v>0</v>
       </c>
@@ -6097,9 +6081,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15">
       <c r="B69" s="32" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>20</v>
@@ -6108,7 +6092,7 @@
         <v>83</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>20</v>
@@ -6117,7 +6101,7 @@
         <v>83</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N69" s="31" t="s">
         <v>20</v>
@@ -6126,106 +6110,106 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15">
       <c r="B70" s="31" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C70" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="31"/>
       <c r="H70" s="31" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I70" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J70" s="31"/>
       <c r="M70" s="31" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N70" s="31" t="s">
         <v>18</v>
       </c>
       <c r="O70" s="31"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15">
       <c r="B71" s="31" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="31"/>
       <c r="H71" s="31" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I71" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J71" s="31"/>
       <c r="M71" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="N71" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="31"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="31" t="s">
         <v>483</v>
-      </c>
-      <c r="N71" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71" s="31"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="31" t="s">
-        <v>488</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="31"/>
       <c r="H72" s="31" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I72" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J72" s="31"/>
       <c r="M72" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" s="31"/>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="N72" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O72" s="31"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>484</v>
-      </c>
       <c r="H73" s="31" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I73" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="31"/>
       <c r="M73" s="31" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15">
       <c r="B78" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15">
       <c r="B79" s="5" t="s">
         <v>0</v>
       </c>
@@ -6236,18 +6220,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15">
       <c r="B80" s="32" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="32"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" s="31" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>18</v>
@@ -6262,15 +6246,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:R290"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -6284,7 +6268,7 @@
     <col min="18" max="18" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:18">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -6303,13 +6287,13 @@
         <v>464</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -6328,11 +6312,13 @@
         <v>465</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="4:18">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -6351,10 +6337,12 @@
       <c r="P4" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -6374,11 +6362,11 @@
         <v>467</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -6397,10 +6385,12 @@
       <c r="P6" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -6419,10 +6409,14 @@
       <c r="P7" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -6442,11 +6436,11 @@
         <v>470</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -6466,11 +6460,11 @@
         <v>471</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -6486,8 +6480,17 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -6504,7 +6507,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -6521,7 +6524,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -6538,7 +6541,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -6555,7 +6558,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6572,7 +6575,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -6589,7 +6592,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13">
       <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
@@ -6606,7 +6609,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13">
       <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
@@ -6623,7 +6626,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13">
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
@@ -6640,7 +6643,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13">
       <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
@@ -6657,7 +6660,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13">
       <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
@@ -6674,7 +6677,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13">
       <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13">
       <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13">
       <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
@@ -6700,73 +6703,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1">
       <c r="D42" t="s">
         <v>162</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="4:11" ht="24.75" thickBot="1">
       <c r="D43" s="15" t="s">
         <v>49</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11">
       <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11">
       <c r="D45" s="20" t="s">
         <v>168</v>
       </c>
@@ -6812,7 +6815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11">
       <c r="D46" s="20" t="s">
         <v>165</v>
       </c>
@@ -6822,7 +6825,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11">
       <c r="D47" s="20" t="s">
         <v>165</v>
       </c>
@@ -6832,7 +6835,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11">
       <c r="D48" s="20" t="s">
         <v>171</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7">
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7">
       <c r="D50" s="20" t="s">
         <v>173</v>
       </c>
@@ -6866,7 +6869,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7">
       <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
@@ -6876,7 +6879,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7">
       <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
@@ -6886,7 +6889,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7">
       <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
@@ -6896,7 +6899,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7">
       <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
@@ -6906,7 +6909,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7">
       <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
@@ -6916,7 +6919,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7">
       <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
@@ -6926,7 +6929,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1">
       <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
@@ -6936,7 +6939,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7">
       <c r="C60" t="s">
         <v>405</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" hidden="1">
       <c r="C61" s="28">
         <v>1</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" hidden="1">
       <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
@@ -6978,7 +6981,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" hidden="1">
       <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -6994,7 +6997,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" hidden="1">
       <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7010,7 +7013,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" hidden="1">
       <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7026,7 +7029,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" hidden="1">
       <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7042,7 +7045,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" hidden="1">
       <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7058,7 +7061,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" hidden="1">
       <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7074,7 +7077,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" hidden="1">
       <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7090,7 +7093,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" hidden="1">
       <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7106,7 +7109,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" hidden="1">
       <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7122,7 +7125,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" hidden="1">
       <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7138,7 +7141,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7">
       <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7154,7 +7157,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" hidden="1">
       <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7170,7 +7173,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" hidden="1">
       <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7186,7 +7189,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" hidden="1">
       <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7202,7 +7205,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" hidden="1">
       <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7218,7 +7221,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" hidden="1">
       <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7234,7 +7237,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" hidden="1">
       <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7250,7 +7253,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" hidden="1">
       <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7266,7 +7269,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" hidden="1">
       <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7282,7 +7285,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" hidden="1">
       <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7298,7 +7301,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" hidden="1">
       <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7314,7 +7317,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" hidden="1">
       <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7330,7 +7333,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" hidden="1">
       <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7346,7 +7349,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" hidden="1">
       <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7362,7 +7365,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" hidden="1">
       <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7378,7 +7381,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" hidden="1">
       <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7394,7 +7397,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" hidden="1">
       <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7410,7 +7413,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" hidden="1">
       <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7426,7 +7429,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" hidden="1">
       <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7442,7 +7445,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" hidden="1">
       <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7458,7 +7461,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" hidden="1">
       <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7474,7 +7477,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" hidden="1">
       <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7490,7 +7493,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" hidden="1">
       <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7506,7 +7509,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" hidden="1">
       <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7522,7 +7525,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" hidden="1">
       <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7538,7 +7541,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" hidden="1">
       <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7554,7 +7557,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" hidden="1">
       <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7570,7 +7573,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" hidden="1">
       <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7586,7 +7589,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" hidden="1">
       <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7602,7 +7605,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" hidden="1">
       <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7618,7 +7621,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" hidden="1">
       <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7634,7 +7637,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7">
       <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7650,7 +7653,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7">
       <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7666,7 +7669,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7">
       <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7682,7 +7685,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7">
       <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7698,7 +7701,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7">
       <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7714,7 +7717,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7">
       <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7730,7 +7733,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7">
       <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7746,7 +7749,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7">
       <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7762,7 +7765,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7">
       <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7778,7 +7781,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7">
       <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7794,7 +7797,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7">
       <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7810,7 +7813,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7">
       <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7826,7 +7829,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7">
       <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7842,7 +7845,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7">
       <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7858,7 +7861,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7">
       <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7874,7 +7877,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7">
       <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7890,7 +7893,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7">
       <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7906,7 +7909,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7">
       <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7922,7 +7925,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7">
       <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7938,7 +7941,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7">
       <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7954,7 +7957,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" hidden="1">
       <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7970,7 +7973,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" hidden="1">
       <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7986,7 +7989,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" hidden="1">
       <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -8002,7 +8005,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" hidden="1">
       <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -8018,7 +8021,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" hidden="1">
       <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -8034,7 +8037,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" hidden="1">
       <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -8050,7 +8053,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" hidden="1">
       <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -8066,7 +8069,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" hidden="1">
       <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -8082,7 +8085,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" hidden="1">
       <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -8098,7 +8101,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" hidden="1">
       <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -8114,7 +8117,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" hidden="1">
       <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -8130,7 +8133,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" hidden="1">
       <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -8146,7 +8149,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" hidden="1">
       <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -8162,7 +8165,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" hidden="1">
       <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -8178,7 +8181,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" hidden="1">
       <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -8194,7 +8197,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" hidden="1">
       <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -8210,7 +8213,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" hidden="1">
       <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -8226,7 +8229,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" hidden="1">
       <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -8242,7 +8245,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" hidden="1">
       <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -8258,7 +8261,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" hidden="1">
       <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -8274,7 +8277,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" hidden="1">
       <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -8290,7 +8293,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" hidden="1">
       <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -8306,7 +8309,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" hidden="1">
       <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -8322,7 +8325,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" hidden="1">
       <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -8338,7 +8341,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" hidden="1">
       <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -8354,7 +8357,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" hidden="1">
       <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -8370,7 +8373,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" hidden="1">
       <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -8386,7 +8389,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" hidden="1">
       <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -8402,7 +8405,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" hidden="1">
       <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -8418,7 +8421,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" hidden="1">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -8434,7 +8437,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" hidden="1">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -8450,7 +8453,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" hidden="1">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -8466,7 +8469,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" hidden="1">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -8482,7 +8485,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" hidden="1">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -8498,7 +8501,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" hidden="1">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8514,7 +8517,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" hidden="1">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8530,7 +8533,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" hidden="1">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8546,7 +8549,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" hidden="1">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8562,7 +8565,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" hidden="1">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8578,7 +8581,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" hidden="1">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8594,7 +8597,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" hidden="1">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8610,7 +8613,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" hidden="1">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8626,7 +8629,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" hidden="1">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8642,7 +8645,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" hidden="1">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8658,7 +8661,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" hidden="1">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8674,7 +8677,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" hidden="1">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8690,7 +8693,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" hidden="1">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8706,7 +8709,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" hidden="1">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8722,7 +8725,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" hidden="1">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8738,7 +8741,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" hidden="1">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8754,7 +8757,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" hidden="1">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8770,7 +8773,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" hidden="1">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -8786,7 +8789,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" hidden="1">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8802,7 +8805,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" hidden="1">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8818,7 +8821,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" hidden="1">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8834,7 +8837,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" hidden="1">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8850,7 +8853,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" hidden="1">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -8866,7 +8869,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" hidden="1">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8882,7 +8885,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" hidden="1">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8898,7 +8901,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" hidden="1">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8914,7 +8917,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" hidden="1">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8930,7 +8933,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" hidden="1">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8946,7 +8949,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" hidden="1">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8962,7 +8965,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" hidden="1">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -8978,7 +8981,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" hidden="1">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -8994,7 +8997,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" hidden="1">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -9010,7 +9013,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" hidden="1">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -9026,7 +9029,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" hidden="1">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -9042,7 +9045,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" hidden="1">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -9058,7 +9061,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" hidden="1">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -9074,7 +9077,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" hidden="1">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -9090,7 +9093,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" hidden="1">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -9106,7 +9109,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" hidden="1">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -9122,7 +9125,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" hidden="1">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -9138,7 +9141,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" hidden="1">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -9154,7 +9157,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" hidden="1">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -9170,7 +9173,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" hidden="1">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -9186,7 +9189,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" hidden="1">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -9202,7 +9205,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" hidden="1">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -9218,7 +9221,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" hidden="1">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -9234,7 +9237,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" hidden="1">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -9250,7 +9253,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" hidden="1">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -9266,7 +9269,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" hidden="1">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -9282,7 +9285,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" hidden="1">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -9298,7 +9301,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" hidden="1">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -9314,7 +9317,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" hidden="1">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -9330,7 +9333,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" hidden="1">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -9346,7 +9349,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" hidden="1">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -9362,7 +9365,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" hidden="1">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -9378,7 +9381,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" hidden="1">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -9394,7 +9397,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" hidden="1">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -9410,7 +9413,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" hidden="1">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -9426,7 +9429,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" hidden="1">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -9442,7 +9445,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" hidden="1">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -9458,7 +9461,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" hidden="1">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -9474,7 +9477,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" hidden="1">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -9490,7 +9493,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" hidden="1">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -9506,7 +9509,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" hidden="1">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -9522,7 +9525,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" hidden="1">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -9538,7 +9541,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" hidden="1">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -9554,7 +9557,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" hidden="1">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -9570,7 +9573,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" hidden="1">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -9586,7 +9589,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" hidden="1">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -9602,7 +9605,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" hidden="1">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -9618,7 +9621,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" hidden="1">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -9634,7 +9637,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" hidden="1">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -9650,7 +9653,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" hidden="1">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -9666,7 +9669,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" hidden="1">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -9682,7 +9685,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" hidden="1">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -9698,7 +9701,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" hidden="1">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -9714,7 +9717,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7">
       <c r="D240" t="s">
         <v>360</v>
       </c>
@@ -9722,7 +9725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6">
       <c r="D241" t="s">
         <v>386</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6">
       <c r="D242" t="s">
         <v>385</v>
       </c>
@@ -9738,7 +9741,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6">
       <c r="D243" t="s">
         <v>367</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6">
       <c r="D244" t="s">
         <v>363</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6">
       <c r="D245" t="s">
         <v>369</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6">
       <c r="D246" t="s">
         <v>361</v>
       </c>
@@ -9770,7 +9773,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6">
       <c r="D247" t="s">
         <v>400</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6">
       <c r="D248" t="s">
         <v>366</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6">
       <c r="D249" t="s">
         <v>382</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6">
       <c r="D250" t="s">
         <v>402</v>
       </c>
@@ -9802,202 +9805,202 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6">
       <c r="D251" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6">
       <c r="D252" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6">
       <c r="D253" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6">
       <c r="D254" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6">
       <c r="D255" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6">
       <c r="D256" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4">
       <c r="D257" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4">
       <c r="D258" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4">
       <c r="D259" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4">
       <c r="D260" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4">
       <c r="D261" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4">
       <c r="D262" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4">
       <c r="D263" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4">
       <c r="D264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4">
       <c r="D265" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4">
       <c r="D266" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4">
       <c r="D267" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4">
       <c r="D268" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4">
       <c r="D269" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4">
       <c r="D270" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4">
       <c r="D271" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4">
       <c r="D272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4">
       <c r="D273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4">
       <c r="D274" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4">
       <c r="D275" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4">
       <c r="D276" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4">
       <c r="D277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4">
       <c r="D278" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4">
       <c r="D279" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4">
       <c r="D280" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4">
       <c r="D281" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4">
       <c r="D282" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4">
       <c r="D283" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4">
       <c r="D284" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4">
       <c r="D285" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4">
       <c r="D286" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4">
       <c r="D287" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4">
       <c r="D288" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4">
       <c r="D289" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4">
       <c r="D290" t="s">
         <v>370</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="514">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1427,13 +1427,7 @@
     <t>Technician</t>
   </si>
   <si>
-    <t>FieldSupervisor</t>
-  </si>
-  <si>
     <t>FieldManager</t>
-  </si>
-  <si>
-    <t>AccountManager</t>
   </si>
   <si>
     <t>Example</t>
@@ -1522,12 +1516,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Gilbert Murrieta</t>
-  </si>
-  <si>
-    <t>En que momento se asigna a la Farm, ¿En el contrato?</t>
-  </si>
-  <si>
     <t>Ian Price, George Tapia</t>
   </si>
   <si>
@@ -1537,10 +1525,43 @@
     <t>Resource Manager</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>By JOB? Or Zone or PO?</t>
+    <t>Anticipos</t>
+  </si>
+  <si>
+    <t>Accounts &amp; Assets Manager</t>
+  </si>
+  <si>
+    <t>Account &amp; Financial Manager</t>
+  </si>
+  <si>
+    <t>Robbie Gallo</t>
+  </si>
+  <si>
+    <t>Brent Berentson</t>
+  </si>
+  <si>
+    <t>EHS Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificados, Caducidad, Capacitacion, </t>
+  </si>
+  <si>
+    <t>Herramientas, Compa de herramientas, Embargues</t>
+  </si>
+  <si>
+    <t>Autoriza Tecnicos, Vuelos, asigna al Resouce Manager</t>
+  </si>
+  <si>
+    <t>Gilbert Murrieta / Delfino Alarcon</t>
+  </si>
+  <si>
+    <t>Vendedor, Genera RFQ, Cotiza</t>
+  </si>
+  <si>
+    <t>Convierte RFQ a Contrato</t>
+  </si>
+  <si>
+    <t>Asiga a los tecnicos, Actuliza estatus de PO y Contratos</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1952,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +2007,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2062,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2115,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2168,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2221,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2274,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2327,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2380,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2433,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2486,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2539,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3773,7 +3794,7 @@
         <v>18</v>
       </c>
       <c r="AS11" s="39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="23.25">
@@ -3841,7 +3862,7 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>18</v>
@@ -3850,7 +3871,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AR12" s="11" t="s">
         <v>18</v>
@@ -3918,7 +3939,7 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AM13" s="11" t="s">
         <v>18</v>
@@ -3981,7 +4002,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
@@ -3991,7 +4012,7 @@
         <v>456</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -4048,16 +4069,16 @@
         <v>454</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AR15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -6037,17 +6058,17 @@
     </row>
     <row r="67" spans="2:15" ht="23.25">
       <c r="B67" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="H67" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="M67" s="38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -6083,7 +6104,7 @@
     </row>
     <row r="69" spans="2:15">
       <c r="B69" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>20</v>
@@ -6092,7 +6113,7 @@
         <v>83</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>20</v>
@@ -6101,7 +6122,7 @@
         <v>83</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N69" s="31" t="s">
         <v>20</v>
@@ -6112,21 +6133,21 @@
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C70" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="31"/>
       <c r="H70" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I70" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J70" s="31"/>
       <c r="M70" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N70" s="31" t="s">
         <v>18</v>
@@ -6135,21 +6156,21 @@
     </row>
     <row r="71" spans="2:15">
       <c r="B71" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="31"/>
       <c r="H71" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I71" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J71" s="31"/>
       <c r="M71" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N71" s="31" t="s">
         <v>18</v>
@@ -6158,21 +6179,21 @@
     </row>
     <row r="72" spans="2:15">
       <c r="B72" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="31"/>
       <c r="H72" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I72" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J72" s="31"/>
       <c r="M72" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>18</v>
@@ -6181,30 +6202,30 @@
     </row>
     <row r="73" spans="2:15">
       <c r="B73" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I73" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="31"/>
       <c r="M73" s="31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6222,7 +6243,7 @@
     </row>
     <row r="80" spans="2:15">
       <c r="B80" s="32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>20</v>
@@ -6231,7 +6252,7 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>18</v>
@@ -6250,8 +6271,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:R10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6264,8 +6285,8 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:18">
@@ -6287,10 +6308,10 @@
         <v>464</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="4:18">
@@ -6312,10 +6333,10 @@
         <v>465</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="4:18">
@@ -6338,9 +6359,11 @@
         <v>466</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="R4" s="1"/>
+        <v>495</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="5" spans="4:18">
       <c r="D5" s="12" t="s">
@@ -6362,9 +6385,11 @@
         <v>467</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="R5" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="6" spans="4:18">
       <c r="D6" s="12" t="s">
@@ -6386,7 +6411,7 @@
         <v>468</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="R6" s="1"/>
     </row>
@@ -6406,14 +6431,14 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="P7" s="1" t="s">
-        <v>469</v>
+      <c r="P7" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="4:18">
@@ -6433,12 +6458,14 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="P8" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="R8" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="9" spans="4:18">
       <c r="D9" s="12" t="s">
@@ -6457,12 +6484,14 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="P9" s="1" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="R9" s="1"/>
+        <v>499</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="10" spans="4:18">
       <c r="D10" s="12" t="s">
@@ -6481,13 +6510,13 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="P10" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q10" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="Q10" s="40" t="s">
-        <v>505</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="4:18">
@@ -6506,6 +6535,15 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
+      <c r="P11" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="12" spans="4:18">
       <c r="D12" s="12" t="s">

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="538">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1562,6 +1562,78 @@
   </si>
   <si>
     <t>Asiga a los tecnicos, Actuliza estatus de PO y Contratos</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>no-reply@appsmerida.com</t>
+  </si>
+  <si>
+    <t>pruebamail@appsmerida.com</t>
+  </si>
+  <si>
+    <t>admin@axis.com</t>
+  </si>
+  <si>
+    <t>dhudson@axisrg.com</t>
+  </si>
+  <si>
+    <t>ptattersfield@axisrg.com</t>
+  </si>
+  <si>
+    <t>prueba@axisrg.com</t>
+  </si>
+  <si>
+    <t>gmurrieta@axisrg.com, dalarcon@axisrg.com</t>
+  </si>
+  <si>
+    <t>bmoore@axisrg.com</t>
+  </si>
+  <si>
+    <t>rgallo@axisrg.com</t>
+  </si>
+  <si>
+    <t>bberentson@axisrg.com</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>iprice@axisrg.com; gtapia@axisrg.com</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Prueba.2017</t>
+  </si>
+  <si>
+    <t>Tecnico.2017</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>AFManager</t>
+  </si>
+  <si>
+    <t>EHSManager</t>
+  </si>
+  <si>
+    <t>RSourceManager</t>
+  </si>
+  <si>
+    <t>AAManager</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>IdRol</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,6 +1709,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1860,11 +1939,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1914,9 +1997,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1952,7 +2039,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2094,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2149,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2202,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2255,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2308,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2361,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2414,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2467,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2520,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2573,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2626,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6269,10 +6356,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="C2:R290"/>
+  <dimension ref="C2:W290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6284,12 +6371,17 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" customWidth="1"/>
-    <col min="18" max="18" width="50" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="41.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" customWidth="1"/>
+    <col min="22" max="22" width="49.5703125" customWidth="1"/>
+    <col min="23" max="23" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18">
+    <row r="2" spans="4:23">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -6308,13 +6400,28 @@
         <v>464</v>
       </c>
       <c r="Q2" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="U2" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="V2" s="37" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="3" spans="4:18">
+      <c r="W2" s="41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="4:23">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -6332,14 +6439,27 @@
       <c r="P3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="T3" s="43"/>
+      <c r="U3" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="4" spans="4:18">
+      <c r="W3" s="42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="4:23">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -6356,16 +6476,31 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="P4" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>495</v>
+        <v>469</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="4:18">
+        <v>469</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="4:23">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -6382,16 +6517,31 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="P5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="4:18">
+        <v>532</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -6407,15 +6557,32 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="P6" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="4:18">
+      <c r="P6" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>5</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -6431,17 +6598,32 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="P7" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>510</v>
+      <c r="P7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>467</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -6457,17 +6639,32 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="P8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18">
+      <c r="P8" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>7</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -6483,17 +6680,32 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="P9" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18">
+      <c r="P9" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>8</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -6509,17 +6721,32 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="P10" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>504</v>
+      <c r="P10" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>9</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18">
+        <v>536</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="4:23">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -6535,17 +6762,30 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="P11" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>505</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18">
+      <c r="P11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -6562,7 +6802,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:23">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -6579,7 +6819,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:23">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -6596,7 +6836,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:23">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6613,7 +6853,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:23">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -10055,7 +10295,18 @@
   <sortState ref="D61:E233">
     <sortCondition ref="D60"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="W3" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S10" r:id="rId3"/>
+    <hyperlink ref="S7" r:id="rId4"/>
+    <hyperlink ref="S11" r:id="rId5"/>
+    <hyperlink ref="S8" r:id="rId6" display="gmurrieta@axisrg.com"/>
+    <hyperlink ref="S5" r:id="rId7"/>
+    <hyperlink ref="S9" r:id="rId8"/>
+    <hyperlink ref="S6" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="550">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1634,16 +1640,53 @@
   </si>
   <si>
     <t>IdRol</t>
+  </si>
+  <si>
+    <t>TABLE: ASSIGNMENT OF TOOLS</t>
+  </si>
+  <si>
+    <t>AssigmentToolId</t>
+  </si>
+  <si>
+    <t>Supplied by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner, PURCHASE REQUEST TO , RENT (invoice , Cost), SELECT INVENTORY ASSET 
+</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>El costo de la renta o la compra</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Esta campo se activa se se realiza una orden de compra o renta</t>
+  </si>
+  <si>
+    <t>Order Number</t>
+  </si>
+  <si>
+    <t>PurchaseOrderId</t>
+  </si>
+  <si>
+    <t>Relacion con PO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,13 +1984,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1966,10 +2009,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2000,6 +2043,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2039,7 +2088,7 @@
         <xdr:cNvPr id="3" name="Elbow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2143,7 @@
         <xdr:cNvPr id="5" name="Elbow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2198,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2251,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2304,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2357,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2410,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2463,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2516,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2569,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2622,7 @@
         <xdr:cNvPr id="4" name="Connector: Elbow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AB44A-FAD2-4C84-9E6D-4232800A8E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2675,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8762C4-75E4-4CAA-876C-291079BE25E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,6 +2685,112 @@
         <a:xfrm>
           <a:off x="8060531" y="13787437"/>
           <a:ext cx="381000" cy="726282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB1A7FE-85B1-40C1-82DE-6984A8D635A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3259932" y="2809875"/>
+          <a:ext cx="23576755" cy="16583026"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>261938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967EE2BB-7F67-44F5-B8E5-22CBD2DBE390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8048625" y="2750344"/>
+          <a:ext cx="18526125" cy="11965782"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2707,7 +2862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2739,9 +2894,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2773,6 +2946,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2948,14 +3139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69:O73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -3001,7 +3192,7 @@
     <col min="45" max="45" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3043,7 +3234,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3087,7 +3278,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -3152,7 +3343,7 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -3253,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -3344,7 +3535,7 @@
       </c>
       <c r="AS5" s="11"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -3433,7 +3624,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -3524,7 +3715,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3619,7 +3810,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -3706,7 +3897,7 @@
       </c>
       <c r="AS9" s="11"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -3795,7 +3986,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="45.75">
+    <row r="11" spans="1:45" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -3884,7 +4075,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="23.25">
+    <row r="12" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3965,7 +4156,7 @@
       </c>
       <c r="AS12" s="11"/>
     </row>
-    <row r="13" spans="1:45" ht="23.25">
+    <row r="13" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -4034,7 +4225,7 @@
       <c r="AN13" s="11"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -4102,7 +4293,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -4168,7 +4359,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -4233,7 +4424,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4291,7 +4482,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4343,7 +4534,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4391,7 +4582,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4441,7 +4632,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4493,7 +4684,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4543,7 +4734,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4593,7 +4784,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4643,7 +4834,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4687,7 +4878,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4731,7 +4922,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4775,7 +4966,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4819,7 +5010,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4863,7 +5054,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4907,7 +5098,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4951,7 +5142,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4992,7 +5183,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5029,7 +5220,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>77</v>
@@ -5067,7 +5258,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -5126,7 +5317,7 @@
       <c r="Z35" s="29"/>
       <c r="AC35" s="29"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>82</v>
@@ -5184,7 +5375,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
@@ -5240,7 +5431,7 @@
       </c>
       <c r="Z37" s="30"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -5296,7 +5487,7 @@
       </c>
       <c r="Z38" s="30"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -5352,7 +5543,7 @@
       </c>
       <c r="Z39" s="30"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>76</v>
@@ -5408,7 +5599,7 @@
       </c>
       <c r="Z40" s="30"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>134</v>
@@ -5468,7 +5659,7 @@
       </c>
       <c r="Z41" s="30"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
         <v>135</v>
@@ -5519,7 +5710,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -5564,7 +5755,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>136</v>
@@ -5609,7 +5800,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>16</v>
@@ -5654,7 +5845,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -5699,7 +5890,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -5744,7 +5935,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -5789,7 +5980,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -5832,7 +6023,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -5875,7 +6066,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5909,7 +6100,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>74</v>
@@ -5946,7 +6137,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -5977,7 +6168,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -6010,7 +6201,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -6038,7 +6229,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -6066,7 +6257,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -6094,7 +6285,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
@@ -6114,7 +6305,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>431</v>
       </c>
@@ -6132,7 +6323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M60" s="8" t="s">
         <v>128</v>
       </c>
@@ -6143,7 +6334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="23.25">
+    <row r="67" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>473</v>
       </c>
@@ -6160,7 +6351,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>0</v>
       </c>
@@ -6189,7 +6380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="32" t="s">
         <v>474</v>
       </c>
@@ -6218,7 +6409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="31" t="s">
         <v>475</v>
       </c>
@@ -6241,7 +6432,7 @@
       </c>
       <c r="O70" s="31"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="31" t="s">
         <v>476</v>
       </c>
@@ -6264,7 +6455,7 @@
       </c>
       <c r="O71" s="31"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>481</v>
       </c>
@@ -6287,7 +6478,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="31" t="s">
         <v>472</v>
       </c>
@@ -6310,14 +6501,25 @@
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H74" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>490</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>0</v>
       </c>
@@ -6328,7 +6530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="32" t="s">
         <v>491</v>
       </c>
@@ -6337,7 +6539,7 @@
       </c>
       <c r="D80" s="32"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>475</v>
       </c>
@@ -6345,6 +6547,84 @@
         <v>18</v>
       </c>
       <c r="D81" s="31"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="44" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D87" s="40"/>
+    </row>
+    <row r="88" spans="2:4" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="B88" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B90" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="47"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>549</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6354,15 +6634,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="C2:W290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -6381,7 +6661,7 @@
     <col min="23" max="23" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:23">
+    <row r="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -6421,7 +6701,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="4:23">
+    <row r="3" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
@@ -6459,7 +6739,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="4:23">
+    <row r="4" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
@@ -6500,7 +6780,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="4:23">
+    <row r="5" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
@@ -6541,7 +6821,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="4:23">
+    <row r="6" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
@@ -6582,7 +6862,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="4:23">
+    <row r="7" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
@@ -6623,7 +6903,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="4:23">
+    <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>58</v>
       </c>
@@ -6664,7 +6944,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="4:23">
+    <row r="9" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
@@ -6705,7 +6985,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="4:23">
+    <row r="10" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>58</v>
       </c>
@@ -6746,7 +7026,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="4:23">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
@@ -6785,7 +7065,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="4:23">
+    <row r="12" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
@@ -6802,7 +7082,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="4:23">
+    <row r="13" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
@@ -6819,7 +7099,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="4:23">
+    <row r="14" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -6836,7 +7116,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="4:23">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6853,7 +7133,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="4:23">
+    <row r="16" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
@@ -6870,7 +7150,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
@@ -6887,7 +7167,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
@@ -6904,7 +7184,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
@@ -6921,7 +7201,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
@@ -6938,7 +7218,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
@@ -6955,7 +7235,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
@@ -6964,7 +7244,7 @@
         <v>CONSTRUCT: COMMISION</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>59</v>
       </c>
@@ -6973,7 +7253,7 @@
         <v>CONSTRUCT: OPEN</v>
       </c>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
@@ -6981,73 +7261,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="4:13">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="4:13">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:13">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:13">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:13">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="4:11">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="4:11">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="4:11">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="4:11">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="4:11" ht="15.75" thickBot="1">
+    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>162</v>
       </c>
@@ -7055,7 +7335,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="4:11" ht="24.75" thickBot="1">
+    <row r="43" spans="4:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D43" s="15" t="s">
         <v>49</v>
       </c>
@@ -7069,7 +7349,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="4:11">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
@@ -7081,7 +7361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:11">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="20" t="s">
         <v>168</v>
       </c>
@@ -7093,7 +7373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:11">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="20" t="s">
         <v>165</v>
       </c>
@@ -7103,7 +7383,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="4:11">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="20" t="s">
         <v>165</v>
       </c>
@@ -7113,7 +7393,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="4:11">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="20" t="s">
         <v>171</v>
       </c>
@@ -7125,7 +7405,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
@@ -7137,7 +7417,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="20" t="s">
         <v>173</v>
       </c>
@@ -7147,7 +7427,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="3:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
@@ -7157,7 +7437,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
@@ -7167,7 +7447,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
@@ -7177,7 +7457,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" s="20" t="s">
         <v>178</v>
       </c>
@@ -7187,7 +7467,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
@@ -7197,7 +7477,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" s="20" t="s">
         <v>180</v>
       </c>
@@ -7207,7 +7487,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="23" t="s">
         <v>181</v>
       </c>
@@ -7217,7 +7497,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>405</v>
       </c>
@@ -7228,7 +7508,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="3:7" hidden="1">
+    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="28">
         <v>1</v>
       </c>
@@ -7243,7 +7523,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-77');</v>
       </c>
     </row>
-    <row r="62" spans="3:7" hidden="1">
+    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="28">
         <f>+C61+1</f>
         <v>2</v>
@@ -7259,7 +7539,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('AAER', 'A1500-70');</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1">
+    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="28">
         <f t="shared" ref="C63:C126" si="1">+C62+1</f>
         <v>3</v>
@@ -7275,7 +7555,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-116');</v>
       </c>
     </row>
-    <row r="64" spans="3:7" hidden="1">
+    <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7291,7 +7571,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW3000-109');</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1">
+    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7307,7 +7587,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-82');</v>
       </c>
     </row>
-    <row r="66" spans="3:7" hidden="1">
+    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7323,7 +7603,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Acciona', 'AW1500-77');</v>
       </c>
     </row>
-    <row r="67" spans="3:7" hidden="1">
+    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7339,7 +7619,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeroman', 'Aeroman 14.8');</v>
       </c>
     </row>
-    <row r="68" spans="3:7" hidden="1">
+    <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7355,7 +7635,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'Aeronautic 47');</v>
       </c>
     </row>
-    <row r="69" spans="3:7" hidden="1">
+    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7371,7 +7651,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Aeronautica', 'A54-750');</v>
       </c>
     </row>
-    <row r="70" spans="3:7" hidden="1">
+    <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7387,7 +7667,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO100');</v>
       </c>
     </row>
-    <row r="71" spans="3:7" hidden="1">
+    <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7403,7 +7683,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Alstom', 'ECO86');</v>
       </c>
     </row>
-    <row r="72" spans="3:7" hidden="1">
+    <row r="72" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7419,7 +7699,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Atlantic Orient', 'AOC 15/50');</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7435,7 +7715,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Bergey Windpower', 'XL50');</v>
       </c>
     </row>
-    <row r="74" spans="3:7" hidden="1">
+    <row r="74" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7451,7 +7731,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('CCWE', 'CCWE-3600D/115');</v>
       </c>
     </row>
-    <row r="75" spans="3:7" hidden="1">
+    <row r="75" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7467,7 +7747,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-96');</v>
       </c>
     </row>
-    <row r="76" spans="3:7" hidden="1">
+    <row r="76" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7483,7 +7763,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-93');</v>
       </c>
     </row>
-    <row r="77" spans="3:7" hidden="1">
+    <row r="77" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7499,7 +7779,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Clipper', 'Liberty 2.5-89');</v>
       </c>
     </row>
-    <row r="78" spans="3:7" hidden="1">
+    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7515,7 +7795,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D8.2');</v>
       </c>
     </row>
-    <row r="79" spans="3:7" hidden="1">
+    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7531,7 +7811,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Daewoo Dewind', 'D9.2');</v>
       </c>
     </row>
-    <row r="80" spans="3:7" hidden="1">
+    <row r="80" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7547,7 +7827,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '23 E2');</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1">
+    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7563,7 +7843,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Danwin', '24/160');</v>
       </c>
     </row>
-    <row r="82" spans="3:7" hidden="1">
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7579,7 +7859,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('DES', 'Northwind 100');</v>
       </c>
     </row>
-    <row r="83" spans="3:7" hidden="1">
+    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7595,7 +7875,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Eastern Wind Power', 'Sky Farm 50kW VAWT');</v>
       </c>
     </row>
-    <row r="84" spans="3:7" hidden="1">
+    <row r="84" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7611,7 +7891,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48');</v>
       </c>
     </row>
-    <row r="85" spans="3:7" hidden="1">
+    <row r="85" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7627,7 +7907,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Elecon', 'T600-48DS');</v>
       </c>
     </row>
-    <row r="86" spans="3:7" hidden="1">
+    <row r="86" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7643,7 +7923,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Endurance', 'E3120 50kW');</v>
       </c>
     </row>
-    <row r="87" spans="3:7" hidden="1">
+    <row r="87" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7659,7 +7939,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'E48');</v>
       </c>
     </row>
-    <row r="88" spans="3:7" hidden="1">
+    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7675,7 +7955,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Enertech', 'Enertech 44/40');</v>
       </c>
     </row>
-    <row r="89" spans="3:7" hidden="1">
+    <row r="89" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7691,7 +7971,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW54-900');</v>
       </c>
     </row>
-    <row r="90" spans="3:7" hidden="1">
+    <row r="90" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7707,7 +7987,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-750');</v>
       </c>
     </row>
-    <row r="91" spans="3:7" hidden="1">
+    <row r="91" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7723,7 +8003,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('EWT', 'DW52-900');</v>
       </c>
     </row>
-    <row r="92" spans="3:7" hidden="1">
+    <row r="92" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7739,7 +8019,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL1500');</v>
       </c>
     </row>
-    <row r="93" spans="3:7" hidden="1">
+    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7755,7 +8035,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL100');</v>
       </c>
     </row>
-    <row r="94" spans="3:7" hidden="1">
+    <row r="94" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7771,7 +8051,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL250');</v>
       </c>
     </row>
-    <row r="95" spans="3:7" hidden="1">
+    <row r="95" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7787,7 +8067,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Fuhrländer', 'FL2500/90');</v>
       </c>
     </row>
-    <row r="96" spans="3:7" hidden="1">
+    <row r="96" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7803,7 +8083,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G97-2.0');</v>
       </c>
     </row>
-    <row r="97" spans="3:7" hidden="1">
+    <row r="97" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7819,7 +8099,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G90-2.0');</v>
       </c>
     </row>
-    <row r="98" spans="3:7" hidden="1">
+    <row r="98" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7835,7 +8115,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G52-850');</v>
       </c>
     </row>
-    <row r="99" spans="3:7" hidden="1">
+    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7851,7 +8131,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G87-2.0');</v>
       </c>
     </row>
-    <row r="100" spans="3:7" hidden="1">
+    <row r="100" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7867,7 +8147,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G58-850');</v>
       </c>
     </row>
-    <row r="101" spans="3:7" hidden="1">
+    <row r="101" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7883,7 +8163,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G114-2.0');</v>
       </c>
     </row>
-    <row r="102" spans="3:7" hidden="1">
+    <row r="102" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7899,7 +8179,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G83-2.0');</v>
       </c>
     </row>
-    <row r="103" spans="3:7" hidden="1">
+    <row r="103" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7915,7 +8195,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Gamesa', 'G80-2.0');</v>
       </c>
     </row>
-    <row r="104" spans="3:7">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7931,7 +8211,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6 XLE');</v>
       </c>
     </row>
-    <row r="105" spans="3:7">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7947,7 +8227,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SLE');</v>
       </c>
     </row>
-    <row r="106" spans="3:7">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7963,7 +8243,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-82.5');</v>
       </c>
     </row>
-    <row r="107" spans="3:7">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7979,7 +8259,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.6-100');</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7995,7 +8275,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 XLE');</v>
       </c>
     </row>
-    <row r="109" spans="3:7">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8011,7 +8291,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.85-87');</v>
       </c>
     </row>
-    <row r="110" spans="3:7">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8027,7 +8307,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-50');</v>
       </c>
     </row>
-    <row r="111" spans="3:7">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8043,7 +8323,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.68-82.5');</v>
       </c>
     </row>
-    <row r="112" spans="3:7">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -8059,7 +8339,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 S');</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -8075,7 +8355,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.85-103');</v>
       </c>
     </row>
-    <row r="114" spans="3:7">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -8091,7 +8371,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-120');</v>
       </c>
     </row>
-    <row r="115" spans="3:7">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -8107,7 +8387,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-100');</v>
       </c>
     </row>
-    <row r="116" spans="3:7">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -8123,7 +8403,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.7-103');</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -8139,7 +8419,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-40');</v>
       </c>
     </row>
-    <row r="118" spans="3:7">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -8155,7 +8435,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5SL');</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8171,7 +8451,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', '1.5s (Enron)');</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8187,7 +8467,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SE');</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8203,7 +8483,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 2.5-100');</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8219,7 +8499,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'GE 1.5 SL');</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="28">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8235,7 +8515,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('GE', 'Z-48');</v>
       </c>
     </row>
-    <row r="124" spans="3:7" hidden="1">
+    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C124" s="28">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8251,7 +8531,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW82');</v>
       </c>
     </row>
-    <row r="125" spans="3:7" hidden="1">
+    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C125" s="28">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -8267,7 +8547,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW87');</v>
       </c>
     </row>
-    <row r="126" spans="3:7" hidden="1">
+    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C126" s="28">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -8283,7 +8563,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW100-2.5');</v>
       </c>
     </row>
-    <row r="127" spans="3:7" hidden="1">
+    <row r="127" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C127" s="28">
         <f t="shared" ref="C127:C190" si="3">+C126+1</f>
         <v>67</v>
@@ -8299,7 +8579,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Goldwind', 'GW77');</v>
       </c>
     </row>
-    <row r="128" spans="3:7" hidden="1">
+    <row r="128" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C128" s="28">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -8315,7 +8595,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ2000');</v>
       </c>
     </row>
-    <row r="129" spans="3:7" hidden="1">
+    <row r="129" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C129" s="28">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -8331,7 +8611,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('HHI', 'HQ1650');</v>
       </c>
     </row>
-    <row r="130" spans="3:7" hidden="1">
+    <row r="130" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C130" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -8347,7 +8627,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Jonica Impianti', 'JIMP25');</v>
       </c>
     </row>
-    <row r="131" spans="3:7" hidden="1">
+    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131" s="28">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -8363,7 +8643,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenersys', 'K100');</v>
       </c>
     </row>
-    <row r="132" spans="3:7" hidden="1">
+    <row r="132" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C132" s="28">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -8379,7 +8659,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Kenetech', '56-100');</v>
       </c>
     </row>
-    <row r="133" spans="3:7" hidden="1">
+    <row r="133" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C133" s="28">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -8395,7 +8675,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Leitwind', 'LTW77-1.5');</v>
       </c>
     </row>
-    <row r="134" spans="3:7" hidden="1">
+    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C134" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -8411,7 +8691,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT62/1.0');</v>
       </c>
     </row>
-    <row r="135" spans="3:7" hidden="1">
+    <row r="135" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C135" s="28">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -8427,7 +8707,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-1000');</v>
       </c>
     </row>
-    <row r="136" spans="3:7" hidden="1">
+    <row r="136" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C136" s="28">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -8443,7 +8723,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT92/2.4');</v>
       </c>
     </row>
-    <row r="137" spans="3:7" hidden="1">
+    <row r="137" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C137" s="28">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -8459,7 +8739,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-600');</v>
       </c>
     </row>
-    <row r="138" spans="3:7" hidden="1">
+    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138" s="28">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -8475,7 +8755,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT95/2.4');</v>
       </c>
     </row>
-    <row r="139" spans="3:7" hidden="1">
+    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C139" s="28">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -8491,7 +8771,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT-250');</v>
       </c>
     </row>
-    <row r="140" spans="3:7" hidden="1">
+    <row r="140" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C140" s="28">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -8507,7 +8787,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT102/2.4');</v>
       </c>
     </row>
-    <row r="141" spans="3:7" hidden="1">
+    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C141" s="28">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -8523,7 +8803,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Mitsubishi', 'MWT100/2.4');</v>
       </c>
     </row>
-    <row r="142" spans="3:7" hidden="1">
+    <row r="142" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C142" s="28">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -8539,7 +8819,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N54/1000');</v>
       </c>
     </row>
-    <row r="143" spans="3:7" hidden="1">
+    <row r="143" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C143" s="28">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -8555,7 +8835,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N43/600');</v>
       </c>
     </row>
-    <row r="144" spans="3:7" hidden="1">
+    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C144" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -8571,7 +8851,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2300');</v>
       </c>
     </row>
-    <row r="145" spans="3:7" hidden="1">
+    <row r="145" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C145" s="28">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -8587,7 +8867,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N60/1300');</v>
       </c>
     </row>
-    <row r="146" spans="3:7" hidden="1">
+    <row r="146" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C146" s="28">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -8603,7 +8883,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N100/2500');</v>
       </c>
     </row>
-    <row r="147" spans="3:7" hidden="1">
+    <row r="147" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C147" s="28">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -8619,7 +8899,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 LS');</v>
       </c>
     </row>
-    <row r="148" spans="3:7" hidden="1">
+    <row r="148" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C148" s="28">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -8635,7 +8915,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N90/2500 HS');</v>
       </c>
     </row>
-    <row r="149" spans="3:7" hidden="1">
+    <row r="149" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C149" s="28">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -8651,7 +8931,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordex', 'N117/2400');</v>
       </c>
     </row>
-    <row r="150" spans="3:7" hidden="1">
+    <row r="150" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C150" s="28">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -8667,7 +8947,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Nordic', 'N1000');</v>
       </c>
     </row>
-    <row r="151" spans="3:7" hidden="1">
+    <row r="151" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C151" s="28">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -8683,7 +8963,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS 100');</v>
       </c>
     </row>
-    <row r="152" spans="3:7" hidden="1">
+    <row r="152" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C152" s="28">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -8699,7 +8979,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Northern Power Systems', 'NPS Prototype');</v>
       </c>
     </row>
-    <row r="153" spans="3:7" hidden="1">
+    <row r="153" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C153">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -8715,7 +8995,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Pioneer', 'P-1650');</v>
       </c>
     </row>
-    <row r="154" spans="3:7" hidden="1">
+    <row r="154" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -8731,7 +9011,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('PowerWind', 'PowerWind 56');</v>
       </c>
     </row>
-    <row r="155" spans="3:7" hidden="1">
+    <row r="155" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C155">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -8747,7 +9027,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Renewegy', 'VP-20');</v>
       </c>
     </row>
-    <row r="156" spans="3:7" hidden="1">
+    <row r="156" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C156">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -8763,7 +9043,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('RRB Energy', 'PS-600');</v>
       </c>
     </row>
-    <row r="157" spans="3:7" hidden="1">
+    <row r="157" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -8779,7 +9059,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE100/2.0');</v>
       </c>
     </row>
-    <row r="158" spans="3:7" hidden="1">
+    <row r="158" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C158">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8795,7 +9075,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE93/2.0');</v>
       </c>
     </row>
-    <row r="159" spans="3:7" hidden="1">
+    <row r="159" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C159">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8811,7 +9091,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sany', 'SE8720IIIE');</v>
       </c>
     </row>
-    <row r="160" spans="3:7" hidden="1">
+    <row r="160" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C160">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8827,7 +9107,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Senvion', 'MM92');</v>
       </c>
     </row>
-    <row r="161" spans="3:7" hidden="1">
+    <row r="161" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C161">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8843,7 +9123,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('SHI', 'SHI2.5-100');</v>
       </c>
     </row>
-    <row r="162" spans="3:7" hidden="1">
+    <row r="162" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8859,7 +9139,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B19/120');</v>
       </c>
     </row>
-    <row r="163" spans="3:7" hidden="1">
+    <row r="163" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C163">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8875,7 +9155,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-101');</v>
       </c>
     </row>
-    <row r="164" spans="3:7" hidden="1">
+    <row r="164" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C164">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8891,7 +9171,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B37/450');</v>
       </c>
     </row>
-    <row r="165" spans="3:7" hidden="1">
+    <row r="165" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8907,7 +9187,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-93');</v>
       </c>
     </row>
-    <row r="166" spans="3:7" hidden="1">
+    <row r="166" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C166">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8923,7 +9203,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-101');</v>
       </c>
     </row>
-    <row r="167" spans="3:7" hidden="1">
+    <row r="167" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C167">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8939,7 +9219,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT2.3-108');</v>
       </c>
     </row>
-    <row r="168" spans="3:7" hidden="1">
+    <row r="168" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C168">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8955,7 +9235,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B62/1300');</v>
       </c>
     </row>
-    <row r="169" spans="3:7" hidden="1">
+    <row r="169" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C169">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8971,7 +9251,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT-2.3');</v>
       </c>
     </row>
-    <row r="170" spans="3:7" hidden="1">
+    <row r="170" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C170">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8987,7 +9267,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B15/65');</v>
       </c>
     </row>
-    <row r="171" spans="3:7" hidden="1">
+    <row r="171" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C171">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -9003,7 +9283,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'SWT3.0-113');</v>
       </c>
     </row>
-    <row r="172" spans="3:7" hidden="1">
+    <row r="172" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C172">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -9019,7 +9299,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siemens', 'B23/150');</v>
       </c>
     </row>
-    <row r="173" spans="3:7" hidden="1">
+    <row r="173" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C173">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -9035,7 +9315,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 3000/90');</v>
       </c>
     </row>
-    <row r="174" spans="3:7" hidden="1">
+    <row r="174" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C174">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -9051,7 +9331,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Sinovel', 'SL 1500/82');</v>
       </c>
     </row>
-    <row r="175" spans="3:7" hidden="1">
+    <row r="175" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C175">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -9067,7 +9347,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Siva', '250/50');</v>
       </c>
     </row>
-    <row r="176" spans="3:7" hidden="1">
+    <row r="176" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C176">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -9083,7 +9363,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S88-2.1');</v>
       </c>
     </row>
-    <row r="177" spans="3:7" hidden="1">
+    <row r="177" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -9099,7 +9379,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S64-1.25');</v>
       </c>
     </row>
-    <row r="178" spans="3:7" hidden="1">
+    <row r="178" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C178">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -9115,7 +9395,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S95-2.1');</v>
       </c>
     </row>
-    <row r="179" spans="3:7" hidden="1">
+    <row r="179" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C179">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -9131,7 +9411,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Suzlon', 'S97-2.1');</v>
       </c>
     </row>
-    <row r="180" spans="3:7" hidden="1">
+    <row r="180" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -9147,7 +9427,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T600-48');</v>
       </c>
     </row>
-    <row r="181" spans="3:7" hidden="1">
+    <row r="181" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C181">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -9163,7 +9443,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Turbowinds', 'T400-34');</v>
       </c>
     </row>
-    <row r="182" spans="3:7" hidden="1">
+    <row r="182" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -9179,7 +9459,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Unison', 'U54');</v>
       </c>
     </row>
-    <row r="183" spans="3:7" hidden="1">
+    <row r="183" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C183">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -9195,7 +9475,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vanguard', '95T');</v>
       </c>
     </row>
-    <row r="184" spans="3:7" hidden="1">
+    <row r="184" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C184">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -9211,7 +9491,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 70');</v>
       </c>
     </row>
-    <row r="185" spans="3:7" hidden="1">
+    <row r="185" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C185">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -9227,7 +9507,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', 'Vensys 82');</v>
       </c>
     </row>
-    <row r="186" spans="3:7" hidden="1">
+    <row r="186" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C186">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -9243,7 +9523,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vensys', ' Vensys 77');</v>
       </c>
     </row>
-    <row r="187" spans="3:7" hidden="1">
+    <row r="187" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -9259,7 +9539,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vergnet', 'MP-R');</v>
       </c>
     </row>
-    <row r="188" spans="3:7" hidden="1">
+    <row r="188" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C188">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -9275,7 +9555,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27-225');</v>
       </c>
     </row>
-    <row r="189" spans="3:7" hidden="1">
+    <row r="189" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C189">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -9291,7 +9571,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M108/19');</v>
       </c>
     </row>
-    <row r="190" spans="3:7" hidden="1">
+    <row r="190" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C190">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -9307,7 +9587,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM54/950');</v>
       </c>
     </row>
-    <row r="191" spans="3:7" hidden="1">
+    <row r="191" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C191">
         <f t="shared" ref="C191:C233" si="5">+C190+1</f>
         <v>131</v>
@@ -9323,7 +9603,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM52/900');</v>
       </c>
     </row>
-    <row r="192" spans="3:7" hidden="1">
+    <row r="192" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C192">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -9339,7 +9619,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK500/37');</v>
       </c>
     </row>
-    <row r="193" spans="3:7" hidden="1">
+    <row r="193" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C193">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -9355,7 +9635,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42');</v>
       </c>
     </row>
-    <row r="194" spans="3:7" hidden="1">
+    <row r="194" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C194">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -9371,7 +9651,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V47-660');</v>
       </c>
     </row>
-    <row r="195" spans="3:7" hidden="1">
+    <row r="195" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C195">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -9387,7 +9667,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM48/750');</v>
       </c>
     </row>
-    <row r="196" spans="3:7" hidden="1">
+    <row r="196" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C196">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -9403,7 +9683,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-1.8');</v>
       </c>
     </row>
-    <row r="197" spans="3:7" hidden="1">
+    <row r="197" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C197">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -9419,7 +9699,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V82-1.65');</v>
       </c>
     </row>
-    <row r="198" spans="3:7" hidden="1">
+    <row r="198" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C198">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -9435,7 +9715,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1650');</v>
       </c>
     </row>
-    <row r="199" spans="3:7" hidden="1">
+    <row r="199" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C199">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -9451,7 +9731,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V44-600');</v>
       </c>
     </row>
-    <row r="200" spans="3:7" hidden="1">
+    <row r="200" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C200">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -9467,7 +9747,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NTK65/17');</v>
       </c>
     </row>
-    <row r="201" spans="3:7" hidden="1">
+    <row r="201" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C201">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -9483,7 +9763,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM44/750');</v>
       </c>
     </row>
-    <row r="202" spans="3:7" hidden="1">
+    <row r="202" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C202">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -9499,7 +9779,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'W250/29');</v>
       </c>
     </row>
-    <row r="203" spans="3:7" hidden="1">
+    <row r="203" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C203">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -9515,7 +9795,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-1.8');</v>
       </c>
     </row>
-    <row r="204" spans="3:7" hidden="1">
+    <row r="204" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C204">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -9531,7 +9811,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM950/54');</v>
       </c>
     </row>
-    <row r="205" spans="3:7" hidden="1">
+    <row r="205" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C205">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -9547,7 +9827,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M700/225');</v>
       </c>
     </row>
-    <row r="206" spans="3:7" hidden="1">
+    <row r="206" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C206">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -9563,7 +9843,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72c/1500');</v>
       </c>
     </row>
-    <row r="207" spans="3:7" hidden="1">
+    <row r="207" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C207">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -9579,7 +9859,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17');</v>
       </c>
     </row>
-    <row r="208" spans="3:7" hidden="1">
+    <row r="208" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C208">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -9595,7 +9875,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V39-500');</v>
       </c>
     </row>
-    <row r="209" spans="3:7" hidden="1">
+    <row r="209" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C209">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -9611,7 +9891,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V27');</v>
       </c>
     </row>
-    <row r="210" spans="3:7" hidden="1">
+    <row r="210" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C210">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -9627,7 +9907,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V20');</v>
       </c>
     </row>
-    <row r="211" spans="3:7" hidden="1">
+    <row r="211" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C211">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -9643,7 +9923,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15/65');</v>
       </c>
     </row>
-    <row r="212" spans="3:7" hidden="1">
+    <row r="212" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C212">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -9659,7 +9939,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-3.0');</v>
       </c>
     </row>
-    <row r="213" spans="3:7" hidden="1">
+    <row r="213" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C213">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -9675,7 +9955,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V100-2.0');</v>
       </c>
     </row>
-    <row r="214" spans="3:7" hidden="1">
+    <row r="214" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C214">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -9691,7 +9971,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V42-600');</v>
       </c>
     </row>
-    <row r="215" spans="3:7" hidden="1">
+    <row r="215" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C215">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -9707,7 +9987,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V90-1.8');</v>
       </c>
     </row>
-    <row r="216" spans="3:7" hidden="1">
+    <row r="216" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C216">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -9723,7 +10003,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.3');</v>
       </c>
     </row>
-    <row r="217" spans="3:7" hidden="1">
+    <row r="217" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C217">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -9739,7 +10019,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM72/1650');</v>
       </c>
     </row>
-    <row r="218" spans="3:7" hidden="1">
+    <row r="218" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C218">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -9755,7 +10035,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'M65/13');</v>
       </c>
     </row>
-    <row r="219" spans="3:7" hidden="1">
+    <row r="219" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C219">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -9771,7 +10051,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NedWind');</v>
       </c>
     </row>
-    <row r="220" spans="3:7" hidden="1">
+    <row r="220" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C220">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -9787,7 +10067,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17E');</v>
       </c>
     </row>
-    <row r="221" spans="3:7" hidden="1">
+    <row r="221" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C221">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -9803,7 +10083,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V17 ');</v>
       </c>
     </row>
-    <row r="222" spans="3:7" hidden="1">
+    <row r="222" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C222">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -9819,7 +10099,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V112-3.0');</v>
       </c>
     </row>
-    <row r="223" spans="3:7" hidden="1">
+    <row r="223" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C223">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -9835,7 +10115,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V80-2.0');</v>
       </c>
     </row>
-    <row r="224" spans="3:7" hidden="1">
+    <row r="224" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C224">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -9851,7 +10131,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'NM82/1500');</v>
       </c>
     </row>
-    <row r="225" spans="3:7" hidden="1">
+    <row r="225" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C225">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -9867,7 +10147,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V110-2.0');</v>
       </c>
     </row>
-    <row r="226" spans="3:7" hidden="1">
+    <row r="226" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C226">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -9883,7 +10163,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Vestas', 'V15');</v>
       </c>
     </row>
-    <row r="227" spans="3:7" hidden="1">
+    <row r="227" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C227">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -9899,7 +10179,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W200');</v>
       </c>
     </row>
-    <row r="228" spans="3:7" hidden="1">
+    <row r="228" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C228">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -9915,7 +10195,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wincon', 'W99XT');</v>
       </c>
     </row>
-    <row r="229" spans="3:7" hidden="1">
+    <row r="229" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C229">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -9931,7 +10211,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Wind Energy Solutions', 'WES 250');</v>
       </c>
     </row>
-    <row r="230" spans="3:7" hidden="1">
+    <row r="230" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C230">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -9947,7 +10227,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmaster', 'Windmaster-211');</v>
       </c>
     </row>
-    <row r="231" spans="3:7" hidden="1">
+    <row r="231" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C231">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -9963,7 +10243,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '17S');</v>
       </c>
     </row>
-    <row r="232" spans="3:7" hidden="1">
+    <row r="232" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C232">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -9979,7 +10259,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '200');</v>
       </c>
     </row>
-    <row r="233" spans="3:7" hidden="1">
+    <row r="233" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C233">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -9995,7 +10275,7 @@
         <v>INSERT INTO `axisdb`.`platforms` (`ManufactereName`, `PlatformName`) VALUES ('Windmatic', '15S');</v>
       </c>
     </row>
-    <row r="240" spans="3:7">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>360</v>
       </c>
@@ -10003,7 +10283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="4:6">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>386</v>
       </c>
@@ -10011,7 +10291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="4:6">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>385</v>
       </c>
@@ -10019,7 +10299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>367</v>
       </c>
@@ -10027,7 +10307,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="4:6">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>363</v>
       </c>
@@ -10035,7 +10315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="4:6">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>369</v>
       </c>
@@ -10043,7 +10323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="4:6">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>361</v>
       </c>
@@ -10051,7 +10331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="4:6">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>400</v>
       </c>
@@ -10059,7 +10339,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="4:6">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>366</v>
       </c>
@@ -10067,7 +10347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="4:6">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>382</v>
       </c>
@@ -10075,7 +10355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="4:6">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>402</v>
       </c>
@@ -10083,202 +10363,202 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="4:6">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="4:6">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="4:6">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="4:6">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="4:6">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="4:6">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="4:4">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="290" spans="4:4">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>370</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="562">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1645,9 +1645,6 @@
     <t>TABLE: ASSIGNMENT OF TOOLS</t>
   </si>
   <si>
-    <t>AssigmentToolId</t>
-  </si>
-  <si>
     <t>Supplied by</t>
   </si>
   <si>
@@ -1677,6 +1674,45 @@
   </si>
   <si>
     <t>Relacion con PO</t>
+  </si>
+  <si>
+    <t>TABLE: TRUCKS</t>
+  </si>
+  <si>
+    <t>NumberTrucks</t>
+  </si>
+  <si>
+    <t>Numero de autos</t>
+  </si>
+  <si>
+    <t>RentaAgency</t>
+  </si>
+  <si>
+    <t>Agencia rentadora de autos</t>
+  </si>
+  <si>
+    <t>El costo de la renta</t>
+  </si>
+  <si>
+    <t>Other1</t>
+  </si>
+  <si>
+    <t>Campo adicional</t>
+  </si>
+  <si>
+    <t>PackingList</t>
+  </si>
+  <si>
+    <t>Lista de envio</t>
+  </si>
+  <si>
+    <t>AirwayBill</t>
+  </si>
+  <si>
+    <t>Costo de envio</t>
+  </si>
+  <si>
+    <t>TABLE: SHIPPINGS</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3179,7 @@
   <dimension ref="A1:AS92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,13 +6539,13 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H74" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I74" s="46" t="s">
         <v>439</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
@@ -6539,7 +6575,7 @@
       </c>
       <c r="D80" s="32"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>475</v>
       </c>
@@ -6548,12 +6584,18 @@
       </c>
       <c r="D81" s="31"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="44" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>549</v>
+      </c>
+      <c r="M85" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
         <v>0</v>
       </c>
@@ -6563,68 +6605,170 @@
       <c r="D86" s="45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="40" t="s">
-        <v>539</v>
+      <c r="H86" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="O86" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="46" t="s">
+        <v>547</v>
       </c>
       <c r="C87" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="D87" s="40"/>
-    </row>
-    <row r="88" spans="2:4" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="D87" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="I87" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="J87" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="M87" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="N87" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="O87" s="47" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" ht="68.25" x14ac:dyDescent="0.25">
       <c r="B88" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="C88" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="47" t="s">
+      <c r="H88" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="I88" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="J88" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="M88" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="N88" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="47" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="H89" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="I89" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="M89" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="N89" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O89" s="47"/>
+    </row>
+    <row r="90" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B90" s="46" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="46" t="s">
-        <v>547</v>
-      </c>
-      <c r="C89" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B90" s="46" t="s">
+      <c r="C90" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="C90" s="46" t="s">
+      <c r="D90" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="H90" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="I90" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="J90" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="M90" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="N90" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="O90" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="46" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="46" t="s">
-        <v>545</v>
-      </c>
       <c r="C91" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="47"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>549</v>
-      </c>
+      <c r="H91" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="I91" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="47"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="47"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="47"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,189 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FIELD VALUES'!$C$60:$E$233</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>aelavalle</author>
+  </authors>
+  <commentList>
+    <comment ref="H99" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Agregar os campos que falten. NO dan en la tabla de herramientas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B104" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Glove Bag</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B105" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B117" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Glove Bag</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B118" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B128" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Glove Bag</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B129" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aelavalle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Notes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="599">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -1713,6 +1890,117 @@
   </si>
   <si>
     <t>TABLE: SHIPPINGS</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial #</t>
+  </si>
+  <si>
+    <t>Serial 2 #</t>
+  </si>
+  <si>
+    <t>Additiona 1</t>
+  </si>
+  <si>
+    <t>Additiona 2</t>
+  </si>
+  <si>
+    <t>Status / Condition</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Rescue Kits</t>
+  </si>
+  <si>
+    <t>PO / TECH</t>
+  </si>
+  <si>
+    <t>Tool Kits</t>
+  </si>
+  <si>
+    <t>40 Cal Suit</t>
+  </si>
+  <si>
+    <t>Class 0 Gloves</t>
+  </si>
+  <si>
+    <t>Class 0 Face Shield</t>
+  </si>
+  <si>
+    <t>Tic Tracer</t>
+  </si>
+  <si>
+    <t>Torque Wrench</t>
+  </si>
+  <si>
+    <t>Torque Pump</t>
+  </si>
+  <si>
+    <t>Hot Stick</t>
+  </si>
+  <si>
+    <t>LOTO Box</t>
+  </si>
+  <si>
+    <t>Hard Hat</t>
+  </si>
+  <si>
+    <t>Harness</t>
+  </si>
+  <si>
+    <t>Lanyard</t>
+  </si>
+  <si>
+    <t>Lad-Saf</t>
+  </si>
+  <si>
+    <t>Calibration Due / Manufact. Date</t>
+  </si>
+  <si>
+    <t>Assign to Tuck / VIN</t>
+  </si>
+  <si>
+    <t>Commets</t>
+  </si>
+  <si>
+    <t>Only 1 per Tuck</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>Cada PPE es asignado a un solo tecnico</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Asignar a un solo JOB, lo mismo que los Tecnicos</t>
+  </si>
+  <si>
+    <t>ContractId</t>
+  </si>
+  <si>
+    <t>JOB / Warehouse</t>
+  </si>
+  <si>
+    <t>TruckId</t>
+  </si>
+  <si>
+    <t>Truck / Warehouse</t>
+  </si>
+  <si>
+    <t>TABLE: ASSIGNMENT OF TOOLS BY JOB</t>
+  </si>
+  <si>
+    <t>TABLE: ASSIGNMENT OF TOOLS BY TRUCK</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +2010,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,8 +2084,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1825,6 +2126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +2333,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2085,6 +2392,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3175,11 +3490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,8 +3507,8 @@
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" customWidth="1"/>
     <col min="11" max="12" width="3.7109375" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
@@ -6770,10 +7085,419 @@
       <c r="N92" s="46"/>
       <c r="O92" s="47"/>
     </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="44" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D97" s="47"/>
+      <c r="H97" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="H99" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="I99" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="J99" s="48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="H103" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="H104" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="H105" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="H110" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="50"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="51"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="52"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="53"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B117" authorId="0" shapeId="0">
+    <comment ref="B118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B118" authorId="0" shapeId="0">
+    <comment ref="B119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="599">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -2333,7 +2333,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2393,11 +2393,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3493,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7293,6 +7288,13 @@
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="1"/>
       <c r="H107" s="1" t="s">
         <v>581</v>
       </c>
@@ -7304,9 +7306,6 @@
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="44" t="s">
-        <v>598</v>
-      </c>
       <c r="H108" s="1" t="s">
         <v>582</v>
       </c>
@@ -7318,14 +7317,8 @@
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>2</v>
+      <c r="B109" s="44" t="s">
+        <v>598</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>583</v>
@@ -7338,13 +7331,15 @@
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="C110" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="D110" s="47"/>
+      <c r="B110" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="H110" s="1" t="s">
         <v>584</v>
       </c>
@@ -7356,17 +7351,17 @@
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="1"/>
+      <c r="B111" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D111" s="47"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>18</v>
@@ -7375,7 +7370,7 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>18</v>
@@ -7384,7 +7379,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>18</v>
@@ -7393,7 +7388,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>18</v>
@@ -7402,96 +7397,104 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="40" t="s">
+      <c r="C119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49"/>
-    </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="50"/>
-      <c r="C121" s="50"/>
-      <c r="D121" s="51"/>
+      <c r="B121" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="1"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="52"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="52"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="52"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
+      <c r="B126" s="49"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="49"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="53"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="607">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -2001,6 +2001,30 @@
   </si>
   <si>
     <t>TABLE: ASSIGNMENT OF TOOLS BY TRUCK</t>
+  </si>
+  <si>
+    <t>TABLE: TruckDetails</t>
+  </si>
+  <si>
+    <t>PlateNumber</t>
+  </si>
+  <si>
+    <t>Numero de placa</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Other 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Este campo ayuda a determinar si ya fueron colocados la cantidad de autos a rentar</t>
   </si>
 </sst>
 </file>
@@ -3488,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F79" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6885,7 +6909,7 @@
       </c>
       <c r="D80" s="32"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>475</v>
       </c>
@@ -6894,7 +6918,7 @@
       </c>
       <c r="D81" s="31"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" s="44" t="s">
         <v>538</v>
       </c>
@@ -6902,10 +6926,13 @@
         <v>549</v>
       </c>
       <c r="M85" t="s">
+        <v>599</v>
+      </c>
+      <c r="R85" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
         <v>0</v>
       </c>
@@ -6933,8 +6960,17 @@
       <c r="O86" s="45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S86" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T86" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="46" t="s">
         <v>547</v>
       </c>
@@ -6954,16 +6990,23 @@
         <v>548</v>
       </c>
       <c r="M87" s="46" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="N87" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="O87" s="47" t="s">
+      <c r="O87" s="47"/>
+      <c r="R87" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="S87" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="T87" s="47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="68.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" ht="57" x14ac:dyDescent="0.25">
       <c r="B88" s="46" t="s">
         <v>539</v>
       </c>
@@ -6983,16 +7026,25 @@
         <v>551</v>
       </c>
       <c r="M88" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="N88" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="R88" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="N88" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O88" s="47" t="s">
+      <c r="S88" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="T88" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
         <v>546</v>
       </c>
@@ -7012,14 +7064,21 @@
         <v>553</v>
       </c>
       <c r="M89" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="N89" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O89" s="47"/>
+      <c r="R89" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="N89" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O89" s="47"/>
-    </row>
-    <row r="90" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="S89" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="T89" s="47"/>
+    </row>
+    <row r="90" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
         <v>541</v>
       </c>
@@ -7039,16 +7098,23 @@
         <v>554</v>
       </c>
       <c r="M90" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="N90" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O90" s="47"/>
+      <c r="R90" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="N90" s="46" t="s">
+      <c r="S90" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="O90" s="47" t="s">
+      <c r="T90" s="47" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
         <v>544</v>
       </c>
@@ -7065,27 +7131,47 @@
       <c r="J91" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
+      <c r="M91" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="N91" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="O91" s="47"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="46"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="47"/>
+    </row>
+    <row r="92" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B92" s="46"/>
       <c r="C92" s="46"/>
       <c r="D92" s="47"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="47"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
+      <c r="H92" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="I92" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="M92" s="46" t="s">
+        <v>604</v>
+      </c>
+      <c r="N92" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="O92" s="47"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="47"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="44" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="45" t="s">
         <v>0</v>
       </c>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="643">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -2006,25 +2006,133 @@
     <t>TABLE: TruckDetails</t>
   </si>
   <si>
-    <t>PlateNumber</t>
-  </si>
-  <si>
     <t>Numero de placa</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Other 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Status </t>
   </si>
   <si>
     <t>Este campo ayuda a determinar si ya fueron colocados la cantidad de autos a rentar</t>
+  </si>
+  <si>
+    <t>Licence Plate</t>
+  </si>
+  <si>
+    <t>MakeModel</t>
+  </si>
+  <si>
+    <t>Site Location</t>
+  </si>
+  <si>
+    <t>Last 6 of VIN</t>
+  </si>
+  <si>
+    <t>Date Rent</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Gas/Diesel</t>
+  </si>
+  <si>
+    <t>Gas Card</t>
+  </si>
+  <si>
+    <t>Yes/NO</t>
+  </si>
+  <si>
+    <t>Insurance Documentacion</t>
+  </si>
+  <si>
+    <t>Item Interior 1</t>
+  </si>
+  <si>
+    <t>Item Interior 2</t>
+  </si>
+  <si>
+    <t>Item Interior 3</t>
+  </si>
+  <si>
+    <t>Item Interior 4</t>
+  </si>
+  <si>
+    <t>Item Interior 5</t>
+  </si>
+  <si>
+    <t>Engine Comparment 1</t>
+  </si>
+  <si>
+    <t>Engine Comparment 2</t>
+  </si>
+  <si>
+    <t>Engine Comparment 3</t>
+  </si>
+  <si>
+    <t>Engine Comparment 4</t>
+  </si>
+  <si>
+    <t>Item exterior 1</t>
+  </si>
+  <si>
+    <t>Item exterior 2</t>
+  </si>
+  <si>
+    <t>Item exterior 3</t>
+  </si>
+  <si>
+    <t>Item exterior 4</t>
+  </si>
+  <si>
+    <t>Item exterior 5</t>
+  </si>
+  <si>
+    <t>Item exterior 6</t>
+  </si>
+  <si>
+    <t>Item exterior 7</t>
+  </si>
+  <si>
+    <t>Item exterior 8</t>
+  </si>
+  <si>
+    <t>Item exterior 9</t>
+  </si>
+  <si>
+    <t>Item exterior 10</t>
+  </si>
+  <si>
+    <t>Item exterior 11</t>
+  </si>
+  <si>
+    <t>Item exterior 12</t>
+  </si>
+  <si>
+    <t>Item exterior 13</t>
+  </si>
+  <si>
+    <t>Item exterior 14</t>
+  </si>
+  <si>
+    <t>Item exterior 15</t>
+  </si>
+  <si>
+    <t>Item exterior 16</t>
+  </si>
+  <si>
+    <t>Aditional Comments</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Dia de renta</t>
+  </si>
+  <si>
+    <t>Ultimos dígitos del VIN</t>
+  </si>
+  <si>
+    <t>Model / Marca</t>
   </si>
 </sst>
 </file>
@@ -3512,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F79" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7026,13 +7134,13 @@
         <v>551</v>
       </c>
       <c r="M88" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="N88" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="47" t="s">
         <v>600</v>
-      </c>
-      <c r="N88" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O88" s="47" t="s">
-        <v>601</v>
       </c>
       <c r="R88" s="46" t="s">
         <v>557</v>
@@ -7064,12 +7172,14 @@
         <v>553</v>
       </c>
       <c r="M89" s="46" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N89" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O89" s="47"/>
+      <c r="O89" s="47" t="s">
+        <v>642</v>
+      </c>
       <c r="R89" s="46" t="s">
         <v>559</v>
       </c>
@@ -7098,7 +7208,7 @@
         <v>554</v>
       </c>
       <c r="M90" s="46" t="s">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="N90" s="46" t="s">
         <v>18</v>
@@ -7132,12 +7242,14 @@
         <v>556</v>
       </c>
       <c r="M91" s="46" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="N91" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O91" s="47"/>
+      <c r="O91" s="47" t="s">
+        <v>641</v>
+      </c>
       <c r="R91" s="46"/>
       <c r="S91" s="46"/>
       <c r="T91" s="47"/>
@@ -7147,29 +7259,62 @@
       <c r="C92" s="46"/>
       <c r="D92" s="47"/>
       <c r="H92" s="46" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I92" s="46" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="47" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M92" s="46" t="s">
-        <v>604</v>
-      </c>
-      <c r="N92" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O92" s="47"/>
+        <v>607</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O92" s="47" t="s">
+        <v>640</v>
+      </c>
       <c r="R92" s="46"/>
       <c r="S92" s="46"/>
       <c r="T92" s="47"/>
     </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M93" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="N93" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M94" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="N94" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="44" t="s">
         <v>597</v>
       </c>
+      <c r="M95" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="N95" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="45" t="s">
@@ -7190,8 +7335,17 @@
       <c r="J96" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M96" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="N96" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="46" t="s">
         <v>593</v>
       </c>
@@ -7208,8 +7362,17 @@
       <c r="J97" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M97" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="N97" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>562</v>
       </c>
@@ -7226,8 +7389,17 @@
       <c r="J98" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M98" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="N98" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>563</v>
       </c>
@@ -7244,8 +7416,17 @@
       <c r="J99" s="48" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M99" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="N99" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>564</v>
       </c>
@@ -7262,8 +7443,17 @@
       <c r="J100" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M100" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="N100" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>565</v>
       </c>
@@ -7280,8 +7470,17 @@
       <c r="J101" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M101" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="N101" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>568</v>
       </c>
@@ -7298,8 +7497,17 @@
       <c r="J102" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M102" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="N102" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>585</v>
       </c>
@@ -7316,8 +7524,17 @@
       <c r="J103" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M103" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="N103" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>566</v>
       </c>
@@ -7334,8 +7551,17 @@
       <c r="J104" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M104" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="N104" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>567</v>
       </c>
@@ -7352,8 +7578,17 @@
       <c r="J105" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M105" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="N105" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="40" t="s">
         <v>591</v>
       </c>
@@ -7372,8 +7607,17 @@
       <c r="J106" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M106" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="N106" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="40" t="s">
         <v>569</v>
       </c>
@@ -7390,8 +7634,17 @@
       <c r="J107" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M107" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="N107" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H108" s="1" t="s">
         <v>582</v>
       </c>
@@ -7401,8 +7654,17 @@
       <c r="J108" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M108" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="N108" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="44" t="s">
         <v>598</v>
       </c>
@@ -7415,8 +7677,17 @@
       <c r="J109" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M109" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="N109" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="45" t="s">
         <v>0</v>
       </c>
@@ -7435,8 +7706,17 @@
       <c r="J110" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M110" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="N110" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="46" t="s">
         <v>595</v>
       </c>
@@ -7444,8 +7724,17 @@
         <v>439</v>
       </c>
       <c r="D111" s="47"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M111" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="N111" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>562</v>
       </c>
@@ -7453,8 +7742,17 @@
         <v>18</v>
       </c>
       <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M112" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="N112" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>563</v>
       </c>
@@ -7462,8 +7760,17 @@
         <v>18</v>
       </c>
       <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M113" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="N113" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>564</v>
       </c>
@@ -7471,8 +7778,17 @@
         <v>18</v>
       </c>
       <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M114" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="N114" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>565</v>
       </c>
@@ -7480,8 +7796,17 @@
         <v>18</v>
       </c>
       <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M115" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="N115" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>568</v>
       </c>
@@ -7489,8 +7814,17 @@
         <v>18</v>
       </c>
       <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M116" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="N116" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>585</v>
       </c>
@@ -7498,8 +7832,17 @@
         <v>105</v>
       </c>
       <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M117" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="N117" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>566</v>
       </c>
@@ -7507,8 +7850,17 @@
         <v>18</v>
       </c>
       <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M118" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="N118" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>567</v>
       </c>
@@ -7516,8 +7868,17 @@
         <v>18</v>
       </c>
       <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M119" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="N119" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" s="40" t="s">
         <v>591</v>
       </c>
@@ -7527,8 +7888,17 @@
       <c r="D120" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M120" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="N120" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121" s="40" t="s">
         <v>569</v>
       </c>
@@ -7536,38 +7906,56 @@
         <v>18</v>
       </c>
       <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M121" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="N121" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" s="49"/>
       <c r="C122" s="49"/>
       <c r="D122" s="49"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M122" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="N122" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
       <c r="D123" s="49"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
       <c r="D124" s="49"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125" s="49"/>
       <c r="C125" s="49"/>
       <c r="D125" s="49"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126" s="49"/>
       <c r="C126" s="49"/>
       <c r="D126" s="49"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127" s="49"/>
       <c r="C127" s="49"/>
       <c r="D127" s="49"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128" s="49"/>
       <c r="C128" s="49"/>
       <c r="D128" s="49"/>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -3620,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
@@ -7983,7 +7983,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:W290"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>

--- a/Documentacion/DBASE MODEL V2 PPT.xlsx
+++ b/Documentacion/DBASE MODEL V2 PPT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="465" yWindow="615" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="615" windowWidth="20025" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -148,60 +148,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B128" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>aelavalle:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Glove Bag</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B129" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>aelavalle:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Notes</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="668">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -2133,6 +2085,81 @@
   </si>
   <si>
     <t>Model / Marca</t>
+  </si>
+  <si>
+    <t>Table: weekreports</t>
+  </si>
+  <si>
+    <t>WeekReportId</t>
+  </si>
+  <si>
+    <t>StartDay</t>
+  </si>
+  <si>
+    <t>EndDay</t>
+  </si>
+  <si>
+    <t>TechId</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>Table: dayreports</t>
+  </si>
+  <si>
+    <t>DayReportId</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>TotalHours</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Table: daydetails</t>
+  </si>
+  <si>
+    <t>DayDetailId</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>MobType</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Billable</t>
+  </si>
+  <si>
+    <t>TechComment</t>
+  </si>
+  <si>
+    <t>DayR</t>
+  </si>
+  <si>
+    <t>SupervisorComment</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2492,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2526,7 +2553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3618,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS130"/>
+  <dimension ref="A1:AS149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,44 +7957,256 @@
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="49"/>
       <c r="C123" s="49"/>
       <c r="D123" s="49"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B124" s="49"/>
       <c r="C124" s="49"/>
       <c r="D124" s="49"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B125" s="49"/>
       <c r="C125" s="49"/>
       <c r="D125" s="49"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B126" s="49"/>
       <c r="C126" s="49"/>
       <c r="D126" s="49"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B127" s="49"/>
+      <c r="B127" t="s">
+        <v>643</v>
+      </c>
       <c r="C127" s="49"/>
       <c r="D127" s="49"/>
+      <c r="H127" t="s">
+        <v>650</v>
+      </c>
+      <c r="I127" s="49"/>
+      <c r="J127" s="49"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B128" s="49"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="49"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="49"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="49"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="50"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="49"/>
+      <c r="B128" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J128" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="C129" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D129" s="47"/>
+      <c r="H129" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="I129" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="J129" s="47"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="H130" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="H131" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="H132" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="H133" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="H134" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H135" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="I135" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="J135" s="47"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>656</v>
+      </c>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="C141" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D141" s="47"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D147" s="47"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="47" t="s">
+        <v>664</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="D148" s="47"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D149" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7983,7 +8221,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:W290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K4" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
